--- a/Phase_01/ProblemListPhase1.xlsx
+++ b/Phase_01/ProblemListPhase1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Works\1. Self Development\Core Programming\Traing Problems of xlr8\Source Codes\Mahbubul Hasan Shanto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Works\1. Self Development\Core Programming\ProblemSolvingArch\ProblemSolvingArch\Phase_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="345">
   <si>
     <t>Problem Link</t>
   </si>
@@ -44,15 +44,9 @@
     <t>LightOJ</t>
   </si>
   <si>
-    <t>Uva</t>
-  </si>
-  <si>
     <t>Done?</t>
   </si>
   <si>
-    <t>UvaLive</t>
-  </si>
-  <si>
     <t>Serial No.</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Graph Algorithm</t>
   </si>
   <si>
-    <t>UVa</t>
-  </si>
-  <si>
     <t>Adhoc Technique</t>
   </si>
   <si>
@@ -98,7 +89,976 @@
     <t>Tag</t>
   </si>
   <si>
-    <t xml:space="preserve">Timus (Ural) </t>
+    <t xml:space="preserve">URAL </t>
+  </si>
+  <si>
+    <t>UVALive</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1000&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1264&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1293&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1409&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1068&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1083&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1086&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1209&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1001&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1008&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1010&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1015&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1022&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1053&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1069&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1072&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1107&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1116&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1136&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1182&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1202&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1211&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1216&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1294&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1305&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1311&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1331&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1433&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVA&amp;probNum=100&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1001&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1014&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1020&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1025&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1044&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1079&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1197&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1313&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1319&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1006&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1045&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1109&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1113&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1133&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1214&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1225&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1227&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1241&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1249&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1261&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1338&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1354&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1387&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1414&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1005&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1082&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=URAL&amp;probNum=1149&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1042&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=LightOJ&amp;probNum=1189&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6823&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6949&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6977&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6982&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6988&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7035&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6843&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6844&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6847&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6858&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6862&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6909&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6918&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6921&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6929&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6962&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6966&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6969&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6984&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6994&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7024&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7031&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7032&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7034&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7040&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7045&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7083&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7147&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7163&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7169&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6825&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6831&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6916&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6919&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6964&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6974&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6985&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6987&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7048&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7060&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7062&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7051&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6983&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6802&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6809&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6836&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6884&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6906&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6912&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6948&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6954&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6973&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6990&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6998&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7000&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7014&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7047&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7058&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7086&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6850&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6999&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7002&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7006&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7009&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7053&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6986&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7025&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6830&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6838&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6857&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6860&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6898&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6900&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6936&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7057&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6946&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6789&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6828&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6829&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6855&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6940&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6957&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7027&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7028&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6979&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6782&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6783&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6787&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6801&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6834&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6848&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6853&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6861&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6892&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6896&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6904&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6908&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6952&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6972&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6980&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6991&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6993&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6997&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7023&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7029&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7030&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7050&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7065&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7143&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7165&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6822&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6824&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6840&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6905&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6914&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6923&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6927&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6931&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6932&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6937&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6938&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6961&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7003&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7005&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7055&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7061&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7063&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7078&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7172&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7046&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7167&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVA&amp;probNum=10653&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVA&amp;probNum=10651&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6788&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6790&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6800&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6807&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6811&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6827&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6837&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6851&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6885&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6887&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6897&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6930&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6992&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6995&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6996&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7001&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7008&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7015&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7026&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7043&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7079&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7081&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6888&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6891&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6894&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6910&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6920&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6941&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6953&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6970&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6981&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7016&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7018&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7021&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7037&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7042&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7052&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7168&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6821&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6899&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6934&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6959&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6960&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7012&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7013&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7054&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6786&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6832&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6833&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6852&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6854&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6863&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6895&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6901&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6903&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6907&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6911&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6915&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6917&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6924&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6935&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6939&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6944&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6947&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6963&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6965&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6968&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7049&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7068&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7073&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7077&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7084&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7139&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7146&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7164&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7170&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7171&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6804&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6810&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6849&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6864&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6889&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6902&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6922&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6926&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6943&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6945&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6958&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7019&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7059&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7064&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6842&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6928&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6784&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6835&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6839&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6859&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6890&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6925&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6942&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6955&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6967&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6989&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7004&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7020&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7066&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7166&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6826&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6845&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6846&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6951&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6956&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7069&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7070&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7072&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6785&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6841&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6950&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7022&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6805&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6976&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7017&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7033&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6806&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6808&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6856&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6893&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7041&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=7071&amp;title=&amp;source=&amp;category=all</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem#OJId=UVALive&amp;probNum=6933&amp;title=&amp;source=&amp;category=all</t>
   </si>
 </sst>
 </file>
@@ -635,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J640"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="A2:J639"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="G215" sqref="G215:G538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -645,7 +1605,7 @@
     <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
     <col min="4" max="5" width="18.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30" style="1" customWidth="1"/>
+    <col min="7" max="7" width="89.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" style="1" customWidth="1"/>
@@ -654,13 +1614,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -675,13 +1635,13 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -692,10 +1652,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2">
         <v>1000</v>
@@ -716,10 +1676,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
         <v>1264</v>
@@ -740,10 +1700,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>1293</v>
@@ -764,10 +1724,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>1409</v>
@@ -788,10 +1748,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2">
         <v>1068</v>
@@ -812,10 +1772,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2">
         <v>1083</v>
@@ -836,10 +1796,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>1086</v>
@@ -860,10 +1820,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>1209</v>
@@ -884,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
@@ -908,7 +1868,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -932,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -956,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
@@ -980,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -1004,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
@@ -1028,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
@@ -1052,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
@@ -1076,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -1100,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
@@ -1124,7 +2084,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
@@ -1148,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>5</v>
@@ -1172,7 +2132,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>5</v>
@@ -1196,7 +2156,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>5</v>
@@ -1220,7 +2180,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
@@ -1244,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
@@ -1268,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -1292,7 +2252,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -1316,7 +2276,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -1340,7 +2300,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -1364,10 +2324,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E30" s="2">
         <v>100</v>
@@ -1388,10 +2348,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2">
         <v>1001</v>
@@ -1412,10 +2372,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E32" s="2">
         <v>1014</v>
@@ -1436,10 +2396,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E33" s="2">
         <v>1020</v>
@@ -1460,10 +2420,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E34" s="2">
         <v>1025</v>
@@ -1484,10 +2444,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E35" s="2">
         <v>1044</v>
@@ -1508,10 +2468,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E36" s="2">
         <v>1079</v>
@@ -1532,10 +2492,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E37" s="2">
         <v>1197</v>
@@ -1556,10 +2516,10 @@
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E38" s="2">
         <v>1313</v>
@@ -1580,10 +2540,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E39" s="2">
         <v>1319</v>
@@ -1604,7 +2564,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
@@ -1628,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>5</v>
@@ -1652,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>5</v>
@@ -1676,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>5</v>
@@ -1700,7 +2660,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
@@ -1724,7 +2684,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>5</v>
@@ -1748,7 +2708,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>5</v>
@@ -1772,7 +2732,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>5</v>
@@ -1796,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>5</v>
@@ -1820,7 +2780,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>5</v>
@@ -1844,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>5</v>
@@ -1868,7 +2828,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>5</v>
@@ -1892,7 +2852,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>5</v>
@@ -1916,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>5</v>
@@ -1940,7 +2900,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>5</v>
@@ -1964,10 +2924,10 @@
         <v>2</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E55" s="2">
         <v>1005</v>
@@ -1988,10 +2948,10 @@
         <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E56" s="2">
         <v>1082</v>
@@ -2012,10 +2972,10 @@
         <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E57" s="2">
         <v>1149</v>
@@ -2036,7 +2996,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>5</v>
@@ -2060,7 +3020,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
@@ -2084,10 +3044,10 @@
         <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E60" s="2">
         <v>6823</v>
@@ -2108,10 +3068,10 @@
         <v>3</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E61" s="2">
         <v>6949</v>
@@ -2132,10 +3092,10 @@
         <v>3</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E62" s="2">
         <v>6977</v>
@@ -2156,10 +3116,10 @@
         <v>3</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E63" s="2">
         <v>6982</v>
@@ -2180,10 +3140,10 @@
         <v>3</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E64" s="2">
         <v>6988</v>
@@ -2204,10 +3164,10 @@
         <v>3</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E65" s="2">
         <v>7035</v>
@@ -2228,10 +3188,10 @@
         <v>3</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E66" s="2">
         <v>6843</v>
@@ -2252,10 +3212,10 @@
         <v>3</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E67" s="2">
         <v>6844</v>
@@ -2276,10 +3236,10 @@
         <v>3</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E68" s="2">
         <v>6847</v>
@@ -2300,10 +3260,10 @@
         <v>3</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E69" s="2">
         <v>6858</v>
@@ -2324,10 +3284,10 @@
         <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E70" s="2">
         <v>6862</v>
@@ -2348,10 +3308,10 @@
         <v>3</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E71" s="2">
         <v>6909</v>
@@ -2372,10 +3332,10 @@
         <v>3</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E72" s="2">
         <v>6918</v>
@@ -2396,10 +3356,10 @@
         <v>3</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E73" s="2">
         <v>6921</v>
@@ -2420,10 +3380,10 @@
         <v>3</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E74" s="2">
         <v>6929</v>
@@ -2444,10 +3404,10 @@
         <v>3</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E75" s="2">
         <v>6962</v>
@@ -2468,10 +3428,10 @@
         <v>3</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E76" s="2">
         <v>6966</v>
@@ -2492,10 +3452,10 @@
         <v>3</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E77" s="2">
         <v>6969</v>
@@ -2516,10 +3476,10 @@
         <v>3</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E78" s="2">
         <v>6984</v>
@@ -2540,10 +3500,10 @@
         <v>3</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E79" s="2">
         <v>6994</v>
@@ -2564,10 +3524,10 @@
         <v>3</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E80" s="2">
         <v>7024</v>
@@ -2588,10 +3548,10 @@
         <v>3</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E81" s="2">
         <v>7031</v>
@@ -2612,10 +3572,10 @@
         <v>3</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E82" s="2">
         <v>7032</v>
@@ -2636,10 +3596,10 @@
         <v>3</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E83" s="2">
         <v>7034</v>
@@ -2660,10 +3620,10 @@
         <v>3</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E84" s="2">
         <v>7040</v>
@@ -2684,10 +3644,10 @@
         <v>3</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E85" s="2">
         <v>7045</v>
@@ -2708,10 +3668,10 @@
         <v>3</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E86" s="2">
         <v>7083</v>
@@ -2732,10 +3692,10 @@
         <v>3</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E87" s="2">
         <v>7147</v>
@@ -2756,10 +3716,10 @@
         <v>3</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E88" s="2">
         <v>7163</v>
@@ -2780,10 +3740,10 @@
         <v>3</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E89" s="2">
         <v>7169</v>
@@ -2804,10 +3764,10 @@
         <v>3</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E90" s="2">
         <v>6825</v>
@@ -2828,10 +3788,10 @@
         <v>3</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E91" s="2">
         <v>6831</v>
@@ -2852,10 +3812,10 @@
         <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E92" s="2">
         <v>6916</v>
@@ -2876,10 +3836,10 @@
         <v>3</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E93" s="2">
         <v>6919</v>
@@ -2900,10 +3860,10 @@
         <v>3</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E94" s="2">
         <v>6964</v>
@@ -2924,10 +3884,10 @@
         <v>3</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E95" s="2">
         <v>6974</v>
@@ -2948,10 +3908,10 @@
         <v>3</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E96" s="2">
         <v>6985</v>
@@ -2972,10 +3932,10 @@
         <v>3</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E97" s="2">
         <v>6987</v>
@@ -2996,10 +3956,10 @@
         <v>3</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E98" s="2">
         <v>7048</v>
@@ -3020,10 +3980,10 @@
         <v>3</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E99" s="2">
         <v>7060</v>
@@ -3044,10 +4004,10 @@
         <v>3</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E100" s="2">
         <v>7062</v>
@@ -3068,10 +4028,10 @@
         <v>3</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E101" s="2">
         <v>7051</v>
@@ -3092,10 +4052,10 @@
         <v>4</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E102" s="2">
         <v>6983</v>
@@ -3116,10 +4076,10 @@
         <v>4</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E103" s="2">
         <v>6802</v>
@@ -3140,10 +4100,10 @@
         <v>4</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E104" s="2">
         <v>6809</v>
@@ -3164,10 +4124,10 @@
         <v>4</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E105" s="2">
         <v>6836</v>
@@ -3188,10 +4148,10 @@
         <v>4</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E106" s="2">
         <v>6884</v>
@@ -3212,10 +4172,10 @@
         <v>4</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E107" s="2">
         <v>6906</v>
@@ -3236,10 +4196,10 @@
         <v>4</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E108" s="2">
         <v>6912</v>
@@ -3260,10 +4220,10 @@
         <v>4</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E109" s="2">
         <v>6948</v>
@@ -3284,10 +4244,10 @@
         <v>4</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E110" s="2">
         <v>6954</v>
@@ -3308,10 +4268,10 @@
         <v>4</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E111" s="2">
         <v>6973</v>
@@ -3332,10 +4292,10 @@
         <v>4</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E112" s="2">
         <v>6990</v>
@@ -3356,10 +4316,10 @@
         <v>4</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E113" s="2">
         <v>6998</v>
@@ -3380,10 +4340,10 @@
         <v>4</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E114" s="2">
         <v>7000</v>
@@ -3404,10 +4364,10 @@
         <v>4</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E115" s="2">
         <v>7014</v>
@@ -3428,10 +4388,10 @@
         <v>4</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E116" s="2">
         <v>7047</v>
@@ -3452,10 +4412,10 @@
         <v>4</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E117" s="2">
         <v>7058</v>
@@ -3476,10 +4436,10 @@
         <v>4</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E118" s="2">
         <v>7086</v>
@@ -3500,10 +4460,10 @@
         <v>4</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E119" s="2">
         <v>6850</v>
@@ -3524,10 +4484,10 @@
         <v>4</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E120" s="2">
         <v>6999</v>
@@ -3548,10 +4508,10 @@
         <v>4</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E121" s="2">
         <v>7002</v>
@@ -3572,10 +4532,10 @@
         <v>4</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E122" s="2">
         <v>7006</v>
@@ -3596,10 +4556,10 @@
         <v>4</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E123" s="2">
         <v>7009</v>
@@ -3620,10 +4580,10 @@
         <v>4</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E124" s="2">
         <v>7053</v>
@@ -3644,10 +4604,10 @@
         <v>5</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E125" s="2">
         <v>6986</v>
@@ -3668,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E126" s="2">
         <v>7025</v>
@@ -3692,10 +4652,10 @@
         <v>5</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E127" s="2">
         <v>6830</v>
@@ -3716,10 +4676,10 @@
         <v>5</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E128" s="2">
         <v>6838</v>
@@ -3740,10 +4700,10 @@
         <v>5</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E129" s="2">
         <v>6857</v>
@@ -3764,10 +4724,10 @@
         <v>5</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E130" s="2">
         <v>6860</v>
@@ -3788,10 +4748,10 @@
         <v>5</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E131" s="2">
         <v>6898</v>
@@ -3812,10 +4772,10 @@
         <v>5</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E132" s="2">
         <v>6900</v>
@@ -3836,10 +4796,10 @@
         <v>5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E133" s="2">
         <v>6936</v>
@@ -3860,10 +4820,10 @@
         <v>5</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E134" s="2">
         <v>7057</v>
@@ -3884,10 +4844,10 @@
         <v>5</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E135" s="2">
         <v>6946</v>
@@ -3908,10 +4868,10 @@
         <v>6</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E136" s="2">
         <v>6789</v>
@@ -3932,10 +4892,10 @@
         <v>6</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E137" s="2">
         <v>6828</v>
@@ -3956,10 +4916,10 @@
         <v>6</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E138" s="2">
         <v>6829</v>
@@ -3980,10 +4940,10 @@
         <v>6</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E139" s="2">
         <v>6855</v>
@@ -4004,10 +4964,10 @@
         <v>6</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E140" s="2">
         <v>6940</v>
@@ -4028,10 +4988,10 @@
         <v>6</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E141" s="2">
         <v>6957</v>
@@ -4052,10 +5012,10 @@
         <v>6</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E142" s="2">
         <v>7027</v>
@@ -4076,10 +5036,10 @@
         <v>6</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E143" s="2">
         <v>7028</v>
@@ -4100,10 +5060,10 @@
         <v>6</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E144" s="2">
         <v>6979</v>
@@ -4124,10 +5084,10 @@
         <v>7</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E145" s="2">
         <v>6782</v>
@@ -4148,10 +5108,10 @@
         <v>7</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E146" s="2">
         <v>6783</v>
@@ -4172,10 +5132,10 @@
         <v>7</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E147" s="2">
         <v>6787</v>
@@ -4196,10 +5156,10 @@
         <v>7</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E148" s="2">
         <v>6801</v>
@@ -4220,10 +5180,10 @@
         <v>7</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E149" s="2">
         <v>6834</v>
@@ -4244,10 +5204,10 @@
         <v>7</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E150" s="2">
         <v>6848</v>
@@ -4268,10 +5228,10 @@
         <v>7</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E151" s="2">
         <v>6853</v>
@@ -4292,10 +5252,10 @@
         <v>7</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E152" s="2">
         <v>6861</v>
@@ -4316,10 +5276,10 @@
         <v>7</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E153" s="2">
         <v>6892</v>
@@ -4340,10 +5300,10 @@
         <v>7</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E154" s="2">
         <v>6896</v>
@@ -4364,10 +5324,10 @@
         <v>7</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E155" s="2">
         <v>6904</v>
@@ -4388,10 +5348,10 @@
         <v>7</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E156" s="2">
         <v>6908</v>
@@ -4412,10 +5372,10 @@
         <v>7</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E157" s="2">
         <v>6952</v>
@@ -4436,10 +5396,10 @@
         <v>7</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E158" s="2">
         <v>6972</v>
@@ -4460,10 +5420,10 @@
         <v>7</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E159" s="2">
         <v>6980</v>
@@ -4484,10 +5444,10 @@
         <v>7</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E160" s="2">
         <v>6991</v>
@@ -4508,10 +5468,10 @@
         <v>7</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E161" s="2">
         <v>6993</v>
@@ -4532,10 +5492,10 @@
         <v>7</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E162" s="2">
         <v>6997</v>
@@ -4556,10 +5516,10 @@
         <v>7</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E163" s="2">
         <v>7023</v>
@@ -4580,10 +5540,10 @@
         <v>7</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E164" s="2">
         <v>7029</v>
@@ -4604,10 +5564,10 @@
         <v>7</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E165" s="2">
         <v>7030</v>
@@ -4628,10 +5588,10 @@
         <v>7</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E166" s="2">
         <v>7050</v>
@@ -4652,10 +5612,10 @@
         <v>7</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E167" s="2">
         <v>7065</v>
@@ -4676,10 +5636,10 @@
         <v>7</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E168" s="2">
         <v>7143</v>
@@ -4700,10 +5660,10 @@
         <v>7</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E169" s="2">
         <v>7165</v>
@@ -4724,10 +5684,10 @@
         <v>7</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E170" s="2">
         <v>6822</v>
@@ -4748,10 +5708,10 @@
         <v>7</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E171" s="2">
         <v>6824</v>
@@ -4772,10 +5732,10 @@
         <v>7</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E172" s="2">
         <v>6840</v>
@@ -4796,10 +5756,10 @@
         <v>7</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E173" s="2">
         <v>6905</v>
@@ -4820,10 +5780,10 @@
         <v>7</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E174" s="2">
         <v>6914</v>
@@ -4844,10 +5804,10 @@
         <v>7</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E175" s="2">
         <v>6923</v>
@@ -4868,10 +5828,10 @@
         <v>7</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E176" s="2">
         <v>6927</v>
@@ -4892,10 +5852,10 @@
         <v>7</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E177" s="2">
         <v>6931</v>
@@ -4916,10 +5876,10 @@
         <v>7</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E178" s="2">
         <v>6932</v>
@@ -4940,10 +5900,10 @@
         <v>7</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E179" s="2">
         <v>6937</v>
@@ -4964,10 +5924,10 @@
         <v>7</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E180" s="2">
         <v>6938</v>
@@ -4988,10 +5948,10 @@
         <v>7</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E181" s="2">
         <v>6961</v>
@@ -5012,10 +5972,10 @@
         <v>7</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E182" s="2">
         <v>7003</v>
@@ -5036,10 +5996,10 @@
         <v>7</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E183" s="2">
         <v>7005</v>
@@ -5060,10 +6020,10 @@
         <v>7</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E184" s="2">
         <v>7055</v>
@@ -5084,10 +6044,10 @@
         <v>7</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E185" s="2">
         <v>7061</v>
@@ -5108,10 +6068,10 @@
         <v>7</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E186" s="2">
         <v>7063</v>
@@ -5132,10 +6092,10 @@
         <v>7</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E187" s="2">
         <v>7078</v>
@@ -5156,10 +6116,10 @@
         <v>7</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E188" s="2">
         <v>7172</v>
@@ -5180,10 +6140,10 @@
         <v>7</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E189" s="2">
         <v>7046</v>
@@ -5204,10 +6164,10 @@
         <v>7</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E190" s="2">
         <v>7167</v>
@@ -5228,10 +6188,10 @@
         <v>8</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E191" s="2">
         <v>10653</v>
@@ -5252,10 +6212,10 @@
         <v>8</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E192" s="2">
         <v>10651</v>
@@ -5276,10 +6236,10 @@
         <v>8</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E193" s="2">
         <v>6788</v>
@@ -5300,10 +6260,10 @@
         <v>8</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E194" s="2">
         <v>6790</v>
@@ -5324,10 +6284,10 @@
         <v>8</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E195" s="2">
         <v>6800</v>
@@ -5348,10 +6308,10 @@
         <v>8</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E196" s="2">
         <v>6807</v>
@@ -5372,10 +6332,10 @@
         <v>8</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E197" s="2">
         <v>6811</v>
@@ -5396,10 +6356,10 @@
         <v>8</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E198" s="2">
         <v>6827</v>
@@ -5420,10 +6380,10 @@
         <v>8</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E199" s="2">
         <v>6837</v>
@@ -5444,10 +6404,10 @@
         <v>8</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E200" s="2">
         <v>6851</v>
@@ -5468,10 +6428,10 @@
         <v>8</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E201" s="2">
         <v>6885</v>
@@ -5492,10 +6452,10 @@
         <v>8</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E202" s="2">
         <v>6887</v>
@@ -5516,10 +6476,10 @@
         <v>8</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E203" s="2">
         <v>6897</v>
@@ -5540,10 +6500,10 @@
         <v>8</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E204" s="2">
         <v>6930</v>
@@ -5564,10 +6524,10 @@
         <v>8</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E205" s="2">
         <v>6992</v>
@@ -5588,10 +6548,10 @@
         <v>8</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E206" s="2">
         <v>6995</v>
@@ -5612,10 +6572,10 @@
         <v>8</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E207" s="2">
         <v>6996</v>
@@ -5636,10 +6596,10 @@
         <v>8</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E208" s="2">
         <v>7001</v>
@@ -5660,10 +6620,10 @@
         <v>8</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E209" s="2">
         <v>7008</v>
@@ -5684,10 +6644,10 @@
         <v>8</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E210" s="2">
         <v>7015</v>
@@ -5708,10 +6668,10 @@
         <v>8</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E211" s="2">
         <v>7026</v>
@@ -5732,10 +6692,10 @@
         <v>8</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E212" s="2">
         <v>7043</v>
@@ -5756,10 +6716,10 @@
         <v>8</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E213" s="2">
         <v>7079</v>
@@ -5780,10 +6740,10 @@
         <v>8</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E214" s="2">
         <v>7081</v>
@@ -5804,10 +6764,10 @@
         <v>8</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E215" s="2">
         <v>6888</v>
@@ -5815,7 +6775,9 @@
       <c r="F215" s="2">
         <v>23</v>
       </c>
-      <c r="G215" s="2"/>
+      <c r="G215" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
@@ -5828,10 +6790,10 @@
         <v>8</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E216" s="2">
         <v>6891</v>
@@ -5839,7 +6801,9 @@
       <c r="F216" s="2">
         <v>23</v>
       </c>
-      <c r="G216" s="2"/>
+      <c r="G216" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
@@ -5852,10 +6816,10 @@
         <v>8</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E217" s="2">
         <v>6894</v>
@@ -5863,7 +6827,9 @@
       <c r="F217" s="2">
         <v>23</v>
       </c>
-      <c r="G217" s="2"/>
+      <c r="G217" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
@@ -5876,10 +6842,10 @@
         <v>8</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E218" s="2">
         <v>6910</v>
@@ -5887,7 +6853,9 @@
       <c r="F218" s="2">
         <v>23</v>
       </c>
-      <c r="G218" s="2"/>
+      <c r="G218" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
@@ -5900,10 +6868,10 @@
         <v>8</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E219" s="2">
         <v>6920</v>
@@ -5911,7 +6879,9 @@
       <c r="F219" s="2">
         <v>23</v>
       </c>
-      <c r="G219" s="2"/>
+      <c r="G219" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
@@ -5924,10 +6894,10 @@
         <v>8</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E220" s="2">
         <v>6941</v>
@@ -5935,7 +6905,9 @@
       <c r="F220" s="2">
         <v>23</v>
       </c>
-      <c r="G220" s="2"/>
+      <c r="G220" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
@@ -5948,10 +6920,10 @@
         <v>8</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E221" s="2">
         <v>6953</v>
@@ -5959,7 +6931,9 @@
       <c r="F221" s="2">
         <v>23</v>
       </c>
-      <c r="G221" s="2"/>
+      <c r="G221" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
@@ -5972,10 +6946,10 @@
         <v>8</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E222" s="2">
         <v>6970</v>
@@ -5983,7 +6957,9 @@
       <c r="F222" s="2">
         <v>23</v>
       </c>
-      <c r="G222" s="2"/>
+      <c r="G222" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
@@ -5996,10 +6972,10 @@
         <v>8</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E223" s="2">
         <v>6981</v>
@@ -6007,7 +6983,9 @@
       <c r="F223" s="2">
         <v>23</v>
       </c>
-      <c r="G223" s="2"/>
+      <c r="G223" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
@@ -6020,10 +6998,10 @@
         <v>8</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E224" s="2">
         <v>7016</v>
@@ -6031,7 +7009,9 @@
       <c r="F224" s="2">
         <v>23</v>
       </c>
-      <c r="G224" s="2"/>
+      <c r="G224" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
@@ -6044,10 +7024,10 @@
         <v>8</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E225" s="2">
         <v>7018</v>
@@ -6055,7 +7035,9 @@
       <c r="F225" s="2">
         <v>23</v>
       </c>
-      <c r="G225" s="2"/>
+      <c r="G225" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
@@ -6068,10 +7050,10 @@
         <v>8</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E226" s="2">
         <v>7021</v>
@@ -6079,7 +7061,9 @@
       <c r="F226" s="2">
         <v>23</v>
       </c>
-      <c r="G226" s="2"/>
+      <c r="G226" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
@@ -6092,10 +7076,10 @@
         <v>8</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E227" s="2">
         <v>7037</v>
@@ -6103,7 +7087,9 @@
       <c r="F227" s="2">
         <v>23</v>
       </c>
-      <c r="G227" s="2"/>
+      <c r="G227" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
       <c r="J227" s="2"/>
@@ -6116,10 +7102,10 @@
         <v>8</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E228" s="2">
         <v>7042</v>
@@ -6127,7 +7113,9 @@
       <c r="F228" s="2">
         <v>23</v>
       </c>
-      <c r="G228" s="2"/>
+      <c r="G228" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
@@ -6140,10 +7128,10 @@
         <v>8</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E229" s="2">
         <v>7052</v>
@@ -6151,7 +7139,9 @@
       <c r="F229" s="2">
         <v>23</v>
       </c>
-      <c r="G229" s="2"/>
+      <c r="G229" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
@@ -6164,10 +7154,10 @@
         <v>8</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E230" s="2">
         <v>7168</v>
@@ -6175,7 +7165,9 @@
       <c r="F230" s="2">
         <v>23</v>
       </c>
-      <c r="G230" s="2"/>
+      <c r="G230" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
@@ -6188,10 +7180,10 @@
         <v>8</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E231" s="2">
         <v>6894</v>
@@ -6199,7 +7191,9 @@
       <c r="F231" s="2">
         <v>24</v>
       </c>
-      <c r="G231" s="2"/>
+      <c r="G231" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
@@ -6212,10 +7206,10 @@
         <v>8</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E232" s="2">
         <v>6920</v>
@@ -6223,7 +7217,9 @@
       <c r="F232" s="2">
         <v>24</v>
       </c>
-      <c r="G232" s="2"/>
+      <c r="G232" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
@@ -6236,7 +7232,7 @@
         <v>9</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>5</v>
@@ -6247,7 +7243,9 @@
       <c r="F233" s="2">
         <v>25</v>
       </c>
-      <c r="G233" s="2"/>
+      <c r="G233" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
@@ -6260,10 +7258,10 @@
         <v>9</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E234" s="2">
         <v>6821</v>
@@ -6271,7 +7269,9 @@
       <c r="F234" s="2">
         <v>25</v>
       </c>
-      <c r="G234" s="2"/>
+      <c r="G234" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
@@ -6284,10 +7284,10 @@
         <v>9</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E235" s="2">
         <v>6899</v>
@@ -6295,7 +7295,9 @@
       <c r="F235" s="2">
         <v>25</v>
       </c>
-      <c r="G235" s="2"/>
+      <c r="G235" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
@@ -6308,10 +7310,10 @@
         <v>9</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E236" s="2">
         <v>6934</v>
@@ -6319,7 +7321,9 @@
       <c r="F236" s="2">
         <v>25</v>
       </c>
-      <c r="G236" s="2"/>
+      <c r="G236" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
@@ -6332,10 +7336,10 @@
         <v>9</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E237" s="2">
         <v>6959</v>
@@ -6343,7 +7347,9 @@
       <c r="F237" s="2">
         <v>25</v>
       </c>
-      <c r="G237" s="2"/>
+      <c r="G237" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
       <c r="J237" s="2"/>
@@ -6356,10 +7362,10 @@
         <v>9</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E238" s="2">
         <v>6960</v>
@@ -6367,7 +7373,9 @@
       <c r="F238" s="2">
         <v>25</v>
       </c>
-      <c r="G238" s="2"/>
+      <c r="G238" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
@@ -6380,10 +7388,10 @@
         <v>9</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E239" s="2">
         <v>7012</v>
@@ -6391,7 +7399,9 @@
       <c r="F239" s="2">
         <v>25</v>
       </c>
-      <c r="G239" s="2"/>
+      <c r="G239" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
       <c r="J239" s="2"/>
@@ -6404,10 +7414,10 @@
         <v>9</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E240" s="2">
         <v>7013</v>
@@ -6415,7 +7425,9 @@
       <c r="F240" s="2">
         <v>25</v>
       </c>
-      <c r="G240" s="2"/>
+      <c r="G240" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
       <c r="J240" s="2"/>
@@ -6428,10 +7440,10 @@
         <v>9</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E241" s="2">
         <v>7054</v>
@@ -6439,7 +7451,9 @@
       <c r="F241" s="2">
         <v>25</v>
       </c>
-      <c r="G241" s="2"/>
+      <c r="G241" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
       <c r="J241" s="2"/>
@@ -6452,10 +7466,10 @@
         <v>9</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E242" s="2">
         <v>6786</v>
@@ -6463,7 +7477,9 @@
       <c r="F242" s="2">
         <v>26</v>
       </c>
-      <c r="G242" s="2"/>
+      <c r="G242" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
       <c r="J242" s="2"/>
@@ -6476,10 +7492,10 @@
         <v>9</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E243" s="2">
         <v>6832</v>
@@ -6487,7 +7503,9 @@
       <c r="F243" s="2">
         <v>26</v>
       </c>
-      <c r="G243" s="2"/>
+      <c r="G243" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
       <c r="J243" s="2"/>
@@ -6500,10 +7518,10 @@
         <v>9</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E244" s="2">
         <v>6833</v>
@@ -6511,7 +7529,9 @@
       <c r="F244" s="2">
         <v>26</v>
       </c>
-      <c r="G244" s="2"/>
+      <c r="G244" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
       <c r="J244" s="2"/>
@@ -6524,10 +7544,10 @@
         <v>9</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E245" s="2">
         <v>6852</v>
@@ -6535,7 +7555,9 @@
       <c r="F245" s="2">
         <v>26</v>
       </c>
-      <c r="G245" s="2"/>
+      <c r="G245" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
       <c r="J245" s="2"/>
@@ -6548,10 +7570,10 @@
         <v>9</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E246" s="2">
         <v>6854</v>
@@ -6559,7 +7581,9 @@
       <c r="F246" s="2">
         <v>26</v>
       </c>
-      <c r="G246" s="2"/>
+      <c r="G246" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
       <c r="J246" s="2"/>
@@ -6572,10 +7596,10 @@
         <v>9</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E247" s="2">
         <v>6863</v>
@@ -6583,7 +7607,9 @@
       <c r="F247" s="2">
         <v>26</v>
       </c>
-      <c r="G247" s="2"/>
+      <c r="G247" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="H247" s="2"/>
       <c r="I247" s="2"/>
       <c r="J247" s="2"/>
@@ -6596,10 +7622,10 @@
         <v>9</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E248" s="2">
         <v>6895</v>
@@ -6607,7 +7633,9 @@
       <c r="F248" s="2">
         <v>26</v>
       </c>
-      <c r="G248" s="2"/>
+      <c r="G248" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H248" s="2"/>
       <c r="I248" s="2"/>
       <c r="J248" s="2"/>
@@ -6620,10 +7648,10 @@
         <v>9</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E249" s="2">
         <v>6901</v>
@@ -6631,7 +7659,9 @@
       <c r="F249" s="2">
         <v>26</v>
       </c>
-      <c r="G249" s="2"/>
+      <c r="G249" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H249" s="2"/>
       <c r="I249" s="2"/>
       <c r="J249" s="2"/>
@@ -6644,10 +7674,10 @@
         <v>9</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E250" s="2">
         <v>6903</v>
@@ -6655,7 +7685,9 @@
       <c r="F250" s="2">
         <v>26</v>
       </c>
-      <c r="G250" s="2"/>
+      <c r="G250" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
       <c r="J250" s="2"/>
@@ -6668,10 +7700,10 @@
         <v>9</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E251" s="2">
         <v>6907</v>
@@ -6679,7 +7711,9 @@
       <c r="F251" s="2">
         <v>26</v>
       </c>
-      <c r="G251" s="2"/>
+      <c r="G251" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="H251" s="2"/>
       <c r="I251" s="2"/>
       <c r="J251" s="2"/>
@@ -6692,10 +7726,10 @@
         <v>9</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E252" s="2">
         <v>6911</v>
@@ -6703,7 +7737,9 @@
       <c r="F252" s="2">
         <v>26</v>
       </c>
-      <c r="G252" s="2"/>
+      <c r="G252" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H252" s="2"/>
       <c r="I252" s="2"/>
       <c r="J252" s="2"/>
@@ -6716,10 +7752,10 @@
         <v>9</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E253" s="2">
         <v>6915</v>
@@ -6727,7 +7763,9 @@
       <c r="F253" s="2">
         <v>26</v>
       </c>
-      <c r="G253" s="2"/>
+      <c r="G253" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H253" s="2"/>
       <c r="I253" s="2"/>
       <c r="J253" s="2"/>
@@ -6740,10 +7778,10 @@
         <v>9</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E254" s="2">
         <v>6917</v>
@@ -6751,7 +7789,9 @@
       <c r="F254" s="2">
         <v>26</v>
       </c>
-      <c r="G254" s="2"/>
+      <c r="G254" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="H254" s="2"/>
       <c r="I254" s="2"/>
       <c r="J254" s="2"/>
@@ -6764,10 +7804,10 @@
         <v>9</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E255" s="2">
         <v>6924</v>
@@ -6775,7 +7815,9 @@
       <c r="F255" s="2">
         <v>26</v>
       </c>
-      <c r="G255" s="2"/>
+      <c r="G255" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H255" s="2"/>
       <c r="I255" s="2"/>
       <c r="J255" s="2"/>
@@ -6788,10 +7830,10 @@
         <v>9</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E256" s="2">
         <v>6935</v>
@@ -6799,7 +7841,9 @@
       <c r="F256" s="2">
         <v>26</v>
       </c>
-      <c r="G256" s="2"/>
+      <c r="G256" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="H256" s="2"/>
       <c r="I256" s="2"/>
       <c r="J256" s="2"/>
@@ -6812,10 +7856,10 @@
         <v>9</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E257" s="2">
         <v>6939</v>
@@ -6823,7 +7867,9 @@
       <c r="F257" s="2">
         <v>26</v>
       </c>
-      <c r="G257" s="2"/>
+      <c r="G257" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="H257" s="2"/>
       <c r="I257" s="2"/>
       <c r="J257" s="2"/>
@@ -6836,10 +7882,10 @@
         <v>9</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E258" s="2">
         <v>6944</v>
@@ -6847,7 +7893,9 @@
       <c r="F258" s="2">
         <v>26</v>
       </c>
-      <c r="G258" s="2"/>
+      <c r="G258" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
       <c r="J258" s="2"/>
@@ -6860,10 +7908,10 @@
         <v>9</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E259" s="2">
         <v>6947</v>
@@ -6871,7 +7919,9 @@
       <c r="F259" s="2">
         <v>26</v>
       </c>
-      <c r="G259" s="2"/>
+      <c r="G259" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
@@ -6884,10 +7934,10 @@
         <v>9</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E260" s="2">
         <v>6963</v>
@@ -6895,7 +7945,9 @@
       <c r="F260" s="2">
         <v>26</v>
       </c>
-      <c r="G260" s="2"/>
+      <c r="G260" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="H260" s="2"/>
       <c r="I260" s="2"/>
       <c r="J260" s="2"/>
@@ -6908,10 +7960,10 @@
         <v>9</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E261" s="2">
         <v>6965</v>
@@ -6919,7 +7971,9 @@
       <c r="F261" s="2">
         <v>26</v>
       </c>
-      <c r="G261" s="2"/>
+      <c r="G261" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="H261" s="2"/>
       <c r="I261" s="2"/>
       <c r="J261" s="2"/>
@@ -6932,10 +7986,10 @@
         <v>9</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E262" s="2">
         <v>6968</v>
@@ -6943,7 +7997,9 @@
       <c r="F262" s="2">
         <v>26</v>
       </c>
-      <c r="G262" s="2"/>
+      <c r="G262" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="H262" s="2"/>
       <c r="I262" s="2"/>
       <c r="J262" s="2"/>
@@ -6956,10 +8012,10 @@
         <v>9</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E263" s="2">
         <v>7049</v>
@@ -6967,7 +8023,9 @@
       <c r="F263" s="2">
         <v>26</v>
       </c>
-      <c r="G263" s="2"/>
+      <c r="G263" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
       <c r="J263" s="2"/>
@@ -6980,10 +8038,10 @@
         <v>9</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E264" s="2">
         <v>7068</v>
@@ -6991,7 +8049,9 @@
       <c r="F264" s="2">
         <v>26</v>
       </c>
-      <c r="G264" s="2"/>
+      <c r="G264" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
       <c r="J264" s="2"/>
@@ -7004,10 +8064,10 @@
         <v>9</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E265" s="2">
         <v>7073</v>
@@ -7015,7 +8075,9 @@
       <c r="F265" s="2">
         <v>26</v>
       </c>
-      <c r="G265" s="2"/>
+      <c r="G265" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="H265" s="2"/>
       <c r="I265" s="2"/>
       <c r="J265" s="2"/>
@@ -7028,10 +8090,10 @@
         <v>9</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E266" s="2">
         <v>7077</v>
@@ -7039,7 +8101,9 @@
       <c r="F266" s="2">
         <v>26</v>
       </c>
-      <c r="G266" s="2"/>
+      <c r="G266" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H266" s="2"/>
       <c r="I266" s="2"/>
       <c r="J266" s="2"/>
@@ -7052,10 +8116,10 @@
         <v>9</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E267" s="2">
         <v>7084</v>
@@ -7063,7 +8127,9 @@
       <c r="F267" s="2">
         <v>26</v>
       </c>
-      <c r="G267" s="2"/>
+      <c r="G267" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="H267" s="2"/>
       <c r="I267" s="2"/>
       <c r="J267" s="2"/>
@@ -7076,10 +8142,10 @@
         <v>9</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E268" s="2">
         <v>7139</v>
@@ -7087,7 +8153,9 @@
       <c r="F268" s="2">
         <v>26</v>
       </c>
-      <c r="G268" s="2"/>
+      <c r="G268" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="H268" s="2"/>
       <c r="I268" s="2"/>
       <c r="J268" s="2"/>
@@ -7100,10 +8168,10 @@
         <v>9</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E269" s="2">
         <v>7146</v>
@@ -7111,7 +8179,9 @@
       <c r="F269" s="2">
         <v>26</v>
       </c>
-      <c r="G269" s="2"/>
+      <c r="G269" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H269" s="2"/>
       <c r="I269" s="2"/>
       <c r="J269" s="2"/>
@@ -7124,10 +8194,10 @@
         <v>9</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E270" s="2">
         <v>7164</v>
@@ -7135,7 +8205,9 @@
       <c r="F270" s="2">
         <v>26</v>
       </c>
-      <c r="G270" s="2"/>
+      <c r="G270" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="H270" s="2"/>
       <c r="I270" s="2"/>
       <c r="J270" s="2"/>
@@ -7148,10 +8220,10 @@
         <v>9</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E271" s="2">
         <v>7170</v>
@@ -7159,7 +8231,9 @@
       <c r="F271" s="2">
         <v>26</v>
       </c>
-      <c r="G271" s="2"/>
+      <c r="G271" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
       <c r="J271" s="2"/>
@@ -7172,10 +8246,10 @@
         <v>9</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E272" s="2">
         <v>7171</v>
@@ -7183,7 +8257,9 @@
       <c r="F272" s="2">
         <v>26</v>
       </c>
-      <c r="G272" s="2"/>
+      <c r="G272" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
       <c r="J272" s="2"/>
@@ -7196,10 +8272,10 @@
         <v>9</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E273" s="2">
         <v>6804</v>
@@ -7207,7 +8283,9 @@
       <c r="F273" s="2">
         <v>27</v>
       </c>
-      <c r="G273" s="2"/>
+      <c r="G273" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="H273" s="2"/>
       <c r="I273" s="2"/>
       <c r="J273" s="2"/>
@@ -7220,10 +8298,10 @@
         <v>9</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E274" s="2">
         <v>6810</v>
@@ -7231,7 +8309,9 @@
       <c r="F274" s="2">
         <v>27</v>
       </c>
-      <c r="G274" s="2"/>
+      <c r="G274" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="H274" s="2"/>
       <c r="I274" s="2"/>
       <c r="J274" s="2"/>
@@ -7244,10 +8324,10 @@
         <v>9</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E275" s="2">
         <v>6849</v>
@@ -7255,7 +8335,9 @@
       <c r="F275" s="2">
         <v>27</v>
       </c>
-      <c r="G275" s="2"/>
+      <c r="G275" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="H275" s="2"/>
       <c r="I275" s="2"/>
       <c r="J275" s="2"/>
@@ -7268,10 +8350,10 @@
         <v>9</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E276" s="2">
         <v>6864</v>
@@ -7279,7 +8361,9 @@
       <c r="F276" s="2">
         <v>27</v>
       </c>
-      <c r="G276" s="2"/>
+      <c r="G276" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="H276" s="2"/>
       <c r="I276" s="2"/>
       <c r="J276" s="2"/>
@@ -7292,10 +8376,10 @@
         <v>9</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E277" s="2">
         <v>6889</v>
@@ -7303,7 +8387,9 @@
       <c r="F277" s="2">
         <v>27</v>
       </c>
-      <c r="G277" s="2"/>
+      <c r="G277" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
       <c r="J277" s="2"/>
@@ -7316,10 +8402,10 @@
         <v>9</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E278" s="2">
         <v>6902</v>
@@ -7327,7 +8413,9 @@
       <c r="F278" s="2">
         <v>27</v>
       </c>
-      <c r="G278" s="2"/>
+      <c r="G278" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
       <c r="J278" s="2"/>
@@ -7340,10 +8428,10 @@
         <v>9</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E279" s="2">
         <v>6922</v>
@@ -7351,7 +8439,9 @@
       <c r="F279" s="2">
         <v>27</v>
       </c>
-      <c r="G279" s="2"/>
+      <c r="G279" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
       <c r="J279" s="2"/>
@@ -7364,10 +8454,10 @@
         <v>9</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E280" s="2">
         <v>6926</v>
@@ -7375,7 +8465,9 @@
       <c r="F280" s="2">
         <v>27</v>
       </c>
-      <c r="G280" s="2"/>
+      <c r="G280" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
       <c r="J280" s="2"/>
@@ -7388,10 +8480,10 @@
         <v>9</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E281" s="2">
         <v>6943</v>
@@ -7399,7 +8491,9 @@
       <c r="F281" s="2">
         <v>27</v>
       </c>
-      <c r="G281" s="2"/>
+      <c r="G281" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="H281" s="2"/>
       <c r="I281" s="2"/>
       <c r="J281" s="2"/>
@@ -7412,10 +8506,10 @@
         <v>9</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E282" s="2">
         <v>6945</v>
@@ -7423,7 +8517,9 @@
       <c r="F282" s="2">
         <v>27</v>
       </c>
-      <c r="G282" s="2"/>
+      <c r="G282" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="H282" s="2"/>
       <c r="I282" s="2"/>
       <c r="J282" s="2"/>
@@ -7436,10 +8532,10 @@
         <v>9</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E283" s="2">
         <v>6958</v>
@@ -7447,7 +8543,9 @@
       <c r="F283" s="2">
         <v>27</v>
       </c>
-      <c r="G283" s="2"/>
+      <c r="G283" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
       <c r="J283" s="2"/>
@@ -7460,10 +8558,10 @@
         <v>9</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E284" s="2">
         <v>7019</v>
@@ -7471,7 +8569,9 @@
       <c r="F284" s="2">
         <v>27</v>
       </c>
-      <c r="G284" s="2"/>
+      <c r="G284" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="H284" s="2"/>
       <c r="I284" s="2"/>
       <c r="J284" s="2"/>
@@ -7484,10 +8584,10 @@
         <v>9</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E285" s="2">
         <v>7059</v>
@@ -7495,7 +8595,9 @@
       <c r="F285" s="2">
         <v>27</v>
       </c>
-      <c r="G285" s="2"/>
+      <c r="G285" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="H285" s="2"/>
       <c r="I285" s="2"/>
       <c r="J285" s="2"/>
@@ -7508,10 +8610,10 @@
         <v>9</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E286" s="2">
         <v>7064</v>
@@ -7519,7 +8621,9 @@
       <c r="F286" s="2">
         <v>27</v>
       </c>
-      <c r="G286" s="2"/>
+      <c r="G286" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="H286" s="2"/>
       <c r="I286" s="2"/>
       <c r="J286" s="2"/>
@@ -7532,10 +8636,10 @@
         <v>9</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E287" s="2">
         <v>6842</v>
@@ -7543,7 +8647,9 @@
       <c r="F287" s="2">
         <v>28</v>
       </c>
-      <c r="G287" s="2"/>
+      <c r="G287" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
       <c r="J287" s="2"/>
@@ -7556,10 +8662,10 @@
         <v>9</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E288" s="2">
         <v>6928</v>
@@ -7567,7 +8673,9 @@
       <c r="F288" s="2">
         <v>28</v>
       </c>
-      <c r="G288" s="2"/>
+      <c r="G288" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="H288" s="2"/>
       <c r="I288" s="2"/>
       <c r="J288" s="2"/>
@@ -7580,10 +8688,10 @@
         <v>10</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E289" s="2">
         <v>6784</v>
@@ -7591,7 +8699,9 @@
       <c r="F289" s="2">
         <v>29</v>
       </c>
-      <c r="G289" s="2"/>
+      <c r="G289" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="H289" s="2"/>
       <c r="I289" s="2"/>
       <c r="J289" s="2"/>
@@ -7604,10 +8714,10 @@
         <v>10</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E290" s="2">
         <v>6835</v>
@@ -7615,7 +8725,9 @@
       <c r="F290" s="2">
         <v>29</v>
       </c>
-      <c r="G290" s="2"/>
+      <c r="G290" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="H290" s="2"/>
       <c r="I290" s="2"/>
       <c r="J290" s="2"/>
@@ -7628,10 +8740,10 @@
         <v>10</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E291" s="2">
         <v>6839</v>
@@ -7639,7 +8751,9 @@
       <c r="F291" s="2">
         <v>29</v>
       </c>
-      <c r="G291" s="2"/>
+      <c r="G291" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="H291" s="2"/>
       <c r="I291" s="2"/>
       <c r="J291" s="2"/>
@@ -7652,10 +8766,10 @@
         <v>10</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E292" s="2">
         <v>6859</v>
@@ -7663,7 +8777,9 @@
       <c r="F292" s="2">
         <v>29</v>
       </c>
-      <c r="G292" s="2"/>
+      <c r="G292" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="H292" s="2"/>
       <c r="I292" s="2"/>
       <c r="J292" s="2"/>
@@ -7676,10 +8792,10 @@
         <v>10</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E293" s="2">
         <v>6890</v>
@@ -7687,7 +8803,9 @@
       <c r="F293" s="2">
         <v>29</v>
       </c>
-      <c r="G293" s="2"/>
+      <c r="G293" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="H293" s="2"/>
       <c r="I293" s="2"/>
       <c r="J293" s="2"/>
@@ -7700,10 +8818,10 @@
         <v>10</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E294" s="2">
         <v>6925</v>
@@ -7711,7 +8829,9 @@
       <c r="F294" s="2">
         <v>29</v>
       </c>
-      <c r="G294" s="2"/>
+      <c r="G294" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="H294" s="2"/>
       <c r="I294" s="2"/>
       <c r="J294" s="2"/>
@@ -7724,10 +8844,10 @@
         <v>10</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E295" s="2">
         <v>6942</v>
@@ -7735,7 +8855,9 @@
       <c r="F295" s="2">
         <v>29</v>
       </c>
-      <c r="G295" s="2"/>
+      <c r="G295" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
       <c r="J295" s="2"/>
@@ -7748,10 +8870,10 @@
         <v>10</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E296" s="2">
         <v>6955</v>
@@ -7759,7 +8881,9 @@
       <c r="F296" s="2">
         <v>29</v>
       </c>
-      <c r="G296" s="2"/>
+      <c r="G296" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
       <c r="J296" s="2"/>
@@ -7772,10 +8896,10 @@
         <v>10</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E297" s="2">
         <v>6967</v>
@@ -7783,7 +8907,9 @@
       <c r="F297" s="2">
         <v>29</v>
       </c>
-      <c r="G297" s="2"/>
+      <c r="G297" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
       <c r="J297" s="2"/>
@@ -7796,10 +8922,10 @@
         <v>10</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E298" s="2">
         <v>6989</v>
@@ -7807,7 +8933,9 @@
       <c r="F298" s="2">
         <v>29</v>
       </c>
-      <c r="G298" s="2"/>
+      <c r="G298" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="H298" s="2"/>
       <c r="I298" s="2"/>
       <c r="J298" s="2"/>
@@ -7820,10 +8948,10 @@
         <v>10</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E299" s="2">
         <v>7004</v>
@@ -7831,7 +8959,9 @@
       <c r="F299" s="2">
         <v>29</v>
       </c>
-      <c r="G299" s="2"/>
+      <c r="G299" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
@@ -7844,10 +8974,10 @@
         <v>10</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E300" s="2">
         <v>7020</v>
@@ -7855,7 +8985,9 @@
       <c r="F300" s="2">
         <v>29</v>
       </c>
-      <c r="G300" s="2"/>
+      <c r="G300" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="H300" s="2"/>
       <c r="I300" s="2"/>
       <c r="J300" s="2"/>
@@ -7868,10 +9000,10 @@
         <v>10</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E301" s="2">
         <v>7066</v>
@@ -7879,7 +9011,9 @@
       <c r="F301" s="2">
         <v>29</v>
       </c>
-      <c r="G301" s="2"/>
+      <c r="G301" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="H301" s="2"/>
       <c r="I301" s="2"/>
       <c r="J301" s="2"/>
@@ -7892,10 +9026,10 @@
         <v>10</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E302" s="2">
         <v>7166</v>
@@ -7903,7 +9037,9 @@
       <c r="F302" s="2">
         <v>29</v>
       </c>
-      <c r="G302" s="2"/>
+      <c r="G302" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="H302" s="2"/>
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
@@ -7916,10 +9052,10 @@
         <v>10</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E303" s="2">
         <v>6826</v>
@@ -7927,7 +9063,9 @@
       <c r="F303" s="2">
         <v>30</v>
       </c>
-      <c r="G303" s="2"/>
+      <c r="G303" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="H303" s="2"/>
       <c r="I303" s="2"/>
       <c r="J303" s="2"/>
@@ -7940,10 +9078,10 @@
         <v>10</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E304" s="2">
         <v>6845</v>
@@ -7951,7 +9089,9 @@
       <c r="F304" s="2">
         <v>30</v>
       </c>
-      <c r="G304" s="2"/>
+      <c r="G304" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="H304" s="2"/>
       <c r="I304" s="2"/>
       <c r="J304" s="2"/>
@@ -7964,10 +9104,10 @@
         <v>10</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E305" s="2">
         <v>6846</v>
@@ -7975,7 +9115,9 @@
       <c r="F305" s="2">
         <v>30</v>
       </c>
-      <c r="G305" s="2"/>
+      <c r="G305" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="H305" s="2"/>
       <c r="I305" s="2"/>
       <c r="J305" s="2"/>
@@ -7988,10 +9130,10 @@
         <v>10</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E306" s="2">
         <v>6951</v>
@@ -7999,7 +9141,9 @@
       <c r="F306" s="2">
         <v>30</v>
       </c>
-      <c r="G306" s="2"/>
+      <c r="G306" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="H306" s="2"/>
       <c r="I306" s="2"/>
       <c r="J306" s="2"/>
@@ -8012,10 +9156,10 @@
         <v>10</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E307" s="2">
         <v>6956</v>
@@ -8023,7 +9167,9 @@
       <c r="F307" s="2">
         <v>30</v>
       </c>
-      <c r="G307" s="2"/>
+      <c r="G307" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="H307" s="2"/>
       <c r="I307" s="2"/>
       <c r="J307" s="2"/>
@@ -8036,10 +9182,10 @@
         <v>10</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E308" s="2">
         <v>7069</v>
@@ -8047,7 +9193,9 @@
       <c r="F308" s="2">
         <v>30</v>
       </c>
-      <c r="G308" s="2"/>
+      <c r="G308" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="H308" s="2"/>
       <c r="I308" s="2"/>
       <c r="J308" s="2"/>
@@ -8060,10 +9208,10 @@
         <v>10</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E309" s="2">
         <v>7070</v>
@@ -8071,7 +9219,9 @@
       <c r="F309" s="2">
         <v>30</v>
       </c>
-      <c r="G309" s="2"/>
+      <c r="G309" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="H309" s="2"/>
       <c r="I309" s="2"/>
       <c r="J309" s="2"/>
@@ -8084,10 +9234,10 @@
         <v>10</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E310" s="2">
         <v>7072</v>
@@ -8095,7 +9245,9 @@
       <c r="F310" s="2">
         <v>30</v>
       </c>
-      <c r="G310" s="2"/>
+      <c r="G310" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="H310" s="2"/>
       <c r="I310" s="2"/>
       <c r="J310" s="2"/>
@@ -8108,10 +9260,10 @@
         <v>10</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E311" s="2">
         <v>6785</v>
@@ -8119,7 +9271,9 @@
       <c r="F311" s="2">
         <v>31</v>
       </c>
-      <c r="G311" s="2"/>
+      <c r="G311" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="H311" s="2"/>
       <c r="I311" s="2"/>
       <c r="J311" s="2"/>
@@ -8132,10 +9286,10 @@
         <v>10</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E312" s="2">
         <v>6841</v>
@@ -8143,7 +9297,9 @@
       <c r="F312" s="2">
         <v>31</v>
       </c>
-      <c r="G312" s="2"/>
+      <c r="G312" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
       <c r="J312" s="2"/>
@@ -8156,10 +9312,10 @@
         <v>10</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E313" s="2">
         <v>6950</v>
@@ -8167,7 +9323,9 @@
       <c r="F313" s="2">
         <v>31</v>
       </c>
-      <c r="G313" s="2"/>
+      <c r="G313" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
       <c r="J313" s="2"/>
@@ -8180,10 +9338,10 @@
         <v>10</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E314" s="2">
         <v>7022</v>
@@ -8191,7 +9349,9 @@
       <c r="F314" s="2">
         <v>31</v>
       </c>
-      <c r="G314" s="2"/>
+      <c r="G314" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="H314" s="2"/>
       <c r="I314" s="2"/>
       <c r="J314" s="2"/>
@@ -8204,10 +9364,10 @@
         <v>11</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E315" s="2">
         <v>6805</v>
@@ -8215,7 +9375,9 @@
       <c r="F315" s="2">
         <v>32</v>
       </c>
-      <c r="G315" s="2"/>
+      <c r="G315" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="H315" s="2"/>
       <c r="I315" s="2"/>
       <c r="J315" s="2"/>
@@ -8228,10 +9390,10 @@
         <v>11</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E316" s="2">
         <v>6976</v>
@@ -8239,7 +9401,9 @@
       <c r="F316" s="2">
         <v>32</v>
       </c>
-      <c r="G316" s="2"/>
+      <c r="G316" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="H316" s="2"/>
       <c r="I316" s="2"/>
       <c r="J316" s="2"/>
@@ -8252,10 +9416,10 @@
         <v>11</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E317" s="2">
         <v>7017</v>
@@ -8263,7 +9427,9 @@
       <c r="F317" s="2">
         <v>32</v>
       </c>
-      <c r="G317" s="2"/>
+      <c r="G317" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
       <c r="J317" s="2"/>
@@ -8276,10 +9442,10 @@
         <v>11</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E318" s="2">
         <v>7033</v>
@@ -8287,7 +9453,9 @@
       <c r="F318" s="2">
         <v>32</v>
       </c>
-      <c r="G318" s="2"/>
+      <c r="G318" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
       <c r="J318" s="2"/>
@@ -8300,10 +9468,10 @@
         <v>11</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E319" s="2">
         <v>6806</v>
@@ -8311,7 +9479,9 @@
       <c r="F319" s="2">
         <v>33</v>
       </c>
-      <c r="G319" s="2"/>
+      <c r="G319" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
       <c r="J319" s="2"/>
@@ -8324,10 +9494,10 @@
         <v>11</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E320" s="2">
         <v>6808</v>
@@ -8335,7 +9505,9 @@
       <c r="F320" s="2">
         <v>33</v>
       </c>
-      <c r="G320" s="2"/>
+      <c r="G320" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="H320" s="2"/>
       <c r="I320" s="2"/>
       <c r="J320" s="2"/>
@@ -8348,10 +9520,10 @@
         <v>11</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E321" s="2">
         <v>6856</v>
@@ -8359,7 +9531,9 @@
       <c r="F321" s="2">
         <v>33</v>
       </c>
-      <c r="G321" s="2"/>
+      <c r="G321" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
       <c r="J321" s="2"/>
@@ -8372,10 +9546,10 @@
         <v>11</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E322" s="2">
         <v>6893</v>
@@ -8383,7 +9557,9 @@
       <c r="F322" s="2">
         <v>33</v>
       </c>
-      <c r="G322" s="2"/>
+      <c r="G322" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="H322" s="2"/>
       <c r="I322" s="2"/>
       <c r="J322" s="2"/>
@@ -8396,10 +9572,10 @@
         <v>11</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E323" s="2">
         <v>7041</v>
@@ -8407,7 +9583,9 @@
       <c r="F323" s="2">
         <v>33</v>
       </c>
-      <c r="G323" s="2"/>
+      <c r="G323" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="H323" s="2"/>
       <c r="I323" s="2"/>
       <c r="J323" s="2"/>
@@ -8420,10 +9598,10 @@
         <v>11</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E324" s="2">
         <v>7071</v>
@@ -8431,7 +9609,9 @@
       <c r="F324" s="2">
         <v>33</v>
       </c>
-      <c r="G324" s="2"/>
+      <c r="G324" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="H324" s="2"/>
       <c r="I324" s="2"/>
       <c r="J324" s="2"/>
@@ -8444,10 +9624,10 @@
         <v>11</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E325" s="2">
         <v>6933</v>
@@ -8455,7 +9635,9 @@
       <c r="F325" s="2">
         <v>34</v>
       </c>
-      <c r="G325" s="2"/>
+      <c r="G325" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
       <c r="J325" s="2"/>
@@ -8467,7 +9649,9 @@
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
-      <c r="G326" s="2"/>
+      <c r="G326" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
       <c r="J326" s="2"/>
@@ -8479,7 +9663,9 @@
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
-      <c r="G327" s="2"/>
+      <c r="G327" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="H327" s="2"/>
       <c r="I327" s="2"/>
       <c r="J327" s="2"/>
@@ -8491,7 +9677,9 @@
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
-      <c r="G328" s="2"/>
+      <c r="G328" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="H328" s="2"/>
       <c r="I328" s="2"/>
       <c r="J328" s="2"/>
@@ -8503,7 +9691,9 @@
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
-      <c r="G329" s="2"/>
+      <c r="G329" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="H329" s="2"/>
       <c r="I329" s="2"/>
       <c r="J329" s="2"/>
@@ -8515,7 +9705,9 @@
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
-      <c r="G330" s="2"/>
+      <c r="G330" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="H330" s="2"/>
       <c r="I330" s="2"/>
       <c r="J330" s="2"/>
@@ -8527,7 +9719,9 @@
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
-      <c r="G331" s="2"/>
+      <c r="G331" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="H331" s="2"/>
       <c r="I331" s="2"/>
       <c r="J331" s="2"/>
@@ -8539,7 +9733,9 @@
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
-      <c r="G332" s="2"/>
+      <c r="G332" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="H332" s="2"/>
       <c r="I332" s="2"/>
       <c r="J332" s="2"/>
@@ -8551,7 +9747,9 @@
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
-      <c r="G333" s="2"/>
+      <c r="G333" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="H333" s="2"/>
       <c r="I333" s="2"/>
       <c r="J333" s="2"/>
@@ -8563,7 +9761,9 @@
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
-      <c r="G334" s="2"/>
+      <c r="G334" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="H334" s="2"/>
       <c r="I334" s="2"/>
       <c r="J334" s="2"/>
@@ -8575,7 +9775,9 @@
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
-      <c r="G335" s="2"/>
+      <c r="G335" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="H335" s="2"/>
       <c r="I335" s="2"/>
       <c r="J335" s="2"/>
@@ -8587,7 +9789,9 @@
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
-      <c r="G336" s="2"/>
+      <c r="G336" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="H336" s="2"/>
       <c r="I336" s="2"/>
       <c r="J336" s="2"/>
@@ -8599,7 +9803,9 @@
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
-      <c r="G337" s="2"/>
+      <c r="G337" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="H337" s="2"/>
       <c r="I337" s="2"/>
       <c r="J337" s="2"/>
@@ -8611,7 +9817,9 @@
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
-      <c r="G338" s="2"/>
+      <c r="G338" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="H338" s="2"/>
       <c r="I338" s="2"/>
       <c r="J338" s="2"/>
@@ -8623,7 +9831,9 @@
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
-      <c r="G339" s="2"/>
+      <c r="G339" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="H339" s="2"/>
       <c r="I339" s="2"/>
       <c r="J339" s="2"/>
@@ -8635,7 +9845,9 @@
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
-      <c r="G340" s="2"/>
+      <c r="G340" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H340" s="2"/>
       <c r="I340" s="2"/>
       <c r="J340" s="2"/>
@@ -8647,7 +9859,9 @@
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
-      <c r="G341" s="2"/>
+      <c r="G341" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H341" s="2"/>
       <c r="I341" s="2"/>
       <c r="J341" s="2"/>
@@ -8659,7 +9873,9 @@
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
-      <c r="G342" s="2"/>
+      <c r="G342" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="H342" s="2"/>
       <c r="I342" s="2"/>
       <c r="J342" s="2"/>
@@ -8671,7 +9887,9 @@
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
-      <c r="G343" s="2"/>
+      <c r="G343" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="H343" s="2"/>
       <c r="I343" s="2"/>
       <c r="J343" s="2"/>
@@ -8683,7 +9901,9 @@
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
-      <c r="G344" s="2"/>
+      <c r="G344" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="H344" s="2"/>
       <c r="I344" s="2"/>
       <c r="J344" s="2"/>
@@ -8695,7 +9915,9 @@
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
-      <c r="G345" s="2"/>
+      <c r="G345" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="H345" s="2"/>
       <c r="I345" s="2"/>
       <c r="J345" s="2"/>
@@ -8707,7 +9929,9 @@
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
-      <c r="G346" s="2"/>
+      <c r="G346" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="H346" s="2"/>
       <c r="I346" s="2"/>
       <c r="J346" s="2"/>
@@ -8719,7 +9943,9 @@
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
-      <c r="G347" s="2"/>
+      <c r="G347" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="H347" s="2"/>
       <c r="I347" s="2"/>
       <c r="J347" s="2"/>
@@ -8731,7 +9957,9 @@
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
-      <c r="G348" s="2"/>
+      <c r="G348" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="H348" s="2"/>
       <c r="I348" s="2"/>
       <c r="J348" s="2"/>
@@ -8743,7 +9971,9 @@
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
-      <c r="G349" s="2"/>
+      <c r="G349" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="H349" s="2"/>
       <c r="I349" s="2"/>
       <c r="J349" s="2"/>
@@ -8755,7 +9985,9 @@
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
-      <c r="G350" s="2"/>
+      <c r="G350" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="H350" s="2"/>
       <c r="I350" s="2"/>
       <c r="J350" s="2"/>
@@ -8767,7 +9999,9 @@
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
-      <c r="G351" s="2"/>
+      <c r="G351" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="H351" s="2"/>
       <c r="I351" s="2"/>
       <c r="J351" s="2"/>
@@ -8779,7 +10013,9 @@
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
-      <c r="G352" s="2"/>
+      <c r="G352" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="H352" s="2"/>
       <c r="I352" s="2"/>
       <c r="J352" s="2"/>
@@ -8791,7 +10027,9 @@
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
-      <c r="G353" s="2"/>
+      <c r="G353" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="H353" s="2"/>
       <c r="I353" s="2"/>
       <c r="J353" s="2"/>
@@ -8803,7 +10041,9 @@
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
-      <c r="G354" s="2"/>
+      <c r="G354" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="H354" s="2"/>
       <c r="I354" s="2"/>
       <c r="J354" s="2"/>
@@ -8815,7 +10055,9 @@
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
-      <c r="G355" s="2"/>
+      <c r="G355" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="H355" s="2"/>
       <c r="I355" s="2"/>
       <c r="J355" s="2"/>
@@ -8827,7 +10069,9 @@
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
-      <c r="G356" s="2"/>
+      <c r="G356" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="H356" s="2"/>
       <c r="I356" s="2"/>
       <c r="J356" s="2"/>
@@ -8839,7 +10083,9 @@
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
-      <c r="G357" s="2"/>
+      <c r="G357" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="H357" s="2"/>
       <c r="I357" s="2"/>
       <c r="J357" s="2"/>
@@ -8851,7 +10097,9 @@
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
-      <c r="G358" s="2"/>
+      <c r="G358" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="H358" s="2"/>
       <c r="I358" s="2"/>
       <c r="J358" s="2"/>
@@ -8863,7 +10111,9 @@
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
-      <c r="G359" s="2"/>
+      <c r="G359" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="H359" s="2"/>
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
@@ -8875,7 +10125,9 @@
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
-      <c r="G360" s="2"/>
+      <c r="G360" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="H360" s="2"/>
       <c r="I360" s="2"/>
       <c r="J360" s="2"/>
@@ -8887,7 +10139,9 @@
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
-      <c r="G361" s="2"/>
+      <c r="G361" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="H361" s="2"/>
       <c r="I361" s="2"/>
       <c r="J361" s="2"/>
@@ -8899,7 +10153,9 @@
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
-      <c r="G362" s="2"/>
+      <c r="G362" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="H362" s="2"/>
       <c r="I362" s="2"/>
       <c r="J362" s="2"/>
@@ -8911,7 +10167,9 @@
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
-      <c r="G363" s="2"/>
+      <c r="G363" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="H363" s="2"/>
       <c r="I363" s="2"/>
       <c r="J363" s="2"/>
@@ -8923,7 +10181,9 @@
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
-      <c r="G364" s="2"/>
+      <c r="G364" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="H364" s="2"/>
       <c r="I364" s="2"/>
       <c r="J364" s="2"/>
@@ -8935,7 +10195,9 @@
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
-      <c r="G365" s="2"/>
+      <c r="G365" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H365" s="2"/>
       <c r="I365" s="2"/>
       <c r="J365" s="2"/>
@@ -8947,7 +10209,9 @@
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
-      <c r="G366" s="2"/>
+      <c r="G366" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="H366" s="2"/>
       <c r="I366" s="2"/>
       <c r="J366" s="2"/>
@@ -8959,7 +10223,9 @@
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
-      <c r="G367" s="2"/>
+      <c r="G367" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H367" s="2"/>
       <c r="I367" s="2"/>
       <c r="J367" s="2"/>
@@ -8971,7 +10237,9 @@
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
-      <c r="G368" s="2"/>
+      <c r="G368" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H368" s="2"/>
       <c r="I368" s="2"/>
       <c r="J368" s="2"/>
@@ -8983,7 +10251,9 @@
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
-      <c r="G369" s="2"/>
+      <c r="G369" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H369" s="2"/>
       <c r="I369" s="2"/>
       <c r="J369" s="2"/>
@@ -8995,7 +10265,9 @@
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
-      <c r="G370" s="2"/>
+      <c r="G370" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H370" s="2"/>
       <c r="I370" s="2"/>
       <c r="J370" s="2"/>
@@ -9007,7 +10279,9 @@
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
-      <c r="G371" s="2"/>
+      <c r="G371" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="H371" s="2"/>
       <c r="I371" s="2"/>
       <c r="J371" s="2"/>
@@ -9019,7 +10293,9 @@
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
-      <c r="G372" s="2"/>
+      <c r="G372" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="H372" s="2"/>
       <c r="I372" s="2"/>
       <c r="J372" s="2"/>
@@ -9031,7 +10307,9 @@
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
-      <c r="G373" s="2"/>
+      <c r="G373" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="H373" s="2"/>
       <c r="I373" s="2"/>
       <c r="J373" s="2"/>
@@ -9043,7 +10321,9 @@
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
-      <c r="G374" s="2"/>
+      <c r="G374" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="H374" s="2"/>
       <c r="I374" s="2"/>
       <c r="J374" s="2"/>
@@ -9055,7 +10335,9 @@
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
-      <c r="G375" s="2"/>
+      <c r="G375" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="H375" s="2"/>
       <c r="I375" s="2"/>
       <c r="J375" s="2"/>
@@ -9067,7 +10349,9 @@
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
-      <c r="G376" s="2"/>
+      <c r="G376" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="H376" s="2"/>
       <c r="I376" s="2"/>
       <c r="J376" s="2"/>
@@ -9079,7 +10363,9 @@
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
-      <c r="G377" s="2"/>
+      <c r="G377" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="H377" s="2"/>
       <c r="I377" s="2"/>
       <c r="J377" s="2"/>
@@ -9091,7 +10377,9 @@
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
-      <c r="G378" s="2"/>
+      <c r="G378" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="H378" s="2"/>
       <c r="I378" s="2"/>
       <c r="J378" s="2"/>
@@ -9103,7 +10391,9 @@
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
-      <c r="G379" s="2"/>
+      <c r="G379" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="H379" s="2"/>
       <c r="I379" s="2"/>
       <c r="J379" s="2"/>
@@ -9115,7 +10405,9 @@
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
-      <c r="G380" s="2"/>
+      <c r="G380" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="H380" s="2"/>
       <c r="I380" s="2"/>
       <c r="J380" s="2"/>
@@ -9127,7 +10419,9 @@
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
-      <c r="G381" s="2"/>
+      <c r="G381" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="H381" s="2"/>
       <c r="I381" s="2"/>
       <c r="J381" s="2"/>
@@ -9139,7 +10433,9 @@
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
-      <c r="G382" s="2"/>
+      <c r="G382" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="H382" s="2"/>
       <c r="I382" s="2"/>
       <c r="J382" s="2"/>
@@ -9151,7 +10447,9 @@
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
-      <c r="G383" s="2"/>
+      <c r="G383" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="H383" s="2"/>
       <c r="I383" s="2"/>
       <c r="J383" s="2"/>
@@ -9163,7 +10461,9 @@
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
-      <c r="G384" s="2"/>
+      <c r="G384" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="H384" s="2"/>
       <c r="I384" s="2"/>
       <c r="J384" s="2"/>
@@ -9175,7 +10475,9 @@
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
-      <c r="G385" s="2"/>
+      <c r="G385" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="H385" s="2"/>
       <c r="I385" s="2"/>
       <c r="J385" s="2"/>
@@ -9187,7 +10489,9 @@
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
-      <c r="G386" s="2"/>
+      <c r="G386" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="H386" s="2"/>
       <c r="I386" s="2"/>
       <c r="J386" s="2"/>
@@ -9199,7 +10503,9 @@
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
-      <c r="G387" s="2"/>
+      <c r="G387" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="H387" s="2"/>
       <c r="I387" s="2"/>
       <c r="J387" s="2"/>
@@ -9211,7 +10517,9 @@
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
-      <c r="G388" s="2"/>
+      <c r="G388" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="H388" s="2"/>
       <c r="I388" s="2"/>
       <c r="J388" s="2"/>
@@ -9223,7 +10531,9 @@
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
-      <c r="G389" s="2"/>
+      <c r="G389" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="H389" s="2"/>
       <c r="I389" s="2"/>
       <c r="J389" s="2"/>
@@ -9235,7 +10545,9 @@
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
-      <c r="G390" s="2"/>
+      <c r="G390" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="H390" s="2"/>
       <c r="I390" s="2"/>
       <c r="J390" s="2"/>
@@ -9247,7 +10559,9 @@
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
-      <c r="G391" s="2"/>
+      <c r="G391" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="H391" s="2"/>
       <c r="I391" s="2"/>
       <c r="J391" s="2"/>
@@ -9259,7 +10573,9 @@
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
-      <c r="G392" s="2"/>
+      <c r="G392" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H392" s="2"/>
       <c r="I392" s="2"/>
       <c r="J392" s="2"/>
@@ -9271,7 +10587,9 @@
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
-      <c r="G393" s="2"/>
+      <c r="G393" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="H393" s="2"/>
       <c r="I393" s="2"/>
       <c r="J393" s="2"/>
@@ -9283,7 +10601,9 @@
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
-      <c r="G394" s="2"/>
+      <c r="G394" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="H394" s="2"/>
       <c r="I394" s="2"/>
       <c r="J394" s="2"/>
@@ -9295,7 +10615,9 @@
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
-      <c r="G395" s="2"/>
+      <c r="G395" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="H395" s="2"/>
       <c r="I395" s="2"/>
       <c r="J395" s="2"/>
@@ -9307,7 +10629,9 @@
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
-      <c r="G396" s="2"/>
+      <c r="G396" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="H396" s="2"/>
       <c r="I396" s="2"/>
       <c r="J396" s="2"/>
@@ -9319,7 +10643,9 @@
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
-      <c r="G397" s="2"/>
+      <c r="G397" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="H397" s="2"/>
       <c r="I397" s="2"/>
       <c r="J397" s="2"/>
@@ -9331,7 +10657,9 @@
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
-      <c r="G398" s="2"/>
+      <c r="G398" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="H398" s="2"/>
       <c r="I398" s="2"/>
       <c r="J398" s="2"/>
@@ -9343,7 +10671,9 @@
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
-      <c r="G399" s="2"/>
+      <c r="G399" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="H399" s="2"/>
       <c r="I399" s="2"/>
       <c r="J399" s="2"/>
@@ -9355,7 +10685,9 @@
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
-      <c r="G400" s="2"/>
+      <c r="G400" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="H400" s="2"/>
       <c r="I400" s="2"/>
       <c r="J400" s="2"/>
@@ -9367,7 +10699,9 @@
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
-      <c r="G401" s="2"/>
+      <c r="G401" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="H401" s="2"/>
       <c r="I401" s="2"/>
       <c r="J401" s="2"/>
@@ -9379,7 +10713,9 @@
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
-      <c r="G402" s="2"/>
+      <c r="G402" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="H402" s="2"/>
       <c r="I402" s="2"/>
       <c r="J402" s="2"/>
@@ -9391,7 +10727,9 @@
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
-      <c r="G403" s="2"/>
+      <c r="G403" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="H403" s="2"/>
       <c r="I403" s="2"/>
       <c r="J403" s="2"/>
@@ -9403,7 +10741,9 @@
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
-      <c r="G404" s="2"/>
+      <c r="G404" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="H404" s="2"/>
       <c r="I404" s="2"/>
       <c r="J404" s="2"/>
@@ -9415,7 +10755,9 @@
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
-      <c r="G405" s="2"/>
+      <c r="G405" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="H405" s="2"/>
       <c r="I405" s="2"/>
       <c r="J405" s="2"/>
@@ -9427,7 +10769,9 @@
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
-      <c r="G406" s="2"/>
+      <c r="G406" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="H406" s="2"/>
       <c r="I406" s="2"/>
       <c r="J406" s="2"/>
@@ -9439,7 +10783,9 @@
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
-      <c r="G407" s="2"/>
+      <c r="G407" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="H407" s="2"/>
       <c r="I407" s="2"/>
       <c r="J407" s="2"/>
@@ -9451,7 +10797,9 @@
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
-      <c r="G408" s="2"/>
+      <c r="G408" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="H408" s="2"/>
       <c r="I408" s="2"/>
       <c r="J408" s="2"/>
@@ -9463,7 +10811,9 @@
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
-      <c r="G409" s="2"/>
+      <c r="G409" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="H409" s="2"/>
       <c r="I409" s="2"/>
       <c r="J409" s="2"/>
@@ -9475,7 +10825,9 @@
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
-      <c r="G410" s="2"/>
+      <c r="G410" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="H410" s="2"/>
       <c r="I410" s="2"/>
       <c r="J410" s="2"/>
@@ -9487,7 +10839,9 @@
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
-      <c r="G411" s="2"/>
+      <c r="G411" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="H411" s="2"/>
       <c r="I411" s="2"/>
       <c r="J411" s="2"/>
@@ -9499,7 +10853,9 @@
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
-      <c r="G412" s="2"/>
+      <c r="G412" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="H412" s="2"/>
       <c r="I412" s="2"/>
       <c r="J412" s="2"/>
@@ -9511,7 +10867,9 @@
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
-      <c r="G413" s="2"/>
+      <c r="G413" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="H413" s="2"/>
       <c r="I413" s="2"/>
       <c r="J413" s="2"/>
@@ -9523,7 +10881,9 @@
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
-      <c r="G414" s="2"/>
+      <c r="G414" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="H414" s="2"/>
       <c r="I414" s="2"/>
       <c r="J414" s="2"/>
@@ -9535,7 +10895,9 @@
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
-      <c r="G415" s="2"/>
+      <c r="G415" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="H415" s="2"/>
       <c r="I415" s="2"/>
       <c r="J415" s="2"/>
@@ -9547,7 +10909,9 @@
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
-      <c r="G416" s="2"/>
+      <c r="G416" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="H416" s="2"/>
       <c r="I416" s="2"/>
       <c r="J416" s="2"/>
@@ -9559,7 +10923,9 @@
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
-      <c r="G417" s="2"/>
+      <c r="G417" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="H417" s="2"/>
       <c r="I417" s="2"/>
       <c r="J417" s="2"/>
@@ -9571,7 +10937,9 @@
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
-      <c r="G418" s="2"/>
+      <c r="G418" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="H418" s="2"/>
       <c r="I418" s="2"/>
       <c r="J418" s="2"/>
@@ -9583,7 +10951,9 @@
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
-      <c r="G419" s="2"/>
+      <c r="G419" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="H419" s="2"/>
       <c r="I419" s="2"/>
       <c r="J419" s="2"/>
@@ -9595,7 +10965,9 @@
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
-      <c r="G420" s="2"/>
+      <c r="G420" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H420" s="2"/>
       <c r="I420" s="2"/>
       <c r="J420" s="2"/>
@@ -9607,7 +10979,9 @@
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
-      <c r="G421" s="2"/>
+      <c r="G421" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="H421" s="2"/>
       <c r="I421" s="2"/>
       <c r="J421" s="2"/>
@@ -9619,7 +10993,9 @@
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
-      <c r="G422" s="2"/>
+      <c r="G422" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="H422" s="2"/>
       <c r="I422" s="2"/>
       <c r="J422" s="2"/>
@@ -9631,7 +11007,9 @@
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
-      <c r="G423" s="2"/>
+      <c r="G423" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="H423" s="2"/>
       <c r="I423" s="2"/>
       <c r="J423" s="2"/>
@@ -9643,7 +11021,9 @@
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
-      <c r="G424" s="2"/>
+      <c r="G424" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="H424" s="2"/>
       <c r="I424" s="2"/>
       <c r="J424" s="2"/>
@@ -9655,7 +11035,9 @@
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
-      <c r="G425" s="2"/>
+      <c r="G425" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="H425" s="2"/>
       <c r="I425" s="2"/>
       <c r="J425" s="2"/>
@@ -9667,7 +11049,9 @@
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
-      <c r="G426" s="2"/>
+      <c r="G426" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="H426" s="2"/>
       <c r="I426" s="2"/>
       <c r="J426" s="2"/>
@@ -9679,7 +11063,9 @@
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
-      <c r="G427" s="2"/>
+      <c r="G427" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="H427" s="2"/>
       <c r="I427" s="2"/>
       <c r="J427" s="2"/>
@@ -9691,7 +11077,9 @@
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
-      <c r="G428" s="2"/>
+      <c r="G428" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="H428" s="2"/>
       <c r="I428" s="2"/>
       <c r="J428" s="2"/>
@@ -9703,7 +11091,9 @@
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
-      <c r="G429" s="2"/>
+      <c r="G429" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="H429" s="2"/>
       <c r="I429" s="2"/>
       <c r="J429" s="2"/>
@@ -9715,7 +11105,9 @@
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
-      <c r="G430" s="2"/>
+      <c r="G430" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="H430" s="2"/>
       <c r="I430" s="2"/>
       <c r="J430" s="2"/>
@@ -9727,7 +11119,9 @@
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
-      <c r="G431" s="2"/>
+      <c r="G431" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="H431" s="2"/>
       <c r="I431" s="2"/>
       <c r="J431" s="2"/>
@@ -9739,7 +11133,9 @@
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
-      <c r="G432" s="2"/>
+      <c r="G432" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="H432" s="2"/>
       <c r="I432" s="2"/>
       <c r="J432" s="2"/>
@@ -9751,7 +11147,9 @@
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
-      <c r="G433" s="2"/>
+      <c r="G433" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="H433" s="2"/>
       <c r="I433" s="2"/>
       <c r="J433" s="2"/>
@@ -9763,7 +11161,9 @@
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
-      <c r="G434" s="2"/>
+      <c r="G434" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="H434" s="2"/>
       <c r="I434" s="2"/>
       <c r="J434" s="2"/>
@@ -9775,7 +11175,9 @@
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
-      <c r="G435" s="2"/>
+      <c r="G435" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="H435" s="2"/>
       <c r="I435" s="2"/>
       <c r="J435" s="2"/>
@@ -9787,7 +11189,9 @@
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
-      <c r="G436" s="2"/>
+      <c r="G436" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="H436" s="2"/>
       <c r="I436" s="2"/>
       <c r="J436" s="2"/>
@@ -9799,7 +11203,9 @@
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
-      <c r="G437" s="2"/>
+      <c r="G437" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="H437" s="2"/>
       <c r="I437" s="2"/>
       <c r="J437" s="2"/>
@@ -9811,7 +11217,9 @@
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
-      <c r="G438" s="2"/>
+      <c r="G438" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="H438" s="2"/>
       <c r="I438" s="2"/>
       <c r="J438" s="2"/>
@@ -9823,7 +11231,9 @@
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
-      <c r="G439" s="2"/>
+      <c r="G439" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="H439" s="2"/>
       <c r="I439" s="2"/>
       <c r="J439" s="2"/>
@@ -9835,7 +11245,9 @@
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
-      <c r="G440" s="2"/>
+      <c r="G440" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="H440" s="2"/>
       <c r="I440" s="2"/>
       <c r="J440" s="2"/>
@@ -9847,7 +11259,9 @@
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
-      <c r="G441" s="2"/>
+      <c r="G441" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="H441" s="2"/>
       <c r="I441" s="2"/>
       <c r="J441" s="2"/>
@@ -9859,7 +11273,9 @@
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
-      <c r="G442" s="2"/>
+      <c r="G442" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="H442" s="2"/>
       <c r="I442" s="2"/>
       <c r="J442" s="2"/>
@@ -9871,7 +11287,9 @@
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
-      <c r="G443" s="2"/>
+      <c r="G443" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="H443" s="2"/>
       <c r="I443" s="2"/>
       <c r="J443" s="2"/>
@@ -9883,7 +11301,9 @@
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
-      <c r="G444" s="2"/>
+      <c r="G444" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="H444" s="2"/>
       <c r="I444" s="2"/>
       <c r="J444" s="2"/>
@@ -9895,7 +11315,9 @@
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
-      <c r="G445" s="2"/>
+      <c r="G445" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="H445" s="2"/>
       <c r="I445" s="2"/>
       <c r="J445" s="2"/>
@@ -9907,7 +11329,9 @@
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
-      <c r="G446" s="2"/>
+      <c r="G446" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="H446" s="2"/>
       <c r="I446" s="2"/>
       <c r="J446" s="2"/>
@@ -9919,7 +11343,9 @@
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
-      <c r="G447" s="2"/>
+      <c r="G447" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="H447" s="2"/>
       <c r="I447" s="2"/>
       <c r="J447" s="2"/>
@@ -9931,7 +11357,9 @@
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
-      <c r="G448" s="2"/>
+      <c r="G448" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="H448" s="2"/>
       <c r="I448" s="2"/>
       <c r="J448" s="2"/>
@@ -9943,7 +11371,9 @@
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
-      <c r="G449" s="2"/>
+      <c r="G449" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="H449" s="2"/>
       <c r="I449" s="2"/>
       <c r="J449" s="2"/>
@@ -9955,7 +11385,9 @@
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
-      <c r="G450" s="2"/>
+      <c r="G450" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="H450" s="2"/>
       <c r="I450" s="2"/>
       <c r="J450" s="2"/>
@@ -9967,7 +11399,9 @@
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
-      <c r="G451" s="2"/>
+      <c r="G451" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="H451" s="2"/>
       <c r="I451" s="2"/>
       <c r="J451" s="2"/>
@@ -9979,7 +11413,9 @@
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
-      <c r="G452" s="2"/>
+      <c r="G452" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="H452" s="2"/>
       <c r="I452" s="2"/>
       <c r="J452" s="2"/>
@@ -9991,7 +11427,9 @@
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
-      <c r="G453" s="2"/>
+      <c r="G453" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="H453" s="2"/>
       <c r="I453" s="2"/>
       <c r="J453" s="2"/>
@@ -10003,7 +11441,9 @@
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
-      <c r="G454" s="2"/>
+      <c r="G454" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="H454" s="2"/>
       <c r="I454" s="2"/>
       <c r="J454" s="2"/>
@@ -10015,7 +11455,9 @@
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
-      <c r="G455" s="2"/>
+      <c r="G455" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="H455" s="2"/>
       <c r="I455" s="2"/>
       <c r="J455" s="2"/>
@@ -10027,7 +11469,9 @@
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
-      <c r="G456" s="2"/>
+      <c r="G456" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="H456" s="2"/>
       <c r="I456" s="2"/>
       <c r="J456" s="2"/>
@@ -10039,7 +11483,9 @@
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
-      <c r="G457" s="2"/>
+      <c r="G457" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="H457" s="2"/>
       <c r="I457" s="2"/>
       <c r="J457" s="2"/>
@@ -10051,7 +11497,9 @@
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
-      <c r="G458" s="2"/>
+      <c r="G458" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="H458" s="2"/>
       <c r="I458" s="2"/>
       <c r="J458" s="2"/>
@@ -10063,7 +11511,9 @@
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
-      <c r="G459" s="2"/>
+      <c r="G459" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="H459" s="2"/>
       <c r="I459" s="2"/>
       <c r="J459" s="2"/>
@@ -10075,7 +11525,9 @@
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
-      <c r="G460" s="2"/>
+      <c r="G460" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="H460" s="2"/>
       <c r="I460" s="2"/>
       <c r="J460" s="2"/>
@@ -10087,7 +11539,9 @@
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
-      <c r="G461" s="2"/>
+      <c r="G461" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="H461" s="2"/>
       <c r="I461" s="2"/>
       <c r="J461" s="2"/>
@@ -10099,7 +11553,9 @@
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
-      <c r="G462" s="2"/>
+      <c r="G462" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="H462" s="2"/>
       <c r="I462" s="2"/>
       <c r="J462" s="2"/>
@@ -10111,7 +11567,9 @@
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
-      <c r="G463" s="2"/>
+      <c r="G463" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="H463" s="2"/>
       <c r="I463" s="2"/>
       <c r="J463" s="2"/>
@@ -10123,7 +11581,9 @@
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
-      <c r="G464" s="2"/>
+      <c r="G464" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="H464" s="2"/>
       <c r="I464" s="2"/>
       <c r="J464" s="2"/>
@@ -10135,7 +11595,9 @@
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
-      <c r="G465" s="2"/>
+      <c r="G465" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="H465" s="2"/>
       <c r="I465" s="2"/>
       <c r="J465" s="2"/>
@@ -10147,7 +11609,9 @@
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
-      <c r="G466" s="2"/>
+      <c r="G466" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="H466" s="2"/>
       <c r="I466" s="2"/>
       <c r="J466" s="2"/>
@@ -10159,7 +11623,9 @@
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
-      <c r="G467" s="2"/>
+      <c r="G467" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="H467" s="2"/>
       <c r="I467" s="2"/>
       <c r="J467" s="2"/>
@@ -10171,7 +11637,9 @@
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
-      <c r="G468" s="2"/>
+      <c r="G468" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="H468" s="2"/>
       <c r="I468" s="2"/>
       <c r="J468" s="2"/>
@@ -10183,7 +11651,9 @@
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
-      <c r="G469" s="2"/>
+      <c r="G469" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="H469" s="2"/>
       <c r="I469" s="2"/>
       <c r="J469" s="2"/>
@@ -10195,7 +11665,9 @@
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
-      <c r="G470" s="2"/>
+      <c r="G470" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="H470" s="2"/>
       <c r="I470" s="2"/>
       <c r="J470" s="2"/>
@@ -10207,7 +11679,9 @@
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
-      <c r="G471" s="2"/>
+      <c r="G471" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="H471" s="2"/>
       <c r="I471" s="2"/>
       <c r="J471" s="2"/>
@@ -10219,7 +11693,9 @@
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
-      <c r="G472" s="2"/>
+      <c r="G472" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="H472" s="2"/>
       <c r="I472" s="2"/>
       <c r="J472" s="2"/>
@@ -10231,7 +11707,9 @@
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
-      <c r="G473" s="2"/>
+      <c r="G473" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="H473" s="2"/>
       <c r="I473" s="2"/>
       <c r="J473" s="2"/>
@@ -10243,7 +11721,9 @@
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
-      <c r="G474" s="2"/>
+      <c r="G474" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="H474" s="2"/>
       <c r="I474" s="2"/>
       <c r="J474" s="2"/>
@@ -10255,7 +11735,9 @@
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
-      <c r="G475" s="2"/>
+      <c r="G475" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="H475" s="2"/>
       <c r="I475" s="2"/>
       <c r="J475" s="2"/>
@@ -10267,7 +11749,9 @@
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
-      <c r="G476" s="2"/>
+      <c r="G476" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="H476" s="2"/>
       <c r="I476" s="2"/>
       <c r="J476" s="2"/>
@@ -10279,7 +11763,9 @@
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
-      <c r="G477" s="2"/>
+      <c r="G477" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="H477" s="2"/>
       <c r="I477" s="2"/>
       <c r="J477" s="2"/>
@@ -10291,7 +11777,9 @@
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
-      <c r="G478" s="2"/>
+      <c r="G478" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="H478" s="2"/>
       <c r="I478" s="2"/>
       <c r="J478" s="2"/>
@@ -10303,7 +11791,9 @@
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
-      <c r="G479" s="2"/>
+      <c r="G479" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="H479" s="2"/>
       <c r="I479" s="2"/>
       <c r="J479" s="2"/>
@@ -10315,7 +11805,9 @@
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
-      <c r="G480" s="2"/>
+      <c r="G480" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="H480" s="2"/>
       <c r="I480" s="2"/>
       <c r="J480" s="2"/>
@@ -10327,7 +11819,9 @@
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
-      <c r="G481" s="2"/>
+      <c r="G481" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="H481" s="2"/>
       <c r="I481" s="2"/>
       <c r="J481" s="2"/>
@@ -10339,7 +11833,9 @@
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
-      <c r="G482" s="2"/>
+      <c r="G482" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="H482" s="2"/>
       <c r="I482" s="2"/>
       <c r="J482" s="2"/>
@@ -10351,7 +11847,9 @@
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
-      <c r="G483" s="2"/>
+      <c r="G483" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="H483" s="2"/>
       <c r="I483" s="2"/>
       <c r="J483" s="2"/>
@@ -10363,7 +11861,9 @@
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
-      <c r="G484" s="2"/>
+      <c r="G484" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="H484" s="2"/>
       <c r="I484" s="2"/>
       <c r="J484" s="2"/>
@@ -10375,7 +11875,9 @@
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
-      <c r="G485" s="2"/>
+      <c r="G485" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="H485" s="2"/>
       <c r="I485" s="2"/>
       <c r="J485" s="2"/>
@@ -10387,7 +11889,9 @@
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
-      <c r="G486" s="2"/>
+      <c r="G486" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="H486" s="2"/>
       <c r="I486" s="2"/>
       <c r="J486" s="2"/>
@@ -10399,7 +11903,9 @@
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
-      <c r="G487" s="2"/>
+      <c r="G487" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="H487" s="2"/>
       <c r="I487" s="2"/>
       <c r="J487" s="2"/>
@@ -10411,7 +11917,9 @@
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
-      <c r="G488" s="2"/>
+      <c r="G488" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="H488" s="2"/>
       <c r="I488" s="2"/>
       <c r="J488" s="2"/>
@@ -10423,7 +11931,9 @@
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
-      <c r="G489" s="2"/>
+      <c r="G489" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="H489" s="2"/>
       <c r="I489" s="2"/>
       <c r="J489" s="2"/>
@@ -10435,7 +11945,9 @@
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
-      <c r="G490" s="2"/>
+      <c r="G490" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="H490" s="2"/>
       <c r="I490" s="2"/>
       <c r="J490" s="2"/>
@@ -10447,7 +11959,9 @@
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
-      <c r="G491" s="2"/>
+      <c r="G491" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="H491" s="2"/>
       <c r="I491" s="2"/>
       <c r="J491" s="2"/>
@@ -10459,7 +11973,9 @@
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
-      <c r="G492" s="2"/>
+      <c r="G492" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="H492" s="2"/>
       <c r="I492" s="2"/>
       <c r="J492" s="2"/>
@@ -10471,7 +11987,9 @@
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
-      <c r="G493" s="2"/>
+      <c r="G493" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="H493" s="2"/>
       <c r="I493" s="2"/>
       <c r="J493" s="2"/>
@@ -10483,7 +12001,9 @@
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
-      <c r="G494" s="2"/>
+      <c r="G494" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="H494" s="2"/>
       <c r="I494" s="2"/>
       <c r="J494" s="2"/>
@@ -10495,7 +12015,9 @@
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
-      <c r="G495" s="2"/>
+      <c r="G495" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="H495" s="2"/>
       <c r="I495" s="2"/>
       <c r="J495" s="2"/>
@@ -10507,7 +12029,9 @@
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
-      <c r="G496" s="2"/>
+      <c r="G496" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="H496" s="2"/>
       <c r="I496" s="2"/>
       <c r="J496" s="2"/>
@@ -10519,7 +12043,9 @@
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
-      <c r="G497" s="2"/>
+      <c r="G497" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="H497" s="2"/>
       <c r="I497" s="2"/>
       <c r="J497" s="2"/>
@@ -10531,7 +12057,9 @@
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
-      <c r="G498" s="2"/>
+      <c r="G498" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="H498" s="2"/>
       <c r="I498" s="2"/>
       <c r="J498" s="2"/>
@@ -10543,7 +12071,9 @@
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
-      <c r="G499" s="2"/>
+      <c r="G499" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="H499" s="2"/>
       <c r="I499" s="2"/>
       <c r="J499" s="2"/>
@@ -10555,7 +12085,9 @@
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
-      <c r="G500" s="2"/>
+      <c r="G500" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="H500" s="2"/>
       <c r="I500" s="2"/>
       <c r="J500" s="2"/>
@@ -10567,7 +12099,9 @@
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
-      <c r="G501" s="2"/>
+      <c r="G501" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="H501" s="2"/>
       <c r="I501" s="2"/>
       <c r="J501" s="2"/>
@@ -10579,7 +12113,9 @@
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
-      <c r="G502" s="2"/>
+      <c r="G502" s="2" t="s">
+        <v>308</v>
+      </c>
       <c r="H502" s="2"/>
       <c r="I502" s="2"/>
       <c r="J502" s="2"/>
@@ -10591,7 +12127,9 @@
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
-      <c r="G503" s="2"/>
+      <c r="G503" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="H503" s="2"/>
       <c r="I503" s="2"/>
       <c r="J503" s="2"/>
@@ -10603,7 +12141,9 @@
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
-      <c r="G504" s="2"/>
+      <c r="G504" s="2" t="s">
+        <v>310</v>
+      </c>
       <c r="H504" s="2"/>
       <c r="I504" s="2"/>
       <c r="J504" s="2"/>
@@ -10615,7 +12155,9 @@
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
-      <c r="G505" s="2"/>
+      <c r="G505" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="H505" s="2"/>
       <c r="I505" s="2"/>
       <c r="J505" s="2"/>
@@ -10627,7 +12169,9 @@
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
-      <c r="G506" s="2"/>
+      <c r="G506" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="H506" s="2"/>
       <c r="I506" s="2"/>
       <c r="J506" s="2"/>
@@ -10639,7 +12183,9 @@
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
-      <c r="G507" s="2"/>
+      <c r="G507" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="H507" s="2"/>
       <c r="I507" s="2"/>
       <c r="J507" s="2"/>
@@ -10651,7 +12197,9 @@
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
-      <c r="G508" s="2"/>
+      <c r="G508" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="H508" s="2"/>
       <c r="I508" s="2"/>
       <c r="J508" s="2"/>
@@ -10663,7 +12211,9 @@
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
-      <c r="G509" s="2"/>
+      <c r="G509" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="H509" s="2"/>
       <c r="I509" s="2"/>
       <c r="J509" s="2"/>
@@ -10675,7 +12225,9 @@
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
-      <c r="G510" s="2"/>
+      <c r="G510" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="H510" s="2"/>
       <c r="I510" s="2"/>
       <c r="J510" s="2"/>
@@ -10687,7 +12239,9 @@
       <c r="D511" s="2"/>
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
-      <c r="G511" s="2"/>
+      <c r="G511" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="H511" s="2"/>
       <c r="I511" s="2"/>
       <c r="J511" s="2"/>
@@ -10699,7 +12253,9 @@
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
-      <c r="G512" s="2"/>
+      <c r="G512" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="H512" s="2"/>
       <c r="I512" s="2"/>
       <c r="J512" s="2"/>
@@ -10711,7 +12267,9 @@
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
-      <c r="G513" s="2"/>
+      <c r="G513" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="H513" s="2"/>
       <c r="I513" s="2"/>
       <c r="J513" s="2"/>
@@ -10723,7 +12281,9 @@
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
-      <c r="G514" s="2"/>
+      <c r="G514" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="H514" s="2"/>
       <c r="I514" s="2"/>
       <c r="J514" s="2"/>
@@ -10735,7 +12295,9 @@
       <c r="D515" s="2"/>
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
-      <c r="G515" s="2"/>
+      <c r="G515" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="H515" s="2"/>
       <c r="I515" s="2"/>
       <c r="J515" s="2"/>
@@ -10747,7 +12309,9 @@
       <c r="D516" s="2"/>
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
-      <c r="G516" s="2"/>
+      <c r="G516" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="H516" s="2"/>
       <c r="I516" s="2"/>
       <c r="J516" s="2"/>
@@ -10759,7 +12323,9 @@
       <c r="D517" s="2"/>
       <c r="E517" s="2"/>
       <c r="F517" s="2"/>
-      <c r="G517" s="2"/>
+      <c r="G517" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="H517" s="2"/>
       <c r="I517" s="2"/>
       <c r="J517" s="2"/>
@@ -10771,7 +12337,9 @@
       <c r="D518" s="2"/>
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
-      <c r="G518" s="2"/>
+      <c r="G518" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="H518" s="2"/>
       <c r="I518" s="2"/>
       <c r="J518" s="2"/>
@@ -10783,7 +12351,9 @@
       <c r="D519" s="2"/>
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
-      <c r="G519" s="2"/>
+      <c r="G519" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="H519" s="2"/>
       <c r="I519" s="2"/>
       <c r="J519" s="2"/>
@@ -10795,7 +12365,9 @@
       <c r="D520" s="2"/>
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
-      <c r="G520" s="2"/>
+      <c r="G520" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="H520" s="2"/>
       <c r="I520" s="2"/>
       <c r="J520" s="2"/>
@@ -10807,7 +12379,9 @@
       <c r="D521" s="2"/>
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
-      <c r="G521" s="2"/>
+      <c r="G521" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="H521" s="2"/>
       <c r="I521" s="2"/>
       <c r="J521" s="2"/>
@@ -10819,7 +12393,9 @@
       <c r="D522" s="2"/>
       <c r="E522" s="2"/>
       <c r="F522" s="2"/>
-      <c r="G522" s="2"/>
+      <c r="G522" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="H522" s="2"/>
       <c r="I522" s="2"/>
       <c r="J522" s="2"/>
@@ -10831,7 +12407,9 @@
       <c r="D523" s="2"/>
       <c r="E523" s="2"/>
       <c r="F523" s="2"/>
-      <c r="G523" s="2"/>
+      <c r="G523" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="H523" s="2"/>
       <c r="I523" s="2"/>
       <c r="J523" s="2"/>
@@ -10843,7 +12421,9 @@
       <c r="D524" s="2"/>
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
-      <c r="G524" s="2"/>
+      <c r="G524" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="H524" s="2"/>
       <c r="I524" s="2"/>
       <c r="J524" s="2"/>
@@ -10855,7 +12435,9 @@
       <c r="D525" s="2"/>
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
-      <c r="G525" s="2"/>
+      <c r="G525" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="H525" s="2"/>
       <c r="I525" s="2"/>
       <c r="J525" s="2"/>
@@ -10867,7 +12449,9 @@
       <c r="D526" s="2"/>
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
-      <c r="G526" s="2"/>
+      <c r="G526" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="H526" s="2"/>
       <c r="I526" s="2"/>
       <c r="J526" s="2"/>
@@ -10879,7 +12463,9 @@
       <c r="D527" s="2"/>
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
-      <c r="G527" s="2"/>
+      <c r="G527" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="H527" s="2"/>
       <c r="I527" s="2"/>
       <c r="J527" s="2"/>
@@ -10891,7 +12477,9 @@
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
-      <c r="G528" s="2"/>
+      <c r="G528" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="H528" s="2"/>
       <c r="I528" s="2"/>
       <c r="J528" s="2"/>
@@ -10903,7 +12491,9 @@
       <c r="D529" s="2"/>
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
-      <c r="G529" s="2"/>
+      <c r="G529" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="H529" s="2"/>
       <c r="I529" s="2"/>
       <c r="J529" s="2"/>
@@ -10915,7 +12505,9 @@
       <c r="D530" s="2"/>
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
-      <c r="G530" s="2"/>
+      <c r="G530" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="H530" s="2"/>
       <c r="I530" s="2"/>
       <c r="J530" s="2"/>
@@ -10927,7 +12519,9 @@
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
-      <c r="G531" s="2"/>
+      <c r="G531" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="H531" s="2"/>
       <c r="I531" s="2"/>
       <c r="J531" s="2"/>
@@ -10939,7 +12533,9 @@
       <c r="D532" s="2"/>
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
-      <c r="G532" s="2"/>
+      <c r="G532" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="H532" s="2"/>
       <c r="I532" s="2"/>
       <c r="J532" s="2"/>
@@ -10951,7 +12547,9 @@
       <c r="D533" s="2"/>
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
-      <c r="G533" s="2"/>
+      <c r="G533" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="H533" s="2"/>
       <c r="I533" s="2"/>
       <c r="J533" s="2"/>
@@ -10963,7 +12561,9 @@
       <c r="D534" s="2"/>
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
-      <c r="G534" s="2"/>
+      <c r="G534" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="H534" s="2"/>
       <c r="I534" s="2"/>
       <c r="J534" s="2"/>
@@ -10975,7 +12575,9 @@
       <c r="D535" s="2"/>
       <c r="E535" s="2"/>
       <c r="F535" s="2"/>
-      <c r="G535" s="2"/>
+      <c r="G535" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="H535" s="2"/>
       <c r="I535" s="2"/>
       <c r="J535" s="2"/>
@@ -10987,7 +12589,9 @@
       <c r="D536" s="2"/>
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
-      <c r="G536" s="2"/>
+      <c r="G536" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="H536" s="2"/>
       <c r="I536" s="2"/>
       <c r="J536" s="2"/>
@@ -10999,7 +12603,9 @@
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
-      <c r="G537" s="2"/>
+      <c r="G537" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="H537" s="2"/>
       <c r="I537" s="2"/>
       <c r="J537" s="2"/>
@@ -11011,7 +12617,9 @@
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
-      <c r="G538" s="2"/>
+      <c r="G538" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="H538" s="2"/>
       <c r="I538" s="2"/>
       <c r="J538" s="2"/>
@@ -12236,10 +13844,10 @@
         <v>11</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E640" s="1">
         <v>6933</v>

--- a/Phase_01/ProblemListPhase1.xlsx
+++ b/Phase_01/ProblemListPhase1.xlsx
@@ -1065,7 +1065,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,6 +1079,13 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1102,12 +1109,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1595,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J640"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="G215" sqref="G215:G538"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1663,7 +1673,9 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1687,7 +1699,9 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1711,7 +1725,9 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1735,7 +1751,9 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1759,7 +1777,9 @@
       <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1783,7 +1803,9 @@
       <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1807,7 +1829,9 @@
       <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1831,12 +1855,14 @@
       <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1855,12 +1881,14 @@
       <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1879,12 +1907,14 @@
       <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1903,12 +1933,14 @@
       <c r="F12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1927,12 +1959,14 @@
       <c r="F13" s="2">
         <v>3</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1951,12 +1985,14 @@
       <c r="F14" s="2">
         <v>3</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1975,12 +2011,14 @@
       <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1999,12 +2037,14 @@
       <c r="F16" s="2">
         <v>3</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2023,12 +2063,14 @@
       <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2047,12 +2089,14 @@
       <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2071,12 +2115,14 @@
       <c r="F19" s="2">
         <v>3</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2095,12 +2141,14 @@
       <c r="F20" s="2">
         <v>3</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2119,12 +2167,14 @@
       <c r="F21" s="2">
         <v>3</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2143,12 +2193,14 @@
       <c r="F22" s="2">
         <v>3</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2167,12 +2219,14 @@
       <c r="F23" s="2">
         <v>3</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2191,12 +2245,14 @@
       <c r="F24" s="2">
         <v>3</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2215,12 +2271,14 @@
       <c r="F25" s="2">
         <v>3</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2239,12 +2297,14 @@
       <c r="F26" s="2">
         <v>3</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2263,12 +2323,14 @@
       <c r="F27" s="2">
         <v>3</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2287,12 +2349,14 @@
       <c r="F28" s="2">
         <v>3</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2311,7 +2375,9 @@
       <c r="F29" s="2">
         <v>3</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2335,7 +2401,9 @@
       <c r="F30" s="2">
         <v>3</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2359,7 +2427,9 @@
       <c r="F31" s="2">
         <v>4</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2383,7 +2453,9 @@
       <c r="F32" s="2">
         <v>4</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2407,7 +2479,9 @@
       <c r="F33" s="2">
         <v>4</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2431,7 +2505,9 @@
       <c r="F34" s="2">
         <v>4</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2455,7 +2531,9 @@
       <c r="F35" s="2">
         <v>4</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2479,7 +2557,9 @@
       <c r="F36" s="2">
         <v>4</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2503,7 +2583,9 @@
       <c r="F37" s="2">
         <v>4</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2527,7 +2609,9 @@
       <c r="F38" s="2">
         <v>4</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -2551,12 +2635,14 @@
       <c r="F39" s="2">
         <v>4</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2575,12 +2661,14 @@
       <c r="F40" s="2">
         <v>4</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2599,12 +2687,14 @@
       <c r="F41" s="2">
         <v>4</v>
       </c>
-      <c r="G41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2623,12 +2713,14 @@
       <c r="F42" s="2">
         <v>4</v>
       </c>
-      <c r="G42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2647,12 +2739,14 @@
       <c r="F43" s="2">
         <v>4</v>
       </c>
-      <c r="G43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2671,12 +2765,14 @@
       <c r="F44" s="2">
         <v>4</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2695,12 +2791,14 @@
       <c r="F45" s="2">
         <v>4</v>
       </c>
-      <c r="G45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2719,12 +2817,14 @@
       <c r="F46" s="2">
         <v>4</v>
       </c>
-      <c r="G46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2743,12 +2843,14 @@
       <c r="F47" s="2">
         <v>4</v>
       </c>
-      <c r="G47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2767,12 +2869,14 @@
       <c r="F48" s="2">
         <v>4</v>
       </c>
-      <c r="G48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2791,12 +2895,14 @@
       <c r="F49" s="2">
         <v>4</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2815,12 +2921,14 @@
       <c r="F50" s="2">
         <v>4</v>
       </c>
-      <c r="G50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2839,12 +2947,14 @@
       <c r="F51" s="2">
         <v>4</v>
       </c>
-      <c r="G51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2863,12 +2973,14 @@
       <c r="F52" s="2">
         <v>4</v>
       </c>
-      <c r="G52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2887,12 +2999,14 @@
       <c r="F53" s="2">
         <v>4</v>
       </c>
-      <c r="G53" s="2"/>
+      <c r="G53" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2911,7 +3025,9 @@
       <c r="F54" s="2">
         <v>4</v>
       </c>
-      <c r="G54" s="2"/>
+      <c r="G54" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -2935,7 +3051,9 @@
       <c r="F55" s="2">
         <v>5</v>
       </c>
-      <c r="G55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -2959,7 +3077,9 @@
       <c r="F56" s="2">
         <v>5</v>
       </c>
-      <c r="G56" s="2"/>
+      <c r="G56" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -2983,12 +3103,14 @@
       <c r="F57" s="2">
         <v>5</v>
       </c>
-      <c r="G57" s="2"/>
+      <c r="G57" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3007,12 +3129,14 @@
       <c r="F58" s="2">
         <v>5</v>
       </c>
-      <c r="G58" s="2"/>
+      <c r="G58" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3031,12 +3155,14 @@
       <c r="F59" s="2">
         <v>5</v>
       </c>
-      <c r="G59" s="2"/>
+      <c r="G59" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3055,12 +3181,14 @@
       <c r="F60" s="2">
         <v>6</v>
       </c>
-      <c r="G60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3079,12 +3207,14 @@
       <c r="F61" s="2">
         <v>6</v>
       </c>
-      <c r="G61" s="2"/>
+      <c r="G61" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3103,12 +3233,14 @@
       <c r="F62" s="2">
         <v>6</v>
       </c>
-      <c r="G62" s="2"/>
+      <c r="G62" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3127,12 +3259,14 @@
       <c r="F63" s="2">
         <v>6</v>
       </c>
-      <c r="G63" s="2"/>
+      <c r="G63" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3151,12 +3285,14 @@
       <c r="F64" s="2">
         <v>6</v>
       </c>
-      <c r="G64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3175,12 +3311,14 @@
       <c r="F65" s="2">
         <v>6</v>
       </c>
-      <c r="G65" s="2"/>
+      <c r="G65" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3199,12 +3337,14 @@
       <c r="F66" s="2">
         <v>7</v>
       </c>
-      <c r="G66" s="2"/>
+      <c r="G66" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3223,12 +3363,14 @@
       <c r="F67" s="2">
         <v>7</v>
       </c>
-      <c r="G67" s="2"/>
+      <c r="G67" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3247,12 +3389,14 @@
       <c r="F68" s="2">
         <v>7</v>
       </c>
-      <c r="G68" s="2"/>
+      <c r="G68" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3271,12 +3415,14 @@
       <c r="F69" s="2">
         <v>7</v>
       </c>
-      <c r="G69" s="2"/>
+      <c r="G69" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3295,12 +3441,14 @@
       <c r="F70" s="2">
         <v>7</v>
       </c>
-      <c r="G70" s="2"/>
+      <c r="G70" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3319,12 +3467,14 @@
       <c r="F71" s="2">
         <v>7</v>
       </c>
-      <c r="G71" s="2"/>
+      <c r="G71" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3343,12 +3493,14 @@
       <c r="F72" s="2">
         <v>7</v>
       </c>
-      <c r="G72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3367,12 +3519,14 @@
       <c r="F73" s="2">
         <v>7</v>
       </c>
-      <c r="G73" s="2"/>
+      <c r="G73" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3391,12 +3545,14 @@
       <c r="F74" s="2">
         <v>7</v>
       </c>
-      <c r="G74" s="2"/>
+      <c r="G74" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3415,12 +3571,14 @@
       <c r="F75" s="2">
         <v>7</v>
       </c>
-      <c r="G75" s="2"/>
+      <c r="G75" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3439,12 +3597,14 @@
       <c r="F76" s="2">
         <v>7</v>
       </c>
-      <c r="G76" s="2"/>
+      <c r="G76" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3463,12 +3623,14 @@
       <c r="F77" s="2">
         <v>7</v>
       </c>
-      <c r="G77" s="2"/>
+      <c r="G77" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3487,12 +3649,14 @@
       <c r="F78" s="2">
         <v>7</v>
       </c>
-      <c r="G78" s="2"/>
+      <c r="G78" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3511,12 +3675,14 @@
       <c r="F79" s="2">
         <v>7</v>
       </c>
-      <c r="G79" s="2"/>
+      <c r="G79" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3535,12 +3701,14 @@
       <c r="F80" s="2">
         <v>7</v>
       </c>
-      <c r="G80" s="2"/>
+      <c r="G80" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3559,12 +3727,14 @@
       <c r="F81" s="2">
         <v>7</v>
       </c>
-      <c r="G81" s="2"/>
+      <c r="G81" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -3583,12 +3753,14 @@
       <c r="F82" s="2">
         <v>7</v>
       </c>
-      <c r="G82" s="2"/>
+      <c r="G82" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -3607,12 +3779,14 @@
       <c r="F83" s="2">
         <v>7</v>
       </c>
-      <c r="G83" s="2"/>
+      <c r="G83" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -3631,12 +3805,14 @@
       <c r="F84" s="2">
         <v>7</v>
       </c>
-      <c r="G84" s="2"/>
+      <c r="G84" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -3655,12 +3831,14 @@
       <c r="F85" s="2">
         <v>7</v>
       </c>
-      <c r="G85" s="2"/>
+      <c r="G85" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -3679,12 +3857,14 @@
       <c r="F86" s="2">
         <v>7</v>
       </c>
-      <c r="G86" s="2"/>
+      <c r="G86" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -3703,12 +3883,14 @@
       <c r="F87" s="2">
         <v>7</v>
       </c>
-      <c r="G87" s="2"/>
+      <c r="G87" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -3727,12 +3909,14 @@
       <c r="F88" s="2">
         <v>7</v>
       </c>
-      <c r="G88" s="2"/>
+      <c r="G88" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -3751,12 +3935,14 @@
       <c r="F89" s="2">
         <v>7</v>
       </c>
-      <c r="G89" s="2"/>
+      <c r="G89" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -3775,12 +3961,14 @@
       <c r="F90" s="2">
         <v>8</v>
       </c>
-      <c r="G90" s="2"/>
+      <c r="G90" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -3799,12 +3987,14 @@
       <c r="F91" s="2">
         <v>8</v>
       </c>
-      <c r="G91" s="2"/>
+      <c r="G91" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -3823,12 +4013,14 @@
       <c r="F92" s="2">
         <v>8</v>
       </c>
-      <c r="G92" s="2"/>
+      <c r="G92" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -3847,12 +4039,14 @@
       <c r="F93" s="2">
         <v>8</v>
       </c>
-      <c r="G93" s="2"/>
+      <c r="G93" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -3871,12 +4065,14 @@
       <c r="F94" s="2">
         <v>8</v>
       </c>
-      <c r="G94" s="2"/>
+      <c r="G94" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -3895,12 +4091,14 @@
       <c r="F95" s="2">
         <v>8</v>
       </c>
-      <c r="G95" s="2"/>
+      <c r="G95" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -3919,12 +4117,14 @@
       <c r="F96" s="2">
         <v>8</v>
       </c>
-      <c r="G96" s="2"/>
+      <c r="G96" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -3943,12 +4143,14 @@
       <c r="F97" s="2">
         <v>8</v>
       </c>
-      <c r="G97" s="2"/>
+      <c r="G97" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -3967,12 +4169,14 @@
       <c r="F98" s="2">
         <v>8</v>
       </c>
-      <c r="G98" s="2"/>
+      <c r="G98" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -3991,12 +4195,14 @@
       <c r="F99" s="2">
         <v>8</v>
       </c>
-      <c r="G99" s="2"/>
+      <c r="G99" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -4015,12 +4221,14 @@
       <c r="F100" s="2">
         <v>8</v>
       </c>
-      <c r="G100" s="2"/>
+      <c r="G100" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -4039,12 +4247,14 @@
       <c r="F101" s="2">
         <v>9</v>
       </c>
-      <c r="G101" s="2"/>
+      <c r="G101" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -4063,12 +4273,14 @@
       <c r="F102" s="2">
         <v>10</v>
       </c>
-      <c r="G102" s="2"/>
+      <c r="G102" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -4087,12 +4299,14 @@
       <c r="F103" s="2">
         <v>11</v>
       </c>
-      <c r="G103" s="2"/>
+      <c r="G103" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -4111,12 +4325,14 @@
       <c r="F104" s="2">
         <v>11</v>
       </c>
-      <c r="G104" s="2"/>
+      <c r="G104" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -4135,12 +4351,14 @@
       <c r="F105" s="2">
         <v>11</v>
       </c>
-      <c r="G105" s="2"/>
+      <c r="G105" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -4159,12 +4377,14 @@
       <c r="F106" s="2">
         <v>11</v>
       </c>
-      <c r="G106" s="2"/>
+      <c r="G106" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -4183,12 +4403,14 @@
       <c r="F107" s="2">
         <v>11</v>
       </c>
-      <c r="G107" s="2"/>
+      <c r="G107" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -4207,12 +4429,14 @@
       <c r="F108" s="2">
         <v>11</v>
       </c>
-      <c r="G108" s="2"/>
+      <c r="G108" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -4231,12 +4455,14 @@
       <c r="F109" s="2">
         <v>11</v>
       </c>
-      <c r="G109" s="2"/>
+      <c r="G109" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -4255,12 +4481,14 @@
       <c r="F110" s="2">
         <v>11</v>
       </c>
-      <c r="G110" s="2"/>
+      <c r="G110" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -4279,12 +4507,14 @@
       <c r="F111" s="2">
         <v>11</v>
       </c>
-      <c r="G111" s="2"/>
+      <c r="G111" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -4303,12 +4533,14 @@
       <c r="F112" s="2">
         <v>11</v>
       </c>
-      <c r="G112" s="2"/>
+      <c r="G112" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -4327,12 +4559,14 @@
       <c r="F113" s="2">
         <v>11</v>
       </c>
-      <c r="G113" s="2"/>
+      <c r="G113" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -4351,12 +4585,14 @@
       <c r="F114" s="2">
         <v>11</v>
       </c>
-      <c r="G114" s="2"/>
+      <c r="G114" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -4375,12 +4611,14 @@
       <c r="F115" s="2">
         <v>11</v>
       </c>
-      <c r="G115" s="2"/>
+      <c r="G115" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -4399,12 +4637,14 @@
       <c r="F116" s="2">
         <v>11</v>
       </c>
-      <c r="G116" s="2"/>
+      <c r="G116" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -4423,12 +4663,14 @@
       <c r="F117" s="2">
         <v>11</v>
       </c>
-      <c r="G117" s="2"/>
+      <c r="G117" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -4447,12 +4689,14 @@
       <c r="F118" s="2">
         <v>11</v>
       </c>
-      <c r="G118" s="2"/>
+      <c r="G118" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -4471,12 +4715,14 @@
       <c r="F119" s="2">
         <v>12</v>
       </c>
-      <c r="G119" s="2"/>
+      <c r="G119" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -4495,12 +4741,14 @@
       <c r="F120" s="2">
         <v>12</v>
       </c>
-      <c r="G120" s="2"/>
+      <c r="G120" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -4519,12 +4767,14 @@
       <c r="F121" s="2">
         <v>12</v>
       </c>
-      <c r="G121" s="2"/>
+      <c r="G121" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -4543,12 +4793,14 @@
       <c r="F122" s="2">
         <v>12</v>
       </c>
-      <c r="G122" s="2"/>
+      <c r="G122" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -4567,12 +4819,14 @@
       <c r="F123" s="2">
         <v>12</v>
       </c>
-      <c r="G123" s="2"/>
+      <c r="G123" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -4591,12 +4845,14 @@
       <c r="F124" s="2">
         <v>12</v>
       </c>
-      <c r="G124" s="2"/>
+      <c r="G124" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -4615,12 +4871,14 @@
       <c r="F125" s="2">
         <v>13</v>
       </c>
-      <c r="G125" s="2"/>
+      <c r="G125" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -4639,12 +4897,14 @@
       <c r="F126" s="2">
         <v>13</v>
       </c>
-      <c r="G126" s="2"/>
+      <c r="G126" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -4663,12 +4923,14 @@
       <c r="F127" s="2">
         <v>14</v>
       </c>
-      <c r="G127" s="2"/>
+      <c r="G127" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -4687,12 +4949,14 @@
       <c r="F128" s="2">
         <v>14</v>
       </c>
-      <c r="G128" s="2"/>
+      <c r="G128" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -4711,12 +4975,14 @@
       <c r="F129" s="2">
         <v>14</v>
       </c>
-      <c r="G129" s="2"/>
+      <c r="G129" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -4735,12 +5001,14 @@
       <c r="F130" s="2">
         <v>14</v>
       </c>
-      <c r="G130" s="2"/>
+      <c r="G130" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -4759,12 +5027,14 @@
       <c r="F131" s="2">
         <v>14</v>
       </c>
-      <c r="G131" s="2"/>
+      <c r="G131" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -4783,12 +5053,14 @@
       <c r="F132" s="2">
         <v>14</v>
       </c>
-      <c r="G132" s="2"/>
+      <c r="G132" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -4807,12 +5079,14 @@
       <c r="F133" s="2">
         <v>14</v>
       </c>
-      <c r="G133" s="2"/>
+      <c r="G133" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -4831,12 +5105,14 @@
       <c r="F134" s="2">
         <v>14</v>
       </c>
-      <c r="G134" s="2"/>
+      <c r="G134" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -4855,12 +5131,14 @@
       <c r="F135" s="2">
         <v>15</v>
       </c>
-      <c r="G135" s="2"/>
+      <c r="G135" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -4879,12 +5157,14 @@
       <c r="F136" s="2">
         <v>16</v>
       </c>
-      <c r="G136" s="2"/>
+      <c r="G136" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -4903,12 +5183,14 @@
       <c r="F137" s="2">
         <v>16</v>
       </c>
-      <c r="G137" s="2"/>
+      <c r="G137" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -4927,12 +5209,14 @@
       <c r="F138" s="2">
         <v>16</v>
       </c>
-      <c r="G138" s="2"/>
+      <c r="G138" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -4951,12 +5235,14 @@
       <c r="F139" s="2">
         <v>16</v>
       </c>
-      <c r="G139" s="2"/>
+      <c r="G139" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -4975,12 +5261,14 @@
       <c r="F140" s="2">
         <v>16</v>
       </c>
-      <c r="G140" s="2"/>
+      <c r="G140" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -4999,12 +5287,14 @@
       <c r="F141" s="2">
         <v>16</v>
       </c>
-      <c r="G141" s="2"/>
+      <c r="G141" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -5023,12 +5313,14 @@
       <c r="F142" s="2">
         <v>16</v>
       </c>
-      <c r="G142" s="2"/>
+      <c r="G142" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -5047,12 +5339,14 @@
       <c r="F143" s="2">
         <v>16</v>
       </c>
-      <c r="G143" s="2"/>
+      <c r="G143" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -5071,12 +5365,14 @@
       <c r="F144" s="2">
         <v>17</v>
       </c>
-      <c r="G144" s="2"/>
+      <c r="G144" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -5095,12 +5391,14 @@
       <c r="F145" s="2">
         <v>18</v>
       </c>
-      <c r="G145" s="2"/>
+      <c r="G145" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -5119,12 +5417,14 @@
       <c r="F146" s="2">
         <v>18</v>
       </c>
-      <c r="G146" s="2"/>
+      <c r="G146" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -5143,12 +5443,14 @@
       <c r="F147" s="2">
         <v>18</v>
       </c>
-      <c r="G147" s="2"/>
+      <c r="G147" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -5167,12 +5469,14 @@
       <c r="F148" s="2">
         <v>18</v>
       </c>
-      <c r="G148" s="2"/>
+      <c r="G148" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -5191,12 +5495,14 @@
       <c r="F149" s="2">
         <v>18</v>
       </c>
-      <c r="G149" s="2"/>
+      <c r="G149" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -5215,12 +5521,14 @@
       <c r="F150" s="2">
         <v>18</v>
       </c>
-      <c r="G150" s="2"/>
+      <c r="G150" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -5239,12 +5547,14 @@
       <c r="F151" s="2">
         <v>18</v>
       </c>
-      <c r="G151" s="2"/>
+      <c r="G151" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -5263,12 +5573,14 @@
       <c r="F152" s="2">
         <v>18</v>
       </c>
-      <c r="G152" s="2"/>
+      <c r="G152" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -5287,12 +5599,14 @@
       <c r="F153" s="2">
         <v>18</v>
       </c>
-      <c r="G153" s="2"/>
+      <c r="G153" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -5311,12 +5625,14 @@
       <c r="F154" s="2">
         <v>18</v>
       </c>
-      <c r="G154" s="2"/>
+      <c r="G154" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -5335,12 +5651,14 @@
       <c r="F155" s="2">
         <v>18</v>
       </c>
-      <c r="G155" s="2"/>
+      <c r="G155" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -5359,12 +5677,14 @@
       <c r="F156" s="2">
         <v>18</v>
       </c>
-      <c r="G156" s="2"/>
+      <c r="G156" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -5383,12 +5703,14 @@
       <c r="F157" s="2">
         <v>18</v>
       </c>
-      <c r="G157" s="2"/>
+      <c r="G157" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -5407,12 +5729,14 @@
       <c r="F158" s="2">
         <v>18</v>
       </c>
-      <c r="G158" s="2"/>
+      <c r="G158" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -5431,12 +5755,14 @@
       <c r="F159" s="2">
         <v>18</v>
       </c>
-      <c r="G159" s="2"/>
+      <c r="G159" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -5455,12 +5781,14 @@
       <c r="F160" s="2">
         <v>18</v>
       </c>
-      <c r="G160" s="2"/>
+      <c r="G160" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -5479,12 +5807,14 @@
       <c r="F161" s="2">
         <v>18</v>
       </c>
-      <c r="G161" s="2"/>
+      <c r="G161" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -5503,12 +5833,14 @@
       <c r="F162" s="2">
         <v>18</v>
       </c>
-      <c r="G162" s="2"/>
+      <c r="G162" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -5527,12 +5859,14 @@
       <c r="F163" s="2">
         <v>18</v>
       </c>
-      <c r="G163" s="2"/>
+      <c r="G163" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -5551,12 +5885,14 @@
       <c r="F164" s="2">
         <v>18</v>
       </c>
-      <c r="G164" s="2"/>
+      <c r="G164" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -5575,12 +5911,14 @@
       <c r="F165" s="2">
         <v>18</v>
       </c>
-      <c r="G165" s="2"/>
+      <c r="G165" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -5599,12 +5937,14 @@
       <c r="F166" s="2">
         <v>18</v>
       </c>
-      <c r="G166" s="2"/>
+      <c r="G166" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -5623,12 +5963,14 @@
       <c r="F167" s="2">
         <v>18</v>
       </c>
-      <c r="G167" s="2"/>
+      <c r="G167" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -5647,12 +5989,14 @@
       <c r="F168" s="2">
         <v>18</v>
       </c>
-      <c r="G168" s="2"/>
+      <c r="G168" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -5671,12 +6015,14 @@
       <c r="F169" s="2">
         <v>18</v>
       </c>
-      <c r="G169" s="2"/>
+      <c r="G169" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -5695,12 +6041,14 @@
       <c r="F170" s="2">
         <v>19</v>
       </c>
-      <c r="G170" s="2"/>
+      <c r="G170" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -5719,12 +6067,14 @@
       <c r="F171" s="2">
         <v>19</v>
       </c>
-      <c r="G171" s="2"/>
+      <c r="G171" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -5743,12 +6093,14 @@
       <c r="F172" s="2">
         <v>19</v>
       </c>
-      <c r="G172" s="2"/>
+      <c r="G172" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -5767,12 +6119,14 @@
       <c r="F173" s="2">
         <v>19</v>
       </c>
-      <c r="G173" s="2"/>
+      <c r="G173" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -5791,12 +6145,14 @@
       <c r="F174" s="2">
         <v>19</v>
       </c>
-      <c r="G174" s="2"/>
+      <c r="G174" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -5815,12 +6171,14 @@
       <c r="F175" s="2">
         <v>19</v>
       </c>
-      <c r="G175" s="2"/>
+      <c r="G175" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -5839,12 +6197,14 @@
       <c r="F176" s="2">
         <v>19</v>
       </c>
-      <c r="G176" s="2"/>
+      <c r="G176" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -5863,12 +6223,14 @@
       <c r="F177" s="2">
         <v>19</v>
       </c>
-      <c r="G177" s="2"/>
+      <c r="G177" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -5887,12 +6249,14 @@
       <c r="F178" s="2">
         <v>19</v>
       </c>
-      <c r="G178" s="2"/>
+      <c r="G178" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -5911,12 +6275,14 @@
       <c r="F179" s="2">
         <v>19</v>
       </c>
-      <c r="G179" s="2"/>
+      <c r="G179" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -5935,12 +6301,14 @@
       <c r="F180" s="2">
         <v>19</v>
       </c>
-      <c r="G180" s="2"/>
+      <c r="G180" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -5959,12 +6327,14 @@
       <c r="F181" s="2">
         <v>19</v>
       </c>
-      <c r="G181" s="2"/>
+      <c r="G181" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -5983,12 +6353,14 @@
       <c r="F182" s="2">
         <v>19</v>
       </c>
-      <c r="G182" s="2"/>
+      <c r="G182" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -6007,12 +6379,14 @@
       <c r="F183" s="2">
         <v>19</v>
       </c>
-      <c r="G183" s="2"/>
+      <c r="G183" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -6031,12 +6405,14 @@
       <c r="F184" s="2">
         <v>19</v>
       </c>
-      <c r="G184" s="2"/>
+      <c r="G184" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -6055,12 +6431,14 @@
       <c r="F185" s="2">
         <v>19</v>
       </c>
-      <c r="G185" s="2"/>
+      <c r="G185" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -6079,12 +6457,14 @@
       <c r="F186" s="2">
         <v>19</v>
       </c>
-      <c r="G186" s="2"/>
+      <c r="G186" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -6103,12 +6483,14 @@
       <c r="F187" s="2">
         <v>19</v>
       </c>
-      <c r="G187" s="2"/>
+      <c r="G187" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -6127,12 +6509,14 @@
       <c r="F188" s="2">
         <v>19</v>
       </c>
-      <c r="G188" s="2"/>
+      <c r="G188" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -6151,12 +6535,14 @@
       <c r="F189" s="2">
         <v>20</v>
       </c>
-      <c r="G189" s="2"/>
+      <c r="G189" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -6175,7 +6561,9 @@
       <c r="F190" s="2">
         <v>20</v>
       </c>
-      <c r="G190" s="2"/>
+      <c r="G190" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
@@ -6199,7 +6587,9 @@
       <c r="F191" s="2">
         <v>21</v>
       </c>
-      <c r="G191" s="2"/>
+      <c r="G191" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
@@ -6223,12 +6613,14 @@
       <c r="F192" s="2">
         <v>21</v>
       </c>
-      <c r="G192" s="2"/>
+      <c r="G192" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -6247,12 +6639,14 @@
       <c r="F193" s="2">
         <v>22</v>
       </c>
-      <c r="G193" s="2"/>
+      <c r="G193" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -6271,12 +6665,14 @@
       <c r="F194" s="2">
         <v>22</v>
       </c>
-      <c r="G194" s="2"/>
+      <c r="G194" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -6295,12 +6691,14 @@
       <c r="F195" s="2">
         <v>22</v>
       </c>
-      <c r="G195" s="2"/>
+      <c r="G195" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -6319,12 +6717,14 @@
       <c r="F196" s="2">
         <v>22</v>
       </c>
-      <c r="G196" s="2"/>
+      <c r="G196" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -6343,12 +6743,14 @@
       <c r="F197" s="2">
         <v>22</v>
       </c>
-      <c r="G197" s="2"/>
+      <c r="G197" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -6367,12 +6769,14 @@
       <c r="F198" s="2">
         <v>22</v>
       </c>
-      <c r="G198" s="2"/>
+      <c r="G198" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -6391,12 +6795,14 @@
       <c r="F199" s="2">
         <v>22</v>
       </c>
-      <c r="G199" s="2"/>
+      <c r="G199" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -6415,12 +6821,14 @@
       <c r="F200" s="2">
         <v>22</v>
       </c>
-      <c r="G200" s="2"/>
+      <c r="G200" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -6439,12 +6847,14 @@
       <c r="F201" s="2">
         <v>22</v>
       </c>
-      <c r="G201" s="2"/>
+      <c r="G201" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -6463,12 +6873,14 @@
       <c r="F202" s="2">
         <v>22</v>
       </c>
-      <c r="G202" s="2"/>
+      <c r="G202" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -6487,12 +6899,14 @@
       <c r="F203" s="2">
         <v>22</v>
       </c>
-      <c r="G203" s="2"/>
+      <c r="G203" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -6511,12 +6925,14 @@
       <c r="F204" s="2">
         <v>22</v>
       </c>
-      <c r="G204" s="2"/>
+      <c r="G204" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -6535,12 +6951,14 @@
       <c r="F205" s="2">
         <v>22</v>
       </c>
-      <c r="G205" s="2"/>
+      <c r="G205" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -6559,12 +6977,14 @@
       <c r="F206" s="2">
         <v>22</v>
       </c>
-      <c r="G206" s="2"/>
+      <c r="G206" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -6583,12 +7003,14 @@
       <c r="F207" s="2">
         <v>22</v>
       </c>
-      <c r="G207" s="2"/>
+      <c r="G207" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -6607,12 +7029,14 @@
       <c r="F208" s="2">
         <v>22</v>
       </c>
-      <c r="G208" s="2"/>
+      <c r="G208" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -6631,12 +7055,14 @@
       <c r="F209" s="2">
         <v>22</v>
       </c>
-      <c r="G209" s="2"/>
+      <c r="G209" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -6655,12 +7081,14 @@
       <c r="F210" s="2">
         <v>22</v>
       </c>
-      <c r="G210" s="2"/>
+      <c r="G210" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -6679,12 +7107,14 @@
       <c r="F211" s="2">
         <v>22</v>
       </c>
-      <c r="G211" s="2"/>
+      <c r="G211" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -6703,12 +7133,14 @@
       <c r="F212" s="2">
         <v>22</v>
       </c>
-      <c r="G212" s="2"/>
+      <c r="G212" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -6727,12 +7159,14 @@
       <c r="F213" s="2">
         <v>22</v>
       </c>
-      <c r="G213" s="2"/>
+      <c r="G213" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -6751,12 +7185,14 @@
       <c r="F214" s="2">
         <v>22</v>
       </c>
-      <c r="G214" s="2"/>
+      <c r="G214" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -6775,14 +7211,14 @@
       <c r="F215" s="2">
         <v>23</v>
       </c>
-      <c r="G215" s="2" t="s">
-        <v>24</v>
+      <c r="G215" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -6801,14 +7237,14 @@
       <c r="F216" s="2">
         <v>23</v>
       </c>
-      <c r="G216" s="2" t="s">
-        <v>25</v>
+      <c r="G216" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -6827,14 +7263,14 @@
       <c r="F217" s="2">
         <v>23</v>
       </c>
-      <c r="G217" s="2" t="s">
-        <v>26</v>
+      <c r="G217" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -6853,14 +7289,14 @@
       <c r="F218" s="2">
         <v>23</v>
       </c>
-      <c r="G218" s="2" t="s">
-        <v>27</v>
+      <c r="G218" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -6879,14 +7315,14 @@
       <c r="F219" s="2">
         <v>23</v>
       </c>
-      <c r="G219" s="2" t="s">
-        <v>28</v>
+      <c r="G219" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -6905,14 +7341,14 @@
       <c r="F220" s="2">
         <v>23</v>
       </c>
-      <c r="G220" s="2" t="s">
-        <v>29</v>
+      <c r="G220" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -6931,14 +7367,14 @@
       <c r="F221" s="2">
         <v>23</v>
       </c>
-      <c r="G221" s="2" t="s">
-        <v>30</v>
+      <c r="G221" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -6957,14 +7393,14 @@
       <c r="F222" s="2">
         <v>23</v>
       </c>
-      <c r="G222" s="2" t="s">
-        <v>31</v>
+      <c r="G222" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -6983,14 +7419,14 @@
       <c r="F223" s="2">
         <v>23</v>
       </c>
-      <c r="G223" s="2" t="s">
-        <v>32</v>
+      <c r="G223" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -7009,14 +7445,14 @@
       <c r="F224" s="2">
         <v>23</v>
       </c>
-      <c r="G224" s="2" t="s">
-        <v>33</v>
+      <c r="G224" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -7035,14 +7471,14 @@
       <c r="F225" s="2">
         <v>23</v>
       </c>
-      <c r="G225" s="2" t="s">
-        <v>34</v>
+      <c r="G225" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -7061,14 +7497,14 @@
       <c r="F226" s="2">
         <v>23</v>
       </c>
-      <c r="G226" s="2" t="s">
-        <v>35</v>
+      <c r="G226" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -7087,14 +7523,14 @@
       <c r="F227" s="2">
         <v>23</v>
       </c>
-      <c r="G227" s="2" t="s">
-        <v>36</v>
+      <c r="G227" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
       <c r="J227" s="2"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -7113,14 +7549,14 @@
       <c r="F228" s="2">
         <v>23</v>
       </c>
-      <c r="G228" s="2" t="s">
-        <v>37</v>
+      <c r="G228" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -7139,14 +7575,14 @@
       <c r="F229" s="2">
         <v>23</v>
       </c>
-      <c r="G229" s="2" t="s">
-        <v>38</v>
+      <c r="G229" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -7165,14 +7601,14 @@
       <c r="F230" s="2">
         <v>23</v>
       </c>
-      <c r="G230" s="2" t="s">
-        <v>39</v>
+      <c r="G230" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -7191,14 +7627,14 @@
       <c r="F231" s="2">
         <v>24</v>
       </c>
-      <c r="G231" s="2" t="s">
-        <v>40</v>
+      <c r="G231" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -7217,14 +7653,14 @@
       <c r="F232" s="2">
         <v>24</v>
       </c>
-      <c r="G232" s="2" t="s">
-        <v>41</v>
+      <c r="G232" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -7243,14 +7679,14 @@
       <c r="F233" s="2">
         <v>25</v>
       </c>
-      <c r="G233" s="2" t="s">
-        <v>42</v>
+      <c r="G233" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -7269,14 +7705,14 @@
       <c r="F234" s="2">
         <v>25</v>
       </c>
-      <c r="G234" s="2" t="s">
-        <v>43</v>
+      <c r="G234" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -7295,14 +7731,14 @@
       <c r="F235" s="2">
         <v>25</v>
       </c>
-      <c r="G235" s="2" t="s">
-        <v>44</v>
+      <c r="G235" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -7321,14 +7757,14 @@
       <c r="F236" s="2">
         <v>25</v>
       </c>
-      <c r="G236" s="2" t="s">
-        <v>45</v>
+      <c r="G236" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -7347,14 +7783,14 @@
       <c r="F237" s="2">
         <v>25</v>
       </c>
-      <c r="G237" s="2" t="s">
-        <v>46</v>
+      <c r="G237" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
       <c r="J237" s="2"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -7373,14 +7809,14 @@
       <c r="F238" s="2">
         <v>25</v>
       </c>
-      <c r="G238" s="2" t="s">
-        <v>47</v>
+      <c r="G238" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -7399,14 +7835,14 @@
       <c r="F239" s="2">
         <v>25</v>
       </c>
-      <c r="G239" s="2" t="s">
-        <v>48</v>
+      <c r="G239" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
       <c r="J239" s="2"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -7425,14 +7861,14 @@
       <c r="F240" s="2">
         <v>25</v>
       </c>
-      <c r="G240" s="2" t="s">
-        <v>49</v>
+      <c r="G240" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
       <c r="J240" s="2"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -7451,14 +7887,14 @@
       <c r="F241" s="2">
         <v>25</v>
       </c>
-      <c r="G241" s="2" t="s">
-        <v>50</v>
+      <c r="G241" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
       <c r="J241" s="2"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -7477,14 +7913,14 @@
       <c r="F242" s="2">
         <v>26</v>
       </c>
-      <c r="G242" s="2" t="s">
-        <v>51</v>
+      <c r="G242" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
       <c r="J242" s="2"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -7503,14 +7939,14 @@
       <c r="F243" s="2">
         <v>26</v>
       </c>
-      <c r="G243" s="2" t="s">
-        <v>52</v>
+      <c r="G243" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
       <c r="J243" s="2"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -7529,14 +7965,14 @@
       <c r="F244" s="2">
         <v>26</v>
       </c>
-      <c r="G244" s="2" t="s">
-        <v>53</v>
+      <c r="G244" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
       <c r="J244" s="2"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -7555,14 +7991,14 @@
       <c r="F245" s="2">
         <v>26</v>
       </c>
-      <c r="G245" s="2" t="s">
-        <v>54</v>
+      <c r="G245" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
       <c r="J245" s="2"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -7581,14 +8017,14 @@
       <c r="F246" s="2">
         <v>26</v>
       </c>
-      <c r="G246" s="2" t="s">
-        <v>55</v>
+      <c r="G246" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
       <c r="J246" s="2"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -7607,14 +8043,14 @@
       <c r="F247" s="2">
         <v>26</v>
       </c>
-      <c r="G247" s="2" t="s">
-        <v>56</v>
+      <c r="G247" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="H247" s="2"/>
       <c r="I247" s="2"/>
       <c r="J247" s="2"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -7633,14 +8069,14 @@
       <c r="F248" s="2">
         <v>26</v>
       </c>
-      <c r="G248" s="2" t="s">
-        <v>57</v>
+      <c r="G248" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="H248" s="2"/>
       <c r="I248" s="2"/>
       <c r="J248" s="2"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -7659,14 +8095,14 @@
       <c r="F249" s="2">
         <v>26</v>
       </c>
-      <c r="G249" s="2" t="s">
-        <v>58</v>
+      <c r="G249" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="H249" s="2"/>
       <c r="I249" s="2"/>
       <c r="J249" s="2"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -7685,14 +8121,14 @@
       <c r="F250" s="2">
         <v>26</v>
       </c>
-      <c r="G250" s="2" t="s">
-        <v>59</v>
+      <c r="G250" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
       <c r="J250" s="2"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -7711,14 +8147,14 @@
       <c r="F251" s="2">
         <v>26</v>
       </c>
-      <c r="G251" s="2" t="s">
-        <v>60</v>
+      <c r="G251" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="H251" s="2"/>
       <c r="I251" s="2"/>
       <c r="J251" s="2"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -7737,14 +8173,14 @@
       <c r="F252" s="2">
         <v>26</v>
       </c>
-      <c r="G252" s="2" t="s">
-        <v>61</v>
+      <c r="G252" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="H252" s="2"/>
       <c r="I252" s="2"/>
       <c r="J252" s="2"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -7763,14 +8199,14 @@
       <c r="F253" s="2">
         <v>26</v>
       </c>
-      <c r="G253" s="2" t="s">
-        <v>62</v>
+      <c r="G253" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="H253" s="2"/>
       <c r="I253" s="2"/>
       <c r="J253" s="2"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -7789,14 +8225,14 @@
       <c r="F254" s="2">
         <v>26</v>
       </c>
-      <c r="G254" s="2" t="s">
-        <v>63</v>
+      <c r="G254" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="H254" s="2"/>
       <c r="I254" s="2"/>
       <c r="J254" s="2"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -7815,14 +8251,14 @@
       <c r="F255" s="2">
         <v>26</v>
       </c>
-      <c r="G255" s="2" t="s">
-        <v>64</v>
+      <c r="G255" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="H255" s="2"/>
       <c r="I255" s="2"/>
       <c r="J255" s="2"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -7841,14 +8277,14 @@
       <c r="F256" s="2">
         <v>26</v>
       </c>
-      <c r="G256" s="2" t="s">
-        <v>65</v>
+      <c r="G256" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="H256" s="2"/>
       <c r="I256" s="2"/>
       <c r="J256" s="2"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -7867,14 +8303,14 @@
       <c r="F257" s="2">
         <v>26</v>
       </c>
-      <c r="G257" s="2" t="s">
-        <v>66</v>
+      <c r="G257" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="H257" s="2"/>
       <c r="I257" s="2"/>
       <c r="J257" s="2"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -7893,14 +8329,14 @@
       <c r="F258" s="2">
         <v>26</v>
       </c>
-      <c r="G258" s="2" t="s">
-        <v>67</v>
+      <c r="G258" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
       <c r="J258" s="2"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -7919,14 +8355,14 @@
       <c r="F259" s="2">
         <v>26</v>
       </c>
-      <c r="G259" s="2" t="s">
-        <v>68</v>
+      <c r="G259" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -7945,14 +8381,14 @@
       <c r="F260" s="2">
         <v>26</v>
       </c>
-      <c r="G260" s="2" t="s">
-        <v>69</v>
+      <c r="G260" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="H260" s="2"/>
       <c r="I260" s="2"/>
       <c r="J260" s="2"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -7971,14 +8407,14 @@
       <c r="F261" s="2">
         <v>26</v>
       </c>
-      <c r="G261" s="2" t="s">
-        <v>70</v>
+      <c r="G261" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="H261" s="2"/>
       <c r="I261" s="2"/>
       <c r="J261" s="2"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -7997,14 +8433,14 @@
       <c r="F262" s="2">
         <v>26</v>
       </c>
-      <c r="G262" s="2" t="s">
-        <v>71</v>
+      <c r="G262" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="H262" s="2"/>
       <c r="I262" s="2"/>
       <c r="J262" s="2"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -8023,14 +8459,14 @@
       <c r="F263" s="2">
         <v>26</v>
       </c>
-      <c r="G263" s="2" t="s">
-        <v>72</v>
+      <c r="G263" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
       <c r="J263" s="2"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -8049,14 +8485,14 @@
       <c r="F264" s="2">
         <v>26</v>
       </c>
-      <c r="G264" s="2" t="s">
-        <v>73</v>
+      <c r="G264" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
       <c r="J264" s="2"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -8075,14 +8511,14 @@
       <c r="F265" s="2">
         <v>26</v>
       </c>
-      <c r="G265" s="2" t="s">
-        <v>74</v>
+      <c r="G265" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="H265" s="2"/>
       <c r="I265" s="2"/>
       <c r="J265" s="2"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -8101,14 +8537,14 @@
       <c r="F266" s="2">
         <v>26</v>
       </c>
-      <c r="G266" s="2" t="s">
-        <v>75</v>
+      <c r="G266" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="H266" s="2"/>
       <c r="I266" s="2"/>
       <c r="J266" s="2"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -8127,14 +8563,14 @@
       <c r="F267" s="2">
         <v>26</v>
       </c>
-      <c r="G267" s="2" t="s">
-        <v>76</v>
+      <c r="G267" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="H267" s="2"/>
       <c r="I267" s="2"/>
       <c r="J267" s="2"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -8153,14 +8589,14 @@
       <c r="F268" s="2">
         <v>26</v>
       </c>
-      <c r="G268" s="2" t="s">
-        <v>77</v>
+      <c r="G268" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="H268" s="2"/>
       <c r="I268" s="2"/>
       <c r="J268" s="2"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -8179,14 +8615,14 @@
       <c r="F269" s="2">
         <v>26</v>
       </c>
-      <c r="G269" s="2" t="s">
-        <v>78</v>
+      <c r="G269" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="H269" s="2"/>
       <c r="I269" s="2"/>
       <c r="J269" s="2"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -8205,14 +8641,14 @@
       <c r="F270" s="2">
         <v>26</v>
       </c>
-      <c r="G270" s="2" t="s">
-        <v>79</v>
+      <c r="G270" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="H270" s="2"/>
       <c r="I270" s="2"/>
       <c r="J270" s="2"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -8231,14 +8667,14 @@
       <c r="F271" s="2">
         <v>26</v>
       </c>
-      <c r="G271" s="2" t="s">
-        <v>80</v>
+      <c r="G271" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
       <c r="J271" s="2"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -8257,14 +8693,14 @@
       <c r="F272" s="2">
         <v>26</v>
       </c>
-      <c r="G272" s="2" t="s">
-        <v>81</v>
+      <c r="G272" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
       <c r="J272" s="2"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -8283,14 +8719,14 @@
       <c r="F273" s="2">
         <v>27</v>
       </c>
-      <c r="G273" s="2" t="s">
-        <v>82</v>
+      <c r="G273" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="H273" s="2"/>
       <c r="I273" s="2"/>
       <c r="J273" s="2"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -8309,14 +8745,14 @@
       <c r="F274" s="2">
         <v>27</v>
       </c>
-      <c r="G274" s="2" t="s">
-        <v>83</v>
+      <c r="G274" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="H274" s="2"/>
       <c r="I274" s="2"/>
       <c r="J274" s="2"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -8335,14 +8771,14 @@
       <c r="F275" s="2">
         <v>27</v>
       </c>
-      <c r="G275" s="2" t="s">
-        <v>84</v>
+      <c r="G275" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="H275" s="2"/>
       <c r="I275" s="2"/>
       <c r="J275" s="2"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -8361,14 +8797,14 @@
       <c r="F276" s="2">
         <v>27</v>
       </c>
-      <c r="G276" s="2" t="s">
-        <v>85</v>
+      <c r="G276" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="H276" s="2"/>
       <c r="I276" s="2"/>
       <c r="J276" s="2"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -8387,14 +8823,14 @@
       <c r="F277" s="2">
         <v>27</v>
       </c>
-      <c r="G277" s="2" t="s">
-        <v>86</v>
+      <c r="G277" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
       <c r="J277" s="2"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -8413,14 +8849,14 @@
       <c r="F278" s="2">
         <v>27</v>
       </c>
-      <c r="G278" s="2" t="s">
-        <v>87</v>
+      <c r="G278" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
       <c r="J278" s="2"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -8439,14 +8875,14 @@
       <c r="F279" s="2">
         <v>27</v>
       </c>
-      <c r="G279" s="2" t="s">
-        <v>88</v>
+      <c r="G279" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
       <c r="J279" s="2"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -8465,14 +8901,14 @@
       <c r="F280" s="2">
         <v>27</v>
       </c>
-      <c r="G280" s="2" t="s">
-        <v>89</v>
+      <c r="G280" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
       <c r="J280" s="2"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -8491,14 +8927,14 @@
       <c r="F281" s="2">
         <v>27</v>
       </c>
-      <c r="G281" s="2" t="s">
-        <v>90</v>
+      <c r="G281" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="H281" s="2"/>
       <c r="I281" s="2"/>
       <c r="J281" s="2"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -8517,14 +8953,14 @@
       <c r="F282" s="2">
         <v>27</v>
       </c>
-      <c r="G282" s="2" t="s">
-        <v>91</v>
+      <c r="G282" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="H282" s="2"/>
       <c r="I282" s="2"/>
       <c r="J282" s="2"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -8543,14 +8979,14 @@
       <c r="F283" s="2">
         <v>27</v>
       </c>
-      <c r="G283" s="2" t="s">
-        <v>92</v>
+      <c r="G283" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
       <c r="J283" s="2"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -8569,14 +9005,14 @@
       <c r="F284" s="2">
         <v>27</v>
       </c>
-      <c r="G284" s="2" t="s">
-        <v>93</v>
+      <c r="G284" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="H284" s="2"/>
       <c r="I284" s="2"/>
       <c r="J284" s="2"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -8595,14 +9031,14 @@
       <c r="F285" s="2">
         <v>27</v>
       </c>
-      <c r="G285" s="2" t="s">
-        <v>94</v>
+      <c r="G285" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="H285" s="2"/>
       <c r="I285" s="2"/>
       <c r="J285" s="2"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -8621,14 +9057,14 @@
       <c r="F286" s="2">
         <v>27</v>
       </c>
-      <c r="G286" s="2" t="s">
-        <v>95</v>
+      <c r="G286" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="H286" s="2"/>
       <c r="I286" s="2"/>
       <c r="J286" s="2"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -8647,14 +9083,14 @@
       <c r="F287" s="2">
         <v>28</v>
       </c>
-      <c r="G287" s="2" t="s">
-        <v>96</v>
+      <c r="G287" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
       <c r="J287" s="2"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -8673,8 +9109,8 @@
       <c r="F288" s="2">
         <v>28</v>
       </c>
-      <c r="G288" s="2" t="s">
-        <v>97</v>
+      <c r="G288" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="H288" s="2"/>
       <c r="I288" s="2"/>
@@ -8699,8 +9135,8 @@
       <c r="F289" s="2">
         <v>29</v>
       </c>
-      <c r="G289" s="2" t="s">
-        <v>98</v>
+      <c r="G289" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="H289" s="2"/>
       <c r="I289" s="2"/>
@@ -8725,8 +9161,8 @@
       <c r="F290" s="2">
         <v>29</v>
       </c>
-      <c r="G290" s="2" t="s">
-        <v>99</v>
+      <c r="G290" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="H290" s="2"/>
       <c r="I290" s="2"/>
@@ -8751,8 +9187,8 @@
       <c r="F291" s="2">
         <v>29</v>
       </c>
-      <c r="G291" s="2" t="s">
-        <v>100</v>
+      <c r="G291" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="H291" s="2"/>
       <c r="I291" s="2"/>
@@ -8777,8 +9213,8 @@
       <c r="F292" s="2">
         <v>29</v>
       </c>
-      <c r="G292" s="2" t="s">
-        <v>101</v>
+      <c r="G292" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="H292" s="2"/>
       <c r="I292" s="2"/>
@@ -8803,8 +9239,8 @@
       <c r="F293" s="2">
         <v>29</v>
       </c>
-      <c r="G293" s="2" t="s">
-        <v>102</v>
+      <c r="G293" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="H293" s="2"/>
       <c r="I293" s="2"/>
@@ -8829,8 +9265,8 @@
       <c r="F294" s="2">
         <v>29</v>
       </c>
-      <c r="G294" s="2" t="s">
-        <v>103</v>
+      <c r="G294" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="H294" s="2"/>
       <c r="I294" s="2"/>
@@ -8855,8 +9291,8 @@
       <c r="F295" s="2">
         <v>29</v>
       </c>
-      <c r="G295" s="2" t="s">
-        <v>104</v>
+      <c r="G295" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
@@ -8881,8 +9317,8 @@
       <c r="F296" s="2">
         <v>29</v>
       </c>
-      <c r="G296" s="2" t="s">
-        <v>105</v>
+      <c r="G296" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
@@ -8907,8 +9343,8 @@
       <c r="F297" s="2">
         <v>29</v>
       </c>
-      <c r="G297" s="2" t="s">
-        <v>106</v>
+      <c r="G297" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
@@ -8933,8 +9369,8 @@
       <c r="F298" s="2">
         <v>29</v>
       </c>
-      <c r="G298" s="2" t="s">
-        <v>107</v>
+      <c r="G298" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="H298" s="2"/>
       <c r="I298" s="2"/>
@@ -8959,8 +9395,8 @@
       <c r="F299" s="2">
         <v>29</v>
       </c>
-      <c r="G299" s="2" t="s">
-        <v>108</v>
+      <c r="G299" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
@@ -8985,8 +9421,8 @@
       <c r="F300" s="2">
         <v>29</v>
       </c>
-      <c r="G300" s="2" t="s">
-        <v>109</v>
+      <c r="G300" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="H300" s="2"/>
       <c r="I300" s="2"/>
@@ -9011,8 +9447,8 @@
       <c r="F301" s="2">
         <v>29</v>
       </c>
-      <c r="G301" s="2" t="s">
-        <v>110</v>
+      <c r="G301" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="H301" s="2"/>
       <c r="I301" s="2"/>
@@ -9037,8 +9473,8 @@
       <c r="F302" s="2">
         <v>29</v>
       </c>
-      <c r="G302" s="2" t="s">
-        <v>111</v>
+      <c r="G302" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="H302" s="2"/>
       <c r="I302" s="2"/>
@@ -9063,8 +9499,8 @@
       <c r="F303" s="2">
         <v>30</v>
       </c>
-      <c r="G303" s="2" t="s">
-        <v>112</v>
+      <c r="G303" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="H303" s="2"/>
       <c r="I303" s="2"/>
@@ -9089,8 +9525,8 @@
       <c r="F304" s="2">
         <v>30</v>
       </c>
-      <c r="G304" s="2" t="s">
-        <v>113</v>
+      <c r="G304" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="H304" s="2"/>
       <c r="I304" s="2"/>
@@ -9115,8 +9551,8 @@
       <c r="F305" s="2">
         <v>30</v>
       </c>
-      <c r="G305" s="2" t="s">
-        <v>114</v>
+      <c r="G305" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="H305" s="2"/>
       <c r="I305" s="2"/>
@@ -9141,8 +9577,8 @@
       <c r="F306" s="2">
         <v>30</v>
       </c>
-      <c r="G306" s="2" t="s">
-        <v>115</v>
+      <c r="G306" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="H306" s="2"/>
       <c r="I306" s="2"/>
@@ -9167,8 +9603,8 @@
       <c r="F307" s="2">
         <v>30</v>
       </c>
-      <c r="G307" s="2" t="s">
-        <v>116</v>
+      <c r="G307" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="H307" s="2"/>
       <c r="I307" s="2"/>
@@ -9193,8 +9629,8 @@
       <c r="F308" s="2">
         <v>30</v>
       </c>
-      <c r="G308" s="2" t="s">
-        <v>117</v>
+      <c r="G308" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="H308" s="2"/>
       <c r="I308" s="2"/>
@@ -9219,8 +9655,8 @@
       <c r="F309" s="2">
         <v>30</v>
       </c>
-      <c r="G309" s="2" t="s">
-        <v>118</v>
+      <c r="G309" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="H309" s="2"/>
       <c r="I309" s="2"/>
@@ -9245,8 +9681,8 @@
       <c r="F310" s="2">
         <v>30</v>
       </c>
-      <c r="G310" s="2" t="s">
-        <v>119</v>
+      <c r="G310" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="H310" s="2"/>
       <c r="I310" s="2"/>
@@ -9271,8 +9707,8 @@
       <c r="F311" s="2">
         <v>31</v>
       </c>
-      <c r="G311" s="2" t="s">
-        <v>120</v>
+      <c r="G311" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="H311" s="2"/>
       <c r="I311" s="2"/>
@@ -9297,8 +9733,8 @@
       <c r="F312" s="2">
         <v>31</v>
       </c>
-      <c r="G312" s="2" t="s">
-        <v>121</v>
+      <c r="G312" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
@@ -9323,8 +9759,8 @@
       <c r="F313" s="2">
         <v>31</v>
       </c>
-      <c r="G313" s="2" t="s">
-        <v>122</v>
+      <c r="G313" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
@@ -9349,14 +9785,14 @@
       <c r="F314" s="2">
         <v>31</v>
       </c>
-      <c r="G314" s="2" t="s">
-        <v>123</v>
+      <c r="G314" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="H314" s="2"/>
       <c r="I314" s="2"/>
       <c r="J314" s="2"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -9375,14 +9811,14 @@
       <c r="F315" s="2">
         <v>32</v>
       </c>
-      <c r="G315" s="2" t="s">
-        <v>124</v>
+      <c r="G315" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="H315" s="2"/>
       <c r="I315" s="2"/>
       <c r="J315" s="2"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -9401,14 +9837,14 @@
       <c r="F316" s="2">
         <v>32</v>
       </c>
-      <c r="G316" s="2" t="s">
-        <v>125</v>
+      <c r="G316" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="H316" s="2"/>
       <c r="I316" s="2"/>
       <c r="J316" s="2"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -9427,14 +9863,14 @@
       <c r="F317" s="2">
         <v>32</v>
       </c>
-      <c r="G317" s="2" t="s">
-        <v>126</v>
+      <c r="G317" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
       <c r="J317" s="2"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -9453,14 +9889,14 @@
       <c r="F318" s="2">
         <v>32</v>
       </c>
-      <c r="G318" s="2" t="s">
-        <v>127</v>
+      <c r="G318" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
       <c r="J318" s="2"/>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -9479,14 +9915,14 @@
       <c r="F319" s="2">
         <v>33</v>
       </c>
-      <c r="G319" s="2" t="s">
-        <v>128</v>
+      <c r="G319" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
       <c r="J319" s="2"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -9505,14 +9941,14 @@
       <c r="F320" s="2">
         <v>33</v>
       </c>
-      <c r="G320" s="2" t="s">
-        <v>129</v>
+      <c r="G320" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="H320" s="2"/>
       <c r="I320" s="2"/>
       <c r="J320" s="2"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -9531,14 +9967,14 @@
       <c r="F321" s="2">
         <v>33</v>
       </c>
-      <c r="G321" s="2" t="s">
-        <v>130</v>
+      <c r="G321" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
       <c r="J321" s="2"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -9557,14 +9993,14 @@
       <c r="F322" s="2">
         <v>33</v>
       </c>
-      <c r="G322" s="2" t="s">
-        <v>131</v>
+      <c r="G322" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="H322" s="2"/>
       <c r="I322" s="2"/>
       <c r="J322" s="2"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -9583,14 +10019,14 @@
       <c r="F323" s="2">
         <v>33</v>
       </c>
-      <c r="G323" s="2" t="s">
-        <v>132</v>
+      <c r="G323" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="H323" s="2"/>
       <c r="I323" s="2"/>
       <c r="J323" s="2"/>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -9609,14 +10045,14 @@
       <c r="F324" s="2">
         <v>33</v>
       </c>
-      <c r="G324" s="2" t="s">
-        <v>133</v>
+      <c r="G324" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="H324" s="2"/>
       <c r="I324" s="2"/>
       <c r="J324" s="2"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -9635,8 +10071,8 @@
       <c r="F325" s="2">
         <v>34</v>
       </c>
-      <c r="G325" s="2" t="s">
-        <v>134</v>
+      <c r="G325" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
@@ -9649,9 +10085,7 @@
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
-      <c r="G326" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="G326" s="3"/>
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
       <c r="J326" s="2"/>
@@ -9663,9 +10097,7 @@
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
-      <c r="G327" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="G327" s="3"/>
       <c r="H327" s="2"/>
       <c r="I327" s="2"/>
       <c r="J327" s="2"/>
@@ -9677,9 +10109,7 @@
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
-      <c r="G328" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="G328" s="3"/>
       <c r="H328" s="2"/>
       <c r="I328" s="2"/>
       <c r="J328" s="2"/>
@@ -9691,9 +10121,7 @@
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
-      <c r="G329" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="G329" s="3"/>
       <c r="H329" s="2"/>
       <c r="I329" s="2"/>
       <c r="J329" s="2"/>
@@ -9705,9 +10133,7 @@
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
-      <c r="G330" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="G330" s="3"/>
       <c r="H330" s="2"/>
       <c r="I330" s="2"/>
       <c r="J330" s="2"/>
@@ -9719,9 +10145,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
-      <c r="G331" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="G331" s="3"/>
       <c r="H331" s="2"/>
       <c r="I331" s="2"/>
       <c r="J331" s="2"/>
@@ -9733,9 +10157,7 @@
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
-      <c r="G332" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="G332" s="3"/>
       <c r="H332" s="2"/>
       <c r="I332" s="2"/>
       <c r="J332" s="2"/>
@@ -9747,9 +10169,7 @@
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
-      <c r="G333" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="G333" s="3"/>
       <c r="H333" s="2"/>
       <c r="I333" s="2"/>
       <c r="J333" s="2"/>
@@ -9761,9 +10181,7 @@
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
-      <c r="G334" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="G334" s="3"/>
       <c r="H334" s="2"/>
       <c r="I334" s="2"/>
       <c r="J334" s="2"/>
@@ -9775,9 +10193,7 @@
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
-      <c r="G335" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="G335" s="3"/>
       <c r="H335" s="2"/>
       <c r="I335" s="2"/>
       <c r="J335" s="2"/>
@@ -9789,9 +10205,7 @@
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
-      <c r="G336" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="G336" s="3"/>
       <c r="H336" s="2"/>
       <c r="I336" s="2"/>
       <c r="J336" s="2"/>
@@ -9803,9 +10217,7 @@
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
-      <c r="G337" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="G337" s="3"/>
       <c r="H337" s="2"/>
       <c r="I337" s="2"/>
       <c r="J337" s="2"/>
@@ -9817,9 +10229,7 @@
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
-      <c r="G338" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="G338" s="3"/>
       <c r="H338" s="2"/>
       <c r="I338" s="2"/>
       <c r="J338" s="2"/>
@@ -9831,9 +10241,7 @@
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
-      <c r="G339" s="2" t="s">
-        <v>148</v>
-      </c>
+      <c r="G339" s="3"/>
       <c r="H339" s="2"/>
       <c r="I339" s="2"/>
       <c r="J339" s="2"/>
@@ -9845,9 +10253,7 @@
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
-      <c r="G340" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="G340" s="3"/>
       <c r="H340" s="2"/>
       <c r="I340" s="2"/>
       <c r="J340" s="2"/>
@@ -9859,9 +10265,7 @@
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
-      <c r="G341" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="G341" s="3"/>
       <c r="H341" s="2"/>
       <c r="I341" s="2"/>
       <c r="J341" s="2"/>
@@ -9873,9 +10277,7 @@
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
-      <c r="G342" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="G342" s="3"/>
       <c r="H342" s="2"/>
       <c r="I342" s="2"/>
       <c r="J342" s="2"/>
@@ -9887,9 +10289,7 @@
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
-      <c r="G343" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="G343" s="3"/>
       <c r="H343" s="2"/>
       <c r="I343" s="2"/>
       <c r="J343" s="2"/>
@@ -9901,9 +10301,7 @@
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
-      <c r="G344" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="G344" s="3"/>
       <c r="H344" s="2"/>
       <c r="I344" s="2"/>
       <c r="J344" s="2"/>
@@ -9915,9 +10313,7 @@
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
-      <c r="G345" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="G345" s="3"/>
       <c r="H345" s="2"/>
       <c r="I345" s="2"/>
       <c r="J345" s="2"/>
@@ -9929,9 +10325,7 @@
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
-      <c r="G346" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="G346" s="3"/>
       <c r="H346" s="2"/>
       <c r="I346" s="2"/>
       <c r="J346" s="2"/>
@@ -9943,9 +10337,7 @@
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
-      <c r="G347" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="G347" s="3"/>
       <c r="H347" s="2"/>
       <c r="I347" s="2"/>
       <c r="J347" s="2"/>
@@ -9957,9 +10349,7 @@
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
-      <c r="G348" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="G348" s="3"/>
       <c r="H348" s="2"/>
       <c r="I348" s="2"/>
       <c r="J348" s="2"/>
@@ -9971,9 +10361,7 @@
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
-      <c r="G349" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="G349" s="3"/>
       <c r="H349" s="2"/>
       <c r="I349" s="2"/>
       <c r="J349" s="2"/>
@@ -9985,9 +10373,7 @@
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
-      <c r="G350" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="G350" s="3"/>
       <c r="H350" s="2"/>
       <c r="I350" s="2"/>
       <c r="J350" s="2"/>
@@ -9999,9 +10385,7 @@
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
-      <c r="G351" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="G351" s="3"/>
       <c r="H351" s="2"/>
       <c r="I351" s="2"/>
       <c r="J351" s="2"/>
@@ -10013,9 +10397,7 @@
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
-      <c r="G352" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="G352" s="3"/>
       <c r="H352" s="2"/>
       <c r="I352" s="2"/>
       <c r="J352" s="2"/>
@@ -10027,9 +10409,7 @@
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
-      <c r="G353" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="G353" s="3"/>
       <c r="H353" s="2"/>
       <c r="I353" s="2"/>
       <c r="J353" s="2"/>
@@ -10041,9 +10421,7 @@
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
-      <c r="G354" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="G354" s="3"/>
       <c r="H354" s="2"/>
       <c r="I354" s="2"/>
       <c r="J354" s="2"/>
@@ -10055,9 +10433,7 @@
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
-      <c r="G355" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="G355" s="3"/>
       <c r="H355" s="2"/>
       <c r="I355" s="2"/>
       <c r="J355" s="2"/>
@@ -10069,9 +10445,7 @@
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
-      <c r="G356" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="G356" s="3"/>
       <c r="H356" s="2"/>
       <c r="I356" s="2"/>
       <c r="J356" s="2"/>
@@ -10083,9 +10457,7 @@
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
-      <c r="G357" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="G357" s="3"/>
       <c r="H357" s="2"/>
       <c r="I357" s="2"/>
       <c r="J357" s="2"/>
@@ -10097,9 +10469,7 @@
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
-      <c r="G358" s="2" t="s">
-        <v>167</v>
-      </c>
+      <c r="G358" s="3"/>
       <c r="H358" s="2"/>
       <c r="I358" s="2"/>
       <c r="J358" s="2"/>
@@ -10111,9 +10481,7 @@
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
-      <c r="G359" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="G359" s="3"/>
       <c r="H359" s="2"/>
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
@@ -10125,9 +10493,7 @@
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
-      <c r="G360" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="G360" s="3"/>
       <c r="H360" s="2"/>
       <c r="I360" s="2"/>
       <c r="J360" s="2"/>
@@ -10139,9 +10505,7 @@
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
-      <c r="G361" s="2" t="s">
-        <v>170</v>
-      </c>
+      <c r="G361" s="3"/>
       <c r="H361" s="2"/>
       <c r="I361" s="2"/>
       <c r="J361" s="2"/>
@@ -10153,9 +10517,7 @@
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
-      <c r="G362" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="G362" s="3"/>
       <c r="H362" s="2"/>
       <c r="I362" s="2"/>
       <c r="J362" s="2"/>
@@ -10167,9 +10529,7 @@
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
-      <c r="G363" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="G363" s="3"/>
       <c r="H363" s="2"/>
       <c r="I363" s="2"/>
       <c r="J363" s="2"/>
@@ -10181,9 +10541,7 @@
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
-      <c r="G364" s="2" t="s">
-        <v>173</v>
-      </c>
+      <c r="G364" s="3"/>
       <c r="H364" s="2"/>
       <c r="I364" s="2"/>
       <c r="J364" s="2"/>
@@ -10195,9 +10553,7 @@
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
-      <c r="G365" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="G365" s="3"/>
       <c r="H365" s="2"/>
       <c r="I365" s="2"/>
       <c r="J365" s="2"/>
@@ -10209,9 +10565,7 @@
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
-      <c r="G366" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="G366" s="3"/>
       <c r="H366" s="2"/>
       <c r="I366" s="2"/>
       <c r="J366" s="2"/>
@@ -10223,9 +10577,7 @@
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
-      <c r="G367" s="2" t="s">
-        <v>176</v>
-      </c>
+      <c r="G367" s="3"/>
       <c r="H367" s="2"/>
       <c r="I367" s="2"/>
       <c r="J367" s="2"/>
@@ -10237,9 +10589,7 @@
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
-      <c r="G368" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="G368" s="3"/>
       <c r="H368" s="2"/>
       <c r="I368" s="2"/>
       <c r="J368" s="2"/>
@@ -10251,9 +10601,7 @@
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
-      <c r="G369" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="G369" s="3"/>
       <c r="H369" s="2"/>
       <c r="I369" s="2"/>
       <c r="J369" s="2"/>
@@ -10265,9 +10613,7 @@
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
-      <c r="G370" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="G370" s="3"/>
       <c r="H370" s="2"/>
       <c r="I370" s="2"/>
       <c r="J370" s="2"/>
@@ -10279,9 +10625,7 @@
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
-      <c r="G371" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="G371" s="3"/>
       <c r="H371" s="2"/>
       <c r="I371" s="2"/>
       <c r="J371" s="2"/>
@@ -10293,9 +10637,7 @@
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
-      <c r="G372" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="G372" s="3"/>
       <c r="H372" s="2"/>
       <c r="I372" s="2"/>
       <c r="J372" s="2"/>
@@ -10307,9 +10649,7 @@
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
-      <c r="G373" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="G373" s="3"/>
       <c r="H373" s="2"/>
       <c r="I373" s="2"/>
       <c r="J373" s="2"/>
@@ -10321,9 +10661,7 @@
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
-      <c r="G374" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="G374" s="3"/>
       <c r="H374" s="2"/>
       <c r="I374" s="2"/>
       <c r="J374" s="2"/>
@@ -10335,9 +10673,7 @@
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
-      <c r="G375" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="G375" s="3"/>
       <c r="H375" s="2"/>
       <c r="I375" s="2"/>
       <c r="J375" s="2"/>
@@ -10349,9 +10685,7 @@
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
-      <c r="G376" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="G376" s="3"/>
       <c r="H376" s="2"/>
       <c r="I376" s="2"/>
       <c r="J376" s="2"/>
@@ -10363,9 +10697,7 @@
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
-      <c r="G377" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="G377" s="3"/>
       <c r="H377" s="2"/>
       <c r="I377" s="2"/>
       <c r="J377" s="2"/>
@@ -10377,9 +10709,7 @@
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
-      <c r="G378" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="G378" s="3"/>
       <c r="H378" s="2"/>
       <c r="I378" s="2"/>
       <c r="J378" s="2"/>
@@ -10391,9 +10721,7 @@
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
-      <c r="G379" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="G379" s="3"/>
       <c r="H379" s="2"/>
       <c r="I379" s="2"/>
       <c r="J379" s="2"/>
@@ -10405,9 +10733,7 @@
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
-      <c r="G380" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="G380" s="3"/>
       <c r="H380" s="2"/>
       <c r="I380" s="2"/>
       <c r="J380" s="2"/>
@@ -10419,9 +10745,7 @@
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
-      <c r="G381" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="G381" s="3"/>
       <c r="H381" s="2"/>
       <c r="I381" s="2"/>
       <c r="J381" s="2"/>
@@ -10433,9 +10757,7 @@
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
-      <c r="G382" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="G382" s="3"/>
       <c r="H382" s="2"/>
       <c r="I382" s="2"/>
       <c r="J382" s="2"/>
@@ -10447,9 +10769,7 @@
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
-      <c r="G383" s="2" t="s">
-        <v>192</v>
-      </c>
+      <c r="G383" s="3"/>
       <c r="H383" s="2"/>
       <c r="I383" s="2"/>
       <c r="J383" s="2"/>
@@ -10461,9 +10781,7 @@
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
-      <c r="G384" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="G384" s="3"/>
       <c r="H384" s="2"/>
       <c r="I384" s="2"/>
       <c r="J384" s="2"/>
@@ -10475,9 +10793,7 @@
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
-      <c r="G385" s="2" t="s">
-        <v>194</v>
-      </c>
+      <c r="G385" s="3"/>
       <c r="H385" s="2"/>
       <c r="I385" s="2"/>
       <c r="J385" s="2"/>
@@ -10489,9 +10805,7 @@
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
-      <c r="G386" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="G386" s="3"/>
       <c r="H386" s="2"/>
       <c r="I386" s="2"/>
       <c r="J386" s="2"/>
@@ -10503,9 +10817,7 @@
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
-      <c r="G387" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="G387" s="3"/>
       <c r="H387" s="2"/>
       <c r="I387" s="2"/>
       <c r="J387" s="2"/>
@@ -10517,9 +10829,7 @@
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
-      <c r="G388" s="2" t="s">
-        <v>197</v>
-      </c>
+      <c r="G388" s="3"/>
       <c r="H388" s="2"/>
       <c r="I388" s="2"/>
       <c r="J388" s="2"/>
@@ -10531,9 +10841,7 @@
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
-      <c r="G389" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="G389" s="3"/>
       <c r="H389" s="2"/>
       <c r="I389" s="2"/>
       <c r="J389" s="2"/>
@@ -10545,9 +10853,7 @@
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
-      <c r="G390" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="G390" s="3"/>
       <c r="H390" s="2"/>
       <c r="I390" s="2"/>
       <c r="J390" s="2"/>
@@ -10559,9 +10865,7 @@
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
-      <c r="G391" s="2" t="s">
-        <v>200</v>
-      </c>
+      <c r="G391" s="3"/>
       <c r="H391" s="2"/>
       <c r="I391" s="2"/>
       <c r="J391" s="2"/>
@@ -10573,9 +10877,7 @@
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
-      <c r="G392" s="2" t="s">
-        <v>201</v>
-      </c>
+      <c r="G392" s="3"/>
       <c r="H392" s="2"/>
       <c r="I392" s="2"/>
       <c r="J392" s="2"/>
@@ -10587,9 +10889,7 @@
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
-      <c r="G393" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="G393" s="3"/>
       <c r="H393" s="2"/>
       <c r="I393" s="2"/>
       <c r="J393" s="2"/>
@@ -10601,9 +10901,7 @@
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
-      <c r="G394" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="G394" s="3"/>
       <c r="H394" s="2"/>
       <c r="I394" s="2"/>
       <c r="J394" s="2"/>
@@ -10615,9 +10913,7 @@
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
-      <c r="G395" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="G395" s="3"/>
       <c r="H395" s="2"/>
       <c r="I395" s="2"/>
       <c r="J395" s="2"/>
@@ -10629,9 +10925,7 @@
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
-      <c r="G396" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="G396" s="3"/>
       <c r="H396" s="2"/>
       <c r="I396" s="2"/>
       <c r="J396" s="2"/>
@@ -10643,9 +10937,7 @@
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
-      <c r="G397" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="G397" s="3"/>
       <c r="H397" s="2"/>
       <c r="I397" s="2"/>
       <c r="J397" s="2"/>
@@ -10657,9 +10949,7 @@
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
-      <c r="G398" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="G398" s="3"/>
       <c r="H398" s="2"/>
       <c r="I398" s="2"/>
       <c r="J398" s="2"/>
@@ -10671,9 +10961,7 @@
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
-      <c r="G399" s="2" t="s">
-        <v>208</v>
-      </c>
+      <c r="G399" s="3"/>
       <c r="H399" s="2"/>
       <c r="I399" s="2"/>
       <c r="J399" s="2"/>
@@ -10685,9 +10973,7 @@
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
-      <c r="G400" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="G400" s="3"/>
       <c r="H400" s="2"/>
       <c r="I400" s="2"/>
       <c r="J400" s="2"/>
@@ -10699,9 +10985,7 @@
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
-      <c r="G401" s="2" t="s">
-        <v>210</v>
-      </c>
+      <c r="G401" s="3"/>
       <c r="H401" s="2"/>
       <c r="I401" s="2"/>
       <c r="J401" s="2"/>
@@ -10713,9 +10997,7 @@
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
-      <c r="G402" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="G402" s="3"/>
       <c r="H402" s="2"/>
       <c r="I402" s="2"/>
       <c r="J402" s="2"/>
@@ -10727,9 +11009,7 @@
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
-      <c r="G403" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="G403" s="3"/>
       <c r="H403" s="2"/>
       <c r="I403" s="2"/>
       <c r="J403" s="2"/>
@@ -10741,9 +11021,7 @@
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
-      <c r="G404" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="G404" s="3"/>
       <c r="H404" s="2"/>
       <c r="I404" s="2"/>
       <c r="J404" s="2"/>
@@ -10755,9 +11033,7 @@
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
-      <c r="G405" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="G405" s="3"/>
       <c r="H405" s="2"/>
       <c r="I405" s="2"/>
       <c r="J405" s="2"/>
@@ -10769,9 +11045,7 @@
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
-      <c r="G406" s="2" t="s">
-        <v>215</v>
-      </c>
+      <c r="G406" s="3"/>
       <c r="H406" s="2"/>
       <c r="I406" s="2"/>
       <c r="J406" s="2"/>
@@ -10783,9 +11057,7 @@
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
-      <c r="G407" s="2" t="s">
-        <v>216</v>
-      </c>
+      <c r="G407" s="3"/>
       <c r="H407" s="2"/>
       <c r="I407" s="2"/>
       <c r="J407" s="2"/>
@@ -10797,9 +11069,7 @@
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
-      <c r="G408" s="2" t="s">
-        <v>217</v>
-      </c>
+      <c r="G408" s="3"/>
       <c r="H408" s="2"/>
       <c r="I408" s="2"/>
       <c r="J408" s="2"/>
@@ -10811,9 +11081,7 @@
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
-      <c r="G409" s="2" t="s">
-        <v>218</v>
-      </c>
+      <c r="G409" s="3"/>
       <c r="H409" s="2"/>
       <c r="I409" s="2"/>
       <c r="J409" s="2"/>
@@ -10825,9 +11093,7 @@
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
-      <c r="G410" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="G410" s="3"/>
       <c r="H410" s="2"/>
       <c r="I410" s="2"/>
       <c r="J410" s="2"/>
@@ -10839,9 +11105,7 @@
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
-      <c r="G411" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="G411" s="3"/>
       <c r="H411" s="2"/>
       <c r="I411" s="2"/>
       <c r="J411" s="2"/>
@@ -10853,9 +11117,7 @@
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
-      <c r="G412" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="G412" s="3"/>
       <c r="H412" s="2"/>
       <c r="I412" s="2"/>
       <c r="J412" s="2"/>
@@ -10867,9 +11129,7 @@
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
-      <c r="G413" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="G413" s="3"/>
       <c r="H413" s="2"/>
       <c r="I413" s="2"/>
       <c r="J413" s="2"/>
@@ -10881,9 +11141,7 @@
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
-      <c r="G414" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="G414" s="3"/>
       <c r="H414" s="2"/>
       <c r="I414" s="2"/>
       <c r="J414" s="2"/>
@@ -10895,9 +11153,7 @@
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
-      <c r="G415" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="G415" s="3"/>
       <c r="H415" s="2"/>
       <c r="I415" s="2"/>
       <c r="J415" s="2"/>
@@ -10909,9 +11165,7 @@
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
-      <c r="G416" s="2" t="s">
-        <v>225</v>
-      </c>
+      <c r="G416" s="3"/>
       <c r="H416" s="2"/>
       <c r="I416" s="2"/>
       <c r="J416" s="2"/>
@@ -10923,9 +11177,7 @@
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
-      <c r="G417" s="2" t="s">
-        <v>226</v>
-      </c>
+      <c r="G417" s="3"/>
       <c r="H417" s="2"/>
       <c r="I417" s="2"/>
       <c r="J417" s="2"/>
@@ -10937,9 +11189,7 @@
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
-      <c r="G418" s="2" t="s">
-        <v>227</v>
-      </c>
+      <c r="G418" s="3"/>
       <c r="H418" s="2"/>
       <c r="I418" s="2"/>
       <c r="J418" s="2"/>
@@ -10951,9 +11201,7 @@
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
-      <c r="G419" s="2" t="s">
-        <v>228</v>
-      </c>
+      <c r="G419" s="3"/>
       <c r="H419" s="2"/>
       <c r="I419" s="2"/>
       <c r="J419" s="2"/>
@@ -10965,9 +11213,7 @@
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
-      <c r="G420" s="2" t="s">
-        <v>229</v>
-      </c>
+      <c r="G420" s="3"/>
       <c r="H420" s="2"/>
       <c r="I420" s="2"/>
       <c r="J420" s="2"/>
@@ -10979,9 +11225,7 @@
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
-      <c r="G421" s="2" t="s">
-        <v>230</v>
-      </c>
+      <c r="G421" s="3"/>
       <c r="H421" s="2"/>
       <c r="I421" s="2"/>
       <c r="J421" s="2"/>
@@ -10993,9 +11237,7 @@
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
-      <c r="G422" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="G422" s="3"/>
       <c r="H422" s="2"/>
       <c r="I422" s="2"/>
       <c r="J422" s="2"/>
@@ -11007,9 +11249,7 @@
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
-      <c r="G423" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="G423" s="3"/>
       <c r="H423" s="2"/>
       <c r="I423" s="2"/>
       <c r="J423" s="2"/>
@@ -11021,9 +11261,7 @@
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
-      <c r="G424" s="2" t="s">
-        <v>233</v>
-      </c>
+      <c r="G424" s="3"/>
       <c r="H424" s="2"/>
       <c r="I424" s="2"/>
       <c r="J424" s="2"/>
@@ -11035,9 +11273,7 @@
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
-      <c r="G425" s="2" t="s">
-        <v>234</v>
-      </c>
+      <c r="G425" s="3"/>
       <c r="H425" s="2"/>
       <c r="I425" s="2"/>
       <c r="J425" s="2"/>
@@ -11049,9 +11285,7 @@
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
-      <c r="G426" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="G426" s="3"/>
       <c r="H426" s="2"/>
       <c r="I426" s="2"/>
       <c r="J426" s="2"/>
@@ -11063,9 +11297,7 @@
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
-      <c r="G427" s="2" t="s">
-        <v>236</v>
-      </c>
+      <c r="G427" s="3"/>
       <c r="H427" s="2"/>
       <c r="I427" s="2"/>
       <c r="J427" s="2"/>
@@ -11077,9 +11309,7 @@
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
-      <c r="G428" s="2" t="s">
-        <v>237</v>
-      </c>
+      <c r="G428" s="3"/>
       <c r="H428" s="2"/>
       <c r="I428" s="2"/>
       <c r="J428" s="2"/>
@@ -11091,9 +11321,7 @@
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
-      <c r="G429" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="G429" s="3"/>
       <c r="H429" s="2"/>
       <c r="I429" s="2"/>
       <c r="J429" s="2"/>
@@ -11105,9 +11333,7 @@
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
-      <c r="G430" s="2" t="s">
-        <v>239</v>
-      </c>
+      <c r="G430" s="3"/>
       <c r="H430" s="2"/>
       <c r="I430" s="2"/>
       <c r="J430" s="2"/>
@@ -11119,9 +11345,7 @@
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
-      <c r="G431" s="2" t="s">
-        <v>240</v>
-      </c>
+      <c r="G431" s="3"/>
       <c r="H431" s="2"/>
       <c r="I431" s="2"/>
       <c r="J431" s="2"/>
@@ -11133,9 +11357,7 @@
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
-      <c r="G432" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="G432" s="3"/>
       <c r="H432" s="2"/>
       <c r="I432" s="2"/>
       <c r="J432" s="2"/>
@@ -11147,9 +11369,7 @@
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
-      <c r="G433" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="G433" s="3"/>
       <c r="H433" s="2"/>
       <c r="I433" s="2"/>
       <c r="J433" s="2"/>
@@ -11161,9 +11381,7 @@
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
-      <c r="G434" s="2" t="s">
-        <v>243</v>
-      </c>
+      <c r="G434" s="3"/>
       <c r="H434" s="2"/>
       <c r="I434" s="2"/>
       <c r="J434" s="2"/>
@@ -11175,9 +11393,7 @@
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
-      <c r="G435" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="G435" s="3"/>
       <c r="H435" s="2"/>
       <c r="I435" s="2"/>
       <c r="J435" s="2"/>
@@ -11189,9 +11405,7 @@
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
-      <c r="G436" s="2" t="s">
-        <v>245</v>
-      </c>
+      <c r="G436" s="3"/>
       <c r="H436" s="2"/>
       <c r="I436" s="2"/>
       <c r="J436" s="2"/>
@@ -11203,9 +11417,7 @@
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
-      <c r="G437" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="G437" s="3"/>
       <c r="H437" s="2"/>
       <c r="I437" s="2"/>
       <c r="J437" s="2"/>
@@ -11217,9 +11429,7 @@
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
-      <c r="G438" s="2" t="s">
-        <v>247</v>
-      </c>
+      <c r="G438" s="3"/>
       <c r="H438" s="2"/>
       <c r="I438" s="2"/>
       <c r="J438" s="2"/>
@@ -11231,9 +11441,7 @@
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
-      <c r="G439" s="2" t="s">
-        <v>248</v>
-      </c>
+      <c r="G439" s="3"/>
       <c r="H439" s="2"/>
       <c r="I439" s="2"/>
       <c r="J439" s="2"/>
@@ -11245,9 +11453,7 @@
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
-      <c r="G440" s="2" t="s">
-        <v>249</v>
-      </c>
+      <c r="G440" s="3"/>
       <c r="H440" s="2"/>
       <c r="I440" s="2"/>
       <c r="J440" s="2"/>
@@ -11259,9 +11465,7 @@
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
-      <c r="G441" s="2" t="s">
-        <v>250</v>
-      </c>
+      <c r="G441" s="3"/>
       <c r="H441" s="2"/>
       <c r="I441" s="2"/>
       <c r="J441" s="2"/>
@@ -11273,9 +11477,7 @@
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
-      <c r="G442" s="2" t="s">
-        <v>251</v>
-      </c>
+      <c r="G442" s="3"/>
       <c r="H442" s="2"/>
       <c r="I442" s="2"/>
       <c r="J442" s="2"/>
@@ -11287,9 +11489,7 @@
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
-      <c r="G443" s="2" t="s">
-        <v>252</v>
-      </c>
+      <c r="G443" s="3"/>
       <c r="H443" s="2"/>
       <c r="I443" s="2"/>
       <c r="J443" s="2"/>
@@ -11301,9 +11501,7 @@
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
-      <c r="G444" s="2" t="s">
-        <v>239</v>
-      </c>
+      <c r="G444" s="3"/>
       <c r="H444" s="2"/>
       <c r="I444" s="2"/>
       <c r="J444" s="2"/>
@@ -11315,9 +11513,7 @@
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
-      <c r="G445" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="G445" s="3"/>
       <c r="H445" s="2"/>
       <c r="I445" s="2"/>
       <c r="J445" s="2"/>
@@ -11329,9 +11525,7 @@
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
-      <c r="G446" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="G446" s="3"/>
       <c r="H446" s="2"/>
       <c r="I446" s="2"/>
       <c r="J446" s="2"/>
@@ -11343,9 +11537,7 @@
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
-      <c r="G447" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="G447" s="3"/>
       <c r="H447" s="2"/>
       <c r="I447" s="2"/>
       <c r="J447" s="2"/>
@@ -11357,9 +11549,7 @@
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
-      <c r="G448" s="2" t="s">
-        <v>254</v>
-      </c>
+      <c r="G448" s="3"/>
       <c r="H448" s="2"/>
       <c r="I448" s="2"/>
       <c r="J448" s="2"/>
@@ -11371,9 +11561,7 @@
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
-      <c r="G449" s="2" t="s">
-        <v>255</v>
-      </c>
+      <c r="G449" s="3"/>
       <c r="H449" s="2"/>
       <c r="I449" s="2"/>
       <c r="J449" s="2"/>
@@ -11385,9 +11573,7 @@
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
-      <c r="G450" s="2" t="s">
-        <v>256</v>
-      </c>
+      <c r="G450" s="3"/>
       <c r="H450" s="2"/>
       <c r="I450" s="2"/>
       <c r="J450" s="2"/>
@@ -11399,9 +11585,7 @@
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
-      <c r="G451" s="2" t="s">
-        <v>257</v>
-      </c>
+      <c r="G451" s="3"/>
       <c r="H451" s="2"/>
       <c r="I451" s="2"/>
       <c r="J451" s="2"/>
@@ -11413,9 +11597,7 @@
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
-      <c r="G452" s="2" t="s">
-        <v>258</v>
-      </c>
+      <c r="G452" s="3"/>
       <c r="H452" s="2"/>
       <c r="I452" s="2"/>
       <c r="J452" s="2"/>
@@ -11427,9 +11609,7 @@
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
-      <c r="G453" s="2" t="s">
-        <v>259</v>
-      </c>
+      <c r="G453" s="3"/>
       <c r="H453" s="2"/>
       <c r="I453" s="2"/>
       <c r="J453" s="2"/>
@@ -11441,9 +11621,7 @@
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
-      <c r="G454" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="G454" s="3"/>
       <c r="H454" s="2"/>
       <c r="I454" s="2"/>
       <c r="J454" s="2"/>
@@ -11455,9 +11633,7 @@
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
-      <c r="G455" s="2" t="s">
-        <v>261</v>
-      </c>
+      <c r="G455" s="3"/>
       <c r="H455" s="2"/>
       <c r="I455" s="2"/>
       <c r="J455" s="2"/>
@@ -11469,9 +11645,7 @@
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
-      <c r="G456" s="2" t="s">
-        <v>262</v>
-      </c>
+      <c r="G456" s="3"/>
       <c r="H456" s="2"/>
       <c r="I456" s="2"/>
       <c r="J456" s="2"/>
@@ -11483,9 +11657,7 @@
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
-      <c r="G457" s="2" t="s">
-        <v>263</v>
-      </c>
+      <c r="G457" s="3"/>
       <c r="H457" s="2"/>
       <c r="I457" s="2"/>
       <c r="J457" s="2"/>
@@ -11497,9 +11669,7 @@
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
-      <c r="G458" s="2" t="s">
-        <v>264</v>
-      </c>
+      <c r="G458" s="3"/>
       <c r="H458" s="2"/>
       <c r="I458" s="2"/>
       <c r="J458" s="2"/>
@@ -11511,9 +11681,7 @@
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
-      <c r="G459" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="G459" s="3"/>
       <c r="H459" s="2"/>
       <c r="I459" s="2"/>
       <c r="J459" s="2"/>
@@ -11525,9 +11693,7 @@
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
-      <c r="G460" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="G460" s="3"/>
       <c r="H460" s="2"/>
       <c r="I460" s="2"/>
       <c r="J460" s="2"/>
@@ -11539,9 +11705,7 @@
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
-      <c r="G461" s="2" t="s">
-        <v>267</v>
-      </c>
+      <c r="G461" s="3"/>
       <c r="H461" s="2"/>
       <c r="I461" s="2"/>
       <c r="J461" s="2"/>
@@ -11553,9 +11717,7 @@
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
-      <c r="G462" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="G462" s="3"/>
       <c r="H462" s="2"/>
       <c r="I462" s="2"/>
       <c r="J462" s="2"/>
@@ -11567,9 +11729,7 @@
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
-      <c r="G463" s="2" t="s">
-        <v>269</v>
-      </c>
+      <c r="G463" s="3"/>
       <c r="H463" s="2"/>
       <c r="I463" s="2"/>
       <c r="J463" s="2"/>
@@ -11581,9 +11741,7 @@
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
-      <c r="G464" s="2" t="s">
-        <v>270</v>
-      </c>
+      <c r="G464" s="3"/>
       <c r="H464" s="2"/>
       <c r="I464" s="2"/>
       <c r="J464" s="2"/>
@@ -11595,9 +11753,7 @@
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
-      <c r="G465" s="2" t="s">
-        <v>271</v>
-      </c>
+      <c r="G465" s="3"/>
       <c r="H465" s="2"/>
       <c r="I465" s="2"/>
       <c r="J465" s="2"/>
@@ -11609,9 +11765,7 @@
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
-      <c r="G466" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="G466" s="3"/>
       <c r="H466" s="2"/>
       <c r="I466" s="2"/>
       <c r="J466" s="2"/>
@@ -11623,9 +11777,7 @@
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
-      <c r="G467" s="2" t="s">
-        <v>273</v>
-      </c>
+      <c r="G467" s="3"/>
       <c r="H467" s="2"/>
       <c r="I467" s="2"/>
       <c r="J467" s="2"/>
@@ -11637,9 +11789,7 @@
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
-      <c r="G468" s="2" t="s">
-        <v>274</v>
-      </c>
+      <c r="G468" s="3"/>
       <c r="H468" s="2"/>
       <c r="I468" s="2"/>
       <c r="J468" s="2"/>
@@ -11651,9 +11801,7 @@
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
-      <c r="G469" s="2" t="s">
-        <v>275</v>
-      </c>
+      <c r="G469" s="3"/>
       <c r="H469" s="2"/>
       <c r="I469" s="2"/>
       <c r="J469" s="2"/>
@@ -11665,9 +11813,7 @@
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
-      <c r="G470" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="G470" s="3"/>
       <c r="H470" s="2"/>
       <c r="I470" s="2"/>
       <c r="J470" s="2"/>
@@ -11679,9 +11825,7 @@
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
-      <c r="G471" s="2" t="s">
-        <v>277</v>
-      </c>
+      <c r="G471" s="3"/>
       <c r="H471" s="2"/>
       <c r="I471" s="2"/>
       <c r="J471" s="2"/>
@@ -11693,9 +11837,7 @@
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
-      <c r="G472" s="2" t="s">
-        <v>278</v>
-      </c>
+      <c r="G472" s="3"/>
       <c r="H472" s="2"/>
       <c r="I472" s="2"/>
       <c r="J472" s="2"/>
@@ -11707,9 +11849,7 @@
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
-      <c r="G473" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="G473" s="3"/>
       <c r="H473" s="2"/>
       <c r="I473" s="2"/>
       <c r="J473" s="2"/>
@@ -11721,9 +11861,7 @@
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
-      <c r="G474" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="G474" s="3"/>
       <c r="H474" s="2"/>
       <c r="I474" s="2"/>
       <c r="J474" s="2"/>
@@ -11735,9 +11873,7 @@
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
-      <c r="G475" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="G475" s="3"/>
       <c r="H475" s="2"/>
       <c r="I475" s="2"/>
       <c r="J475" s="2"/>
@@ -11749,9 +11885,7 @@
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
-      <c r="G476" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="G476" s="3"/>
       <c r="H476" s="2"/>
       <c r="I476" s="2"/>
       <c r="J476" s="2"/>
@@ -11763,9 +11897,7 @@
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
-      <c r="G477" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="G477" s="3"/>
       <c r="H477" s="2"/>
       <c r="I477" s="2"/>
       <c r="J477" s="2"/>
@@ -11777,9 +11909,7 @@
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
-      <c r="G478" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="G478" s="3"/>
       <c r="H478" s="2"/>
       <c r="I478" s="2"/>
       <c r="J478" s="2"/>
@@ -11791,9 +11921,7 @@
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
-      <c r="G479" s="2" t="s">
-        <v>285</v>
-      </c>
+      <c r="G479" s="3"/>
       <c r="H479" s="2"/>
       <c r="I479" s="2"/>
       <c r="J479" s="2"/>
@@ -11805,9 +11933,7 @@
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
-      <c r="G480" s="2" t="s">
-        <v>286</v>
-      </c>
+      <c r="G480" s="3"/>
       <c r="H480" s="2"/>
       <c r="I480" s="2"/>
       <c r="J480" s="2"/>
@@ -11819,9 +11945,7 @@
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
-      <c r="G481" s="2" t="s">
-        <v>287</v>
-      </c>
+      <c r="G481" s="3"/>
       <c r="H481" s="2"/>
       <c r="I481" s="2"/>
       <c r="J481" s="2"/>
@@ -11833,9 +11957,7 @@
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
-      <c r="G482" s="2" t="s">
-        <v>288</v>
-      </c>
+      <c r="G482" s="3"/>
       <c r="H482" s="2"/>
       <c r="I482" s="2"/>
       <c r="J482" s="2"/>
@@ -11847,9 +11969,7 @@
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
-      <c r="G483" s="2" t="s">
-        <v>289</v>
-      </c>
+      <c r="G483" s="3"/>
       <c r="H483" s="2"/>
       <c r="I483" s="2"/>
       <c r="J483" s="2"/>
@@ -11861,9 +11981,7 @@
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
-      <c r="G484" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="G484" s="3"/>
       <c r="H484" s="2"/>
       <c r="I484" s="2"/>
       <c r="J484" s="2"/>
@@ -11875,9 +11993,7 @@
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
-      <c r="G485" s="2" t="s">
-        <v>291</v>
-      </c>
+      <c r="G485" s="3"/>
       <c r="H485" s="2"/>
       <c r="I485" s="2"/>
       <c r="J485" s="2"/>
@@ -11889,9 +12005,7 @@
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
-      <c r="G486" s="2" t="s">
-        <v>292</v>
-      </c>
+      <c r="G486" s="3"/>
       <c r="H486" s="2"/>
       <c r="I486" s="2"/>
       <c r="J486" s="2"/>
@@ -11903,9 +12017,7 @@
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
-      <c r="G487" s="2" t="s">
-        <v>293</v>
-      </c>
+      <c r="G487" s="3"/>
       <c r="H487" s="2"/>
       <c r="I487" s="2"/>
       <c r="J487" s="2"/>
@@ -11917,9 +12029,7 @@
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
-      <c r="G488" s="2" t="s">
-        <v>294</v>
-      </c>
+      <c r="G488" s="3"/>
       <c r="H488" s="2"/>
       <c r="I488" s="2"/>
       <c r="J488" s="2"/>
@@ -11931,9 +12041,7 @@
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
-      <c r="G489" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="G489" s="3"/>
       <c r="H489" s="2"/>
       <c r="I489" s="2"/>
       <c r="J489" s="2"/>
@@ -11945,9 +12053,7 @@
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
-      <c r="G490" s="2" t="s">
-        <v>296</v>
-      </c>
+      <c r="G490" s="3"/>
       <c r="H490" s="2"/>
       <c r="I490" s="2"/>
       <c r="J490" s="2"/>
@@ -11959,9 +12065,7 @@
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
-      <c r="G491" s="2" t="s">
-        <v>297</v>
-      </c>
+      <c r="G491" s="3"/>
       <c r="H491" s="2"/>
       <c r="I491" s="2"/>
       <c r="J491" s="2"/>
@@ -11973,9 +12077,7 @@
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
-      <c r="G492" s="2" t="s">
-        <v>298</v>
-      </c>
+      <c r="G492" s="3"/>
       <c r="H492" s="2"/>
       <c r="I492" s="2"/>
       <c r="J492" s="2"/>
@@ -11987,9 +12089,7 @@
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
-      <c r="G493" s="2" t="s">
-        <v>299</v>
-      </c>
+      <c r="G493" s="3"/>
       <c r="H493" s="2"/>
       <c r="I493" s="2"/>
       <c r="J493" s="2"/>
@@ -12001,9 +12101,7 @@
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
-      <c r="G494" s="2" t="s">
-        <v>300</v>
-      </c>
+      <c r="G494" s="3"/>
       <c r="H494" s="2"/>
       <c r="I494" s="2"/>
       <c r="J494" s="2"/>
@@ -12015,9 +12113,7 @@
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
-      <c r="G495" s="2" t="s">
-        <v>301</v>
-      </c>
+      <c r="G495" s="3"/>
       <c r="H495" s="2"/>
       <c r="I495" s="2"/>
       <c r="J495" s="2"/>
@@ -12029,9 +12125,7 @@
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
-      <c r="G496" s="2" t="s">
-        <v>302</v>
-      </c>
+      <c r="G496" s="3"/>
       <c r="H496" s="2"/>
       <c r="I496" s="2"/>
       <c r="J496" s="2"/>
@@ -12043,9 +12137,7 @@
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
-      <c r="G497" s="2" t="s">
-        <v>303</v>
-      </c>
+      <c r="G497" s="3"/>
       <c r="H497" s="2"/>
       <c r="I497" s="2"/>
       <c r="J497" s="2"/>
@@ -12057,9 +12149,7 @@
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
-      <c r="G498" s="2" t="s">
-        <v>304</v>
-      </c>
+      <c r="G498" s="3"/>
       <c r="H498" s="2"/>
       <c r="I498" s="2"/>
       <c r="J498" s="2"/>
@@ -12071,9 +12161,7 @@
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
-      <c r="G499" s="2" t="s">
-        <v>305</v>
-      </c>
+      <c r="G499" s="3"/>
       <c r="H499" s="2"/>
       <c r="I499" s="2"/>
       <c r="J499" s="2"/>
@@ -12085,9 +12173,7 @@
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
-      <c r="G500" s="2" t="s">
-        <v>306</v>
-      </c>
+      <c r="G500" s="3"/>
       <c r="H500" s="2"/>
       <c r="I500" s="2"/>
       <c r="J500" s="2"/>
@@ -12099,9 +12185,7 @@
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
-      <c r="G501" s="2" t="s">
-        <v>307</v>
-      </c>
+      <c r="G501" s="3"/>
       <c r="H501" s="2"/>
       <c r="I501" s="2"/>
       <c r="J501" s="2"/>
@@ -12113,9 +12197,7 @@
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
-      <c r="G502" s="2" t="s">
-        <v>308</v>
-      </c>
+      <c r="G502" s="3"/>
       <c r="H502" s="2"/>
       <c r="I502" s="2"/>
       <c r="J502" s="2"/>
@@ -12127,9 +12209,7 @@
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
-      <c r="G503" s="2" t="s">
-        <v>309</v>
-      </c>
+      <c r="G503" s="3"/>
       <c r="H503" s="2"/>
       <c r="I503" s="2"/>
       <c r="J503" s="2"/>
@@ -12141,9 +12221,7 @@
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
-      <c r="G504" s="2" t="s">
-        <v>310</v>
-      </c>
+      <c r="G504" s="3"/>
       <c r="H504" s="2"/>
       <c r="I504" s="2"/>
       <c r="J504" s="2"/>
@@ -12155,9 +12233,7 @@
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
-      <c r="G505" s="2" t="s">
-        <v>311</v>
-      </c>
+      <c r="G505" s="3"/>
       <c r="H505" s="2"/>
       <c r="I505" s="2"/>
       <c r="J505" s="2"/>
@@ -12169,9 +12245,7 @@
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
-      <c r="G506" s="2" t="s">
-        <v>312</v>
-      </c>
+      <c r="G506" s="3"/>
       <c r="H506" s="2"/>
       <c r="I506" s="2"/>
       <c r="J506" s="2"/>
@@ -12183,9 +12257,7 @@
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
-      <c r="G507" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="G507" s="3"/>
       <c r="H507" s="2"/>
       <c r="I507" s="2"/>
       <c r="J507" s="2"/>
@@ -12197,9 +12269,7 @@
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
-      <c r="G508" s="2" t="s">
-        <v>314</v>
-      </c>
+      <c r="G508" s="3"/>
       <c r="H508" s="2"/>
       <c r="I508" s="2"/>
       <c r="J508" s="2"/>
@@ -12211,9 +12281,7 @@
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
-      <c r="G509" s="2" t="s">
-        <v>315</v>
-      </c>
+      <c r="G509" s="3"/>
       <c r="H509" s="2"/>
       <c r="I509" s="2"/>
       <c r="J509" s="2"/>
@@ -12225,9 +12293,7 @@
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
-      <c r="G510" s="2" t="s">
-        <v>316</v>
-      </c>
+      <c r="G510" s="3"/>
       <c r="H510" s="2"/>
       <c r="I510" s="2"/>
       <c r="J510" s="2"/>
@@ -12239,9 +12305,7 @@
       <c r="D511" s="2"/>
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
-      <c r="G511" s="2" t="s">
-        <v>317</v>
-      </c>
+      <c r="G511" s="3"/>
       <c r="H511" s="2"/>
       <c r="I511" s="2"/>
       <c r="J511" s="2"/>
@@ -12253,9 +12317,7 @@
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
-      <c r="G512" s="2" t="s">
-        <v>318</v>
-      </c>
+      <c r="G512" s="3"/>
       <c r="H512" s="2"/>
       <c r="I512" s="2"/>
       <c r="J512" s="2"/>
@@ -12267,9 +12329,7 @@
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
-      <c r="G513" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="G513" s="3"/>
       <c r="H513" s="2"/>
       <c r="I513" s="2"/>
       <c r="J513" s="2"/>
@@ -12281,9 +12341,7 @@
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
-      <c r="G514" s="2" t="s">
-        <v>320</v>
-      </c>
+      <c r="G514" s="3"/>
       <c r="H514" s="2"/>
       <c r="I514" s="2"/>
       <c r="J514" s="2"/>
@@ -12295,9 +12353,7 @@
       <c r="D515" s="2"/>
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
-      <c r="G515" s="2" t="s">
-        <v>321</v>
-      </c>
+      <c r="G515" s="3"/>
       <c r="H515" s="2"/>
       <c r="I515" s="2"/>
       <c r="J515" s="2"/>
@@ -12309,9 +12365,7 @@
       <c r="D516" s="2"/>
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
-      <c r="G516" s="2" t="s">
-        <v>322</v>
-      </c>
+      <c r="G516" s="3"/>
       <c r="H516" s="2"/>
       <c r="I516" s="2"/>
       <c r="J516" s="2"/>
@@ -12323,9 +12377,7 @@
       <c r="D517" s="2"/>
       <c r="E517" s="2"/>
       <c r="F517" s="2"/>
-      <c r="G517" s="2" t="s">
-        <v>323</v>
-      </c>
+      <c r="G517" s="3"/>
       <c r="H517" s="2"/>
       <c r="I517" s="2"/>
       <c r="J517" s="2"/>
@@ -12337,9 +12389,7 @@
       <c r="D518" s="2"/>
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
-      <c r="G518" s="2" t="s">
-        <v>324</v>
-      </c>
+      <c r="G518" s="3"/>
       <c r="H518" s="2"/>
       <c r="I518" s="2"/>
       <c r="J518" s="2"/>
@@ -12351,9 +12401,7 @@
       <c r="D519" s="2"/>
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
-      <c r="G519" s="2" t="s">
-        <v>325</v>
-      </c>
+      <c r="G519" s="3"/>
       <c r="H519" s="2"/>
       <c r="I519" s="2"/>
       <c r="J519" s="2"/>
@@ -12365,9 +12413,7 @@
       <c r="D520" s="2"/>
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
-      <c r="G520" s="2" t="s">
-        <v>326</v>
-      </c>
+      <c r="G520" s="3"/>
       <c r="H520" s="2"/>
       <c r="I520" s="2"/>
       <c r="J520" s="2"/>
@@ -12379,9 +12425,7 @@
       <c r="D521" s="2"/>
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
-      <c r="G521" s="2" t="s">
-        <v>327</v>
-      </c>
+      <c r="G521" s="3"/>
       <c r="H521" s="2"/>
       <c r="I521" s="2"/>
       <c r="J521" s="2"/>
@@ -12393,9 +12437,7 @@
       <c r="D522" s="2"/>
       <c r="E522" s="2"/>
       <c r="F522" s="2"/>
-      <c r="G522" s="2" t="s">
-        <v>328</v>
-      </c>
+      <c r="G522" s="3"/>
       <c r="H522" s="2"/>
       <c r="I522" s="2"/>
       <c r="J522" s="2"/>
@@ -12407,9 +12449,7 @@
       <c r="D523" s="2"/>
       <c r="E523" s="2"/>
       <c r="F523" s="2"/>
-      <c r="G523" s="2" t="s">
-        <v>329</v>
-      </c>
+      <c r="G523" s="3"/>
       <c r="H523" s="2"/>
       <c r="I523" s="2"/>
       <c r="J523" s="2"/>
@@ -12421,9 +12461,7 @@
       <c r="D524" s="2"/>
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
-      <c r="G524" s="2" t="s">
-        <v>330</v>
-      </c>
+      <c r="G524" s="3"/>
       <c r="H524" s="2"/>
       <c r="I524" s="2"/>
       <c r="J524" s="2"/>
@@ -12435,9 +12473,7 @@
       <c r="D525" s="2"/>
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
-      <c r="G525" s="2" t="s">
-        <v>331</v>
-      </c>
+      <c r="G525" s="3"/>
       <c r="H525" s="2"/>
       <c r="I525" s="2"/>
       <c r="J525" s="2"/>
@@ -12449,9 +12485,7 @@
       <c r="D526" s="2"/>
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
-      <c r="G526" s="2" t="s">
-        <v>332</v>
-      </c>
+      <c r="G526" s="3"/>
       <c r="H526" s="2"/>
       <c r="I526" s="2"/>
       <c r="J526" s="2"/>
@@ -12463,9 +12497,7 @@
       <c r="D527" s="2"/>
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
-      <c r="G527" s="2" t="s">
-        <v>333</v>
-      </c>
+      <c r="G527" s="3"/>
       <c r="H527" s="2"/>
       <c r="I527" s="2"/>
       <c r="J527" s="2"/>
@@ -12477,9 +12509,7 @@
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
-      <c r="G528" s="2" t="s">
-        <v>334</v>
-      </c>
+      <c r="G528" s="3"/>
       <c r="H528" s="2"/>
       <c r="I528" s="2"/>
       <c r="J528" s="2"/>
@@ -12491,9 +12521,7 @@
       <c r="D529" s="2"/>
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
-      <c r="G529" s="2" t="s">
-        <v>335</v>
-      </c>
+      <c r="G529" s="3"/>
       <c r="H529" s="2"/>
       <c r="I529" s="2"/>
       <c r="J529" s="2"/>
@@ -12505,9 +12533,7 @@
       <c r="D530" s="2"/>
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
-      <c r="G530" s="2" t="s">
-        <v>336</v>
-      </c>
+      <c r="G530" s="3"/>
       <c r="H530" s="2"/>
       <c r="I530" s="2"/>
       <c r="J530" s="2"/>
@@ -12519,9 +12545,7 @@
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
-      <c r="G531" s="2" t="s">
-        <v>337</v>
-      </c>
+      <c r="G531" s="3"/>
       <c r="H531" s="2"/>
       <c r="I531" s="2"/>
       <c r="J531" s="2"/>
@@ -12533,9 +12557,7 @@
       <c r="D532" s="2"/>
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
-      <c r="G532" s="2" t="s">
-        <v>338</v>
-      </c>
+      <c r="G532" s="3"/>
       <c r="H532" s="2"/>
       <c r="I532" s="2"/>
       <c r="J532" s="2"/>
@@ -12547,9 +12569,7 @@
       <c r="D533" s="2"/>
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
-      <c r="G533" s="2" t="s">
-        <v>339</v>
-      </c>
+      <c r="G533" s="3"/>
       <c r="H533" s="2"/>
       <c r="I533" s="2"/>
       <c r="J533" s="2"/>
@@ -12561,9 +12581,7 @@
       <c r="D534" s="2"/>
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
-      <c r="G534" s="2" t="s">
-        <v>340</v>
-      </c>
+      <c r="G534" s="3"/>
       <c r="H534" s="2"/>
       <c r="I534" s="2"/>
       <c r="J534" s="2"/>
@@ -12575,9 +12593,7 @@
       <c r="D535" s="2"/>
       <c r="E535" s="2"/>
       <c r="F535" s="2"/>
-      <c r="G535" s="2" t="s">
-        <v>341</v>
-      </c>
+      <c r="G535" s="3"/>
       <c r="H535" s="2"/>
       <c r="I535" s="2"/>
       <c r="J535" s="2"/>
@@ -12589,9 +12605,7 @@
       <c r="D536" s="2"/>
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
-      <c r="G536" s="2" t="s">
-        <v>342</v>
-      </c>
+      <c r="G536" s="3"/>
       <c r="H536" s="2"/>
       <c r="I536" s="2"/>
       <c r="J536" s="2"/>
@@ -12603,9 +12617,7 @@
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
-      <c r="G537" s="2" t="s">
-        <v>343</v>
-      </c>
+      <c r="G537" s="3"/>
       <c r="H537" s="2"/>
       <c r="I537" s="2"/>
       <c r="J537" s="2"/>
@@ -12617,9 +12629,7 @@
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
-      <c r="G538" s="2" t="s">
-        <v>344</v>
-      </c>
+      <c r="G538" s="3"/>
       <c r="H538" s="2"/>
       <c r="I538" s="2"/>
       <c r="J538" s="2"/>
